--- a/Python code - Structural Macroeconometrics- Final Project/Data/Raw data/ALL_HICP_Monthly_Italy_Eurostat.xlsx
+++ b/Python code - Structural Macroeconometrics- Final Project/Data/Raw data/ALL_HICP_Monthly_Italy_Eurostat.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Github\Coding-Sample\Python code - Structural Macroeconometrics- Final Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Github\Coding-Sample\Python code - Structural Macroeconometrics- Final Project\Data\Raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876EEA74-B43E-472B-B7E5-40D3DC3121FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACD0F53-5997-49C9-9358-098FBD01A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Structure" sheetId="2" r:id="rId2"/>
     <sheet name="all" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet 2" sheetId="4" r:id="rId4"/>
+    <sheet name="energy" sheetId="4" r:id="rId4"/>
     <sheet name="en+food" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet 4" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet 5" sheetId="7" r:id="rId7"/>
@@ -1423,9 +1423,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1463,7 +1463,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1569,7 +1569,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1711,7 +1711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1721,25 +1721,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:O22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="64.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="64.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1784,17 +1784,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>22</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>26</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
@@ -1930,21 +1930,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C348"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="79.7109375" customWidth="1"/>
+    <col min="2" max="5" width="79.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>31</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>33</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>36</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>36</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>36</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>36</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>36</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>36</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>36</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>36</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>36</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>36</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>36</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>36</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>36</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>36</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>36</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>36</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>36</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>36</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>36</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>36</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>36</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>36</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>36</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>36</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>36</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>36</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>36</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>36</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>36</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>36</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>36</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>36</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>36</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>36</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>36</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>36</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>36</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>36</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>36</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>36</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>36</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>36</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>36</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>36</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>36</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>36</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>36</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>36</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>36</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>36</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>36</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>36</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>36</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>36</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>36</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>36</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
         <v>36</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>36</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
         <v>36</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>36</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>36</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>36</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>36</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>36</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
         <v>36</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>36</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
         <v>36</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>36</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
         <v>36</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>36</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
         <v>36</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>36</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="2" t="s">
         <v>36</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>36</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>36</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>36</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>36</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>36</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
         <v>36</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>36</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="2" t="s">
         <v>36</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>36</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
         <v>36</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>36</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
         <v>36</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>36</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
         <v>36</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>36</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
         <v>36</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>36</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" s="2" t="s">
         <v>36</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>36</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
         <v>36</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>36</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="2" t="s">
         <v>36</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>36</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" s="2" t="s">
         <v>36</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>36</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
         <v>36</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>36</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>36</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" s="2" t="s">
         <v>36</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>36</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" s="2" t="s">
         <v>36</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>36</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
         <v>36</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>36</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
         <v>36</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>36</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" s="2" t="s">
         <v>36</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>36</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" s="2" t="s">
         <v>36</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>36</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" s="2" t="s">
         <v>36</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>36</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" s="2" t="s">
         <v>36</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>36</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
         <v>36</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>36</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" s="2" t="s">
         <v>36</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>36</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" s="2" t="s">
         <v>36</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>36</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" s="2" t="s">
         <v>36</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>36</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="2" t="s">
         <v>36</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>36</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164" s="2" t="s">
         <v>36</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>36</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="2" t="s">
         <v>36</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>36</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168" s="2" t="s">
         <v>36</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>36</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="2" t="s">
         <v>36</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>36</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" s="2" t="s">
         <v>36</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>36</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" s="2" t="s">
         <v>36</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>36</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" s="2" t="s">
         <v>36</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>36</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" s="2" t="s">
         <v>36</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>36</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" s="2" t="s">
         <v>36</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>36</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" s="2" t="s">
         <v>36</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>36</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" s="2" t="s">
         <v>36</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>36</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" s="2" t="s">
         <v>36</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
         <v>36</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
         <v>36</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>36</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" s="2" t="s">
         <v>36</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>36</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" s="2" t="s">
         <v>36</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>36</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" s="2" t="s">
         <v>36</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>36</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" s="2" t="s">
         <v>36</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>36</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198" s="2" t="s">
         <v>36</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>36</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200" s="2" t="s">
         <v>36</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201" s="10" t="s">
         <v>36</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B202" s="2" t="s">
         <v>36</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B203" s="10" t="s">
         <v>36</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B204" s="2" t="s">
         <v>36</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B205" s="10" t="s">
         <v>36</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B206" s="2" t="s">
         <v>36</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B207" s="10" t="s">
         <v>36</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B208" s="2" t="s">
         <v>36</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B209" s="10" t="s">
         <v>36</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B210" s="2" t="s">
         <v>36</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B211" s="10" t="s">
         <v>36</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B212" s="2" t="s">
         <v>36</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B213" s="10" t="s">
         <v>36</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B214" s="2" t="s">
         <v>36</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" s="10" t="s">
         <v>36</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B216" s="2" t="s">
         <v>36</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" s="10" t="s">
         <v>36</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B218" s="2" t="s">
         <v>36</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B219" s="10" t="s">
         <v>36</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="2" t="s">
         <v>36</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B221" s="10" t="s">
         <v>36</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B222" s="2" t="s">
         <v>36</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" s="10" t="s">
         <v>36</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B224" s="2" t="s">
         <v>36</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B225" s="10" t="s">
         <v>36</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B226" s="2" t="s">
         <v>36</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B227" s="10" t="s">
         <v>36</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B228" s="2" t="s">
         <v>36</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B229" s="10" t="s">
         <v>36</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B230" s="2" t="s">
         <v>36</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B231" s="10" t="s">
         <v>36</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B232" s="2" t="s">
         <v>36</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B233" s="10" t="s">
         <v>36</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B234" s="2" t="s">
         <v>36</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B235" s="10" t="s">
         <v>36</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B236" s="2" t="s">
         <v>36</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B237" s="10" t="s">
         <v>36</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B238" s="2" t="s">
         <v>36</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B239" s="10" t="s">
         <v>36</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B240" s="2" t="s">
         <v>36</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B241" s="10" t="s">
         <v>36</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B242" s="2" t="s">
         <v>36</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B243" s="10" t="s">
         <v>36</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B244" s="2" t="s">
         <v>36</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B245" s="10" t="s">
         <v>36</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B246" s="2" t="s">
         <v>36</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B247" s="10" t="s">
         <v>36</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B248" s="2" t="s">
         <v>36</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B249" s="10" t="s">
         <v>36</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B250" s="2" t="s">
         <v>36</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B251" s="10" t="s">
         <v>36</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B252" s="2" t="s">
         <v>36</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B253" s="10" t="s">
         <v>36</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B254" s="2" t="s">
         <v>36</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B255" s="10" t="s">
         <v>36</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B256" s="2" t="s">
         <v>36</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B257" s="10" t="s">
         <v>36</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B258" s="2" t="s">
         <v>36</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B259" s="10" t="s">
         <v>36</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B260" s="2" t="s">
         <v>36</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B261" s="10" t="s">
         <v>36</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B262" s="2" t="s">
         <v>36</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B263" s="10" t="s">
         <v>36</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B264" s="2" t="s">
         <v>36</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B265" s="10" t="s">
         <v>36</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B266" s="2" t="s">
         <v>36</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B267" s="10" t="s">
         <v>36</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B268" s="2" t="s">
         <v>36</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B269" s="10" t="s">
         <v>36</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B270" s="2" t="s">
         <v>36</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B271" s="10" t="s">
         <v>36</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B272" s="2" t="s">
         <v>36</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B273" s="10" t="s">
         <v>36</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B274" s="2" t="s">
         <v>36</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B275" s="10" t="s">
         <v>36</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B276" s="2" t="s">
         <v>36</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B277" s="10" t="s">
         <v>36</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B278" s="2" t="s">
         <v>36</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B279" s="10" t="s">
         <v>36</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B280" s="2" t="s">
         <v>36</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B281" s="10" t="s">
         <v>36</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B282" s="2" t="s">
         <v>36</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B283" s="10" t="s">
         <v>36</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B284" s="2" t="s">
         <v>36</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B285" s="10" t="s">
         <v>36</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B286" s="2" t="s">
         <v>36</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B287" s="10" t="s">
         <v>36</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B288" s="2" t="s">
         <v>36</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B289" s="10" t="s">
         <v>36</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B290" s="2" t="s">
         <v>36</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B291" s="10" t="s">
         <v>36</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B292" s="2" t="s">
         <v>36</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B293" s="10" t="s">
         <v>36</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B294" s="2" t="s">
         <v>36</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B295" s="10" t="s">
         <v>36</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B296" s="2" t="s">
         <v>36</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B297" s="10" t="s">
         <v>36</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B298" s="2" t="s">
         <v>36</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B299" s="10" t="s">
         <v>36</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B300" s="2" t="s">
         <v>36</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B301" s="10" t="s">
         <v>36</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B302" s="2" t="s">
         <v>36</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B303" s="10" t="s">
         <v>36</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B304" s="2" t="s">
         <v>36</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B305" s="10" t="s">
         <v>36</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B306" s="2" t="s">
         <v>36</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B307" s="10" t="s">
         <v>36</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B308" s="2" t="s">
         <v>36</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B309" s="10" t="s">
         <v>36</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B310" s="2" t="s">
         <v>36</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B311" s="10" t="s">
         <v>36</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B312" s="2" t="s">
         <v>36</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B313" s="10" t="s">
         <v>36</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B314" s="2" t="s">
         <v>36</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B315" s="10" t="s">
         <v>36</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B316" s="2" t="s">
         <v>36</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B317" s="10" t="s">
         <v>36</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B318" s="2" t="s">
         <v>36</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B319" s="10" t="s">
         <v>36</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B320" s="2" t="s">
         <v>36</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B321" s="10" t="s">
         <v>36</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B322" s="2" t="s">
         <v>36</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B323" s="10" t="s">
         <v>36</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B324" s="2" t="s">
         <v>36</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B325" s="10" t="s">
         <v>36</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B326" s="2" t="s">
         <v>36</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B327" s="10" t="s">
         <v>36</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B328" s="2" t="s">
         <v>36</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B329" s="10" t="s">
         <v>36</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B330" s="2" t="s">
         <v>36</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B331" s="10" t="s">
         <v>36</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B332" s="2" t="s">
         <v>36</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B333" s="10" t="s">
         <v>36</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B334" s="2" t="s">
         <v>36</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B335" s="10" t="s">
         <v>36</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B336" s="2" t="s">
         <v>36</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B337" s="10" t="s">
         <v>36</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B338" s="2" t="s">
         <v>36</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B339" s="10" t="s">
         <v>36</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B340" s="2" t="s">
         <v>36</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B341" s="10" t="s">
         <v>36</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B342" s="2" t="s">
         <v>36</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B343" s="10" t="s">
         <v>36</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B344" s="2" t="s">
         <v>36</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B345" s="10" t="s">
         <v>36</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B346" s="2" t="s">
         <v>36</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B347" s="10" t="s">
         <v>36</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B348" s="2" t="s">
         <v>36</v>
       </c>
@@ -4736,7 +4736,7 @@
       <selection pane="bottomRight" activeCell="B11" sqref="B11:YU11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -5411,12 +5411,12 @@
     <col min="671" max="671" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>373</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>374</v>
       </c>
@@ -5432,8 +5432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -5441,7 +5440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -5457,8 +5456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>375</v>
       </c>
@@ -7473,7 +7471,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>377</v>
       </c>
@@ -9488,7 +9486,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -11503,12 +11501,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>379</v>
       </c>
@@ -11518,6 +11516,330 @@
     </row>
   </sheetData>
   <mergeCells count="335">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BR9:BS9"/>
+    <mergeCell ref="BT9:BU9"/>
+    <mergeCell ref="BV9:BW9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CN9:CO9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DF9:DG9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DP9:DQ9"/>
+    <mergeCell ref="DR9:DS9"/>
+    <mergeCell ref="DT9:DU9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DX9:DY9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="EH9:EI9"/>
+    <mergeCell ref="EJ9:EK9"/>
+    <mergeCell ref="EL9:EM9"/>
+    <mergeCell ref="EN9:EO9"/>
+    <mergeCell ref="EP9:EQ9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="EZ9:FA9"/>
+    <mergeCell ref="FB9:FC9"/>
+    <mergeCell ref="FD9:FE9"/>
+    <mergeCell ref="FF9:FG9"/>
+    <mergeCell ref="FH9:FI9"/>
+    <mergeCell ref="FJ9:FK9"/>
+    <mergeCell ref="FL9:FM9"/>
+    <mergeCell ref="FN9:FO9"/>
+    <mergeCell ref="FP9:FQ9"/>
+    <mergeCell ref="FR9:FS9"/>
+    <mergeCell ref="FT9:FU9"/>
+    <mergeCell ref="FV9:FW9"/>
+    <mergeCell ref="FX9:FY9"/>
+    <mergeCell ref="FZ9:GA9"/>
+    <mergeCell ref="GB9:GC9"/>
+    <mergeCell ref="GD9:GE9"/>
+    <mergeCell ref="GF9:GG9"/>
+    <mergeCell ref="GH9:GI9"/>
+    <mergeCell ref="GJ9:GK9"/>
+    <mergeCell ref="GL9:GM9"/>
+    <mergeCell ref="GN9:GO9"/>
+    <mergeCell ref="GP9:GQ9"/>
+    <mergeCell ref="GR9:GS9"/>
+    <mergeCell ref="GT9:GU9"/>
+    <mergeCell ref="GV9:GW9"/>
+    <mergeCell ref="GX9:GY9"/>
+    <mergeCell ref="GZ9:HA9"/>
+    <mergeCell ref="HB9:HC9"/>
+    <mergeCell ref="HD9:HE9"/>
+    <mergeCell ref="HF9:HG9"/>
+    <mergeCell ref="HH9:HI9"/>
+    <mergeCell ref="HJ9:HK9"/>
+    <mergeCell ref="HL9:HM9"/>
+    <mergeCell ref="HN9:HO9"/>
+    <mergeCell ref="HP9:HQ9"/>
+    <mergeCell ref="HR9:HS9"/>
+    <mergeCell ref="HT9:HU9"/>
+    <mergeCell ref="HV9:HW9"/>
+    <mergeCell ref="HX9:HY9"/>
+    <mergeCell ref="HZ9:IA9"/>
+    <mergeCell ref="IB9:IC9"/>
+    <mergeCell ref="ID9:IE9"/>
+    <mergeCell ref="IF9:IG9"/>
+    <mergeCell ref="IH9:II9"/>
+    <mergeCell ref="IJ9:IK9"/>
+    <mergeCell ref="IL9:IM9"/>
+    <mergeCell ref="IN9:IO9"/>
+    <mergeCell ref="IP9:IQ9"/>
+    <mergeCell ref="IR9:IS9"/>
+    <mergeCell ref="IT9:IU9"/>
+    <mergeCell ref="IV9:IW9"/>
+    <mergeCell ref="IX9:IY9"/>
+    <mergeCell ref="IZ9:JA9"/>
+    <mergeCell ref="JB9:JC9"/>
+    <mergeCell ref="JD9:JE9"/>
+    <mergeCell ref="JF9:JG9"/>
+    <mergeCell ref="JH9:JI9"/>
+    <mergeCell ref="JJ9:JK9"/>
+    <mergeCell ref="JL9:JM9"/>
+    <mergeCell ref="JN9:JO9"/>
+    <mergeCell ref="JP9:JQ9"/>
+    <mergeCell ref="JR9:JS9"/>
+    <mergeCell ref="JT9:JU9"/>
+    <mergeCell ref="JV9:JW9"/>
+    <mergeCell ref="JX9:JY9"/>
+    <mergeCell ref="JZ9:KA9"/>
+    <mergeCell ref="KB9:KC9"/>
+    <mergeCell ref="KD9:KE9"/>
+    <mergeCell ref="KF9:KG9"/>
+    <mergeCell ref="KH9:KI9"/>
+    <mergeCell ref="KJ9:KK9"/>
+    <mergeCell ref="KL9:KM9"/>
+    <mergeCell ref="KN9:KO9"/>
+    <mergeCell ref="KP9:KQ9"/>
+    <mergeCell ref="KR9:KS9"/>
+    <mergeCell ref="KT9:KU9"/>
+    <mergeCell ref="KV9:KW9"/>
+    <mergeCell ref="KX9:KY9"/>
+    <mergeCell ref="KZ9:LA9"/>
+    <mergeCell ref="LB9:LC9"/>
+    <mergeCell ref="LD9:LE9"/>
+    <mergeCell ref="LF9:LG9"/>
+    <mergeCell ref="LH9:LI9"/>
+    <mergeCell ref="LJ9:LK9"/>
+    <mergeCell ref="LL9:LM9"/>
+    <mergeCell ref="LN9:LO9"/>
+    <mergeCell ref="LP9:LQ9"/>
+    <mergeCell ref="LR9:LS9"/>
+    <mergeCell ref="LT9:LU9"/>
+    <mergeCell ref="LV9:LW9"/>
+    <mergeCell ref="LX9:LY9"/>
+    <mergeCell ref="LZ9:MA9"/>
+    <mergeCell ref="MB9:MC9"/>
+    <mergeCell ref="MD9:ME9"/>
+    <mergeCell ref="MF9:MG9"/>
+    <mergeCell ref="MH9:MI9"/>
+    <mergeCell ref="MJ9:MK9"/>
+    <mergeCell ref="ML9:MM9"/>
+    <mergeCell ref="MN9:MO9"/>
+    <mergeCell ref="MP9:MQ9"/>
+    <mergeCell ref="MR9:MS9"/>
+    <mergeCell ref="MT9:MU9"/>
+    <mergeCell ref="MV9:MW9"/>
+    <mergeCell ref="MX9:MY9"/>
+    <mergeCell ref="MZ9:NA9"/>
+    <mergeCell ref="NB9:NC9"/>
+    <mergeCell ref="ND9:NE9"/>
+    <mergeCell ref="NF9:NG9"/>
+    <mergeCell ref="NH9:NI9"/>
+    <mergeCell ref="NJ9:NK9"/>
+    <mergeCell ref="NL9:NM9"/>
+    <mergeCell ref="NN9:NO9"/>
+    <mergeCell ref="NP9:NQ9"/>
+    <mergeCell ref="NR9:NS9"/>
+    <mergeCell ref="NT9:NU9"/>
+    <mergeCell ref="NV9:NW9"/>
+    <mergeCell ref="NX9:NY9"/>
+    <mergeCell ref="NZ9:OA9"/>
+    <mergeCell ref="OB9:OC9"/>
+    <mergeCell ref="OD9:OE9"/>
+    <mergeCell ref="OF9:OG9"/>
+    <mergeCell ref="OH9:OI9"/>
+    <mergeCell ref="OJ9:OK9"/>
+    <mergeCell ref="OL9:OM9"/>
+    <mergeCell ref="ON9:OO9"/>
+    <mergeCell ref="OP9:OQ9"/>
+    <mergeCell ref="OR9:OS9"/>
+    <mergeCell ref="OT9:OU9"/>
+    <mergeCell ref="OV9:OW9"/>
+    <mergeCell ref="OX9:OY9"/>
+    <mergeCell ref="OZ9:PA9"/>
+    <mergeCell ref="PB9:PC9"/>
+    <mergeCell ref="PD9:PE9"/>
+    <mergeCell ref="PF9:PG9"/>
+    <mergeCell ref="PH9:PI9"/>
+    <mergeCell ref="PJ9:PK9"/>
+    <mergeCell ref="PL9:PM9"/>
+    <mergeCell ref="PN9:PO9"/>
+    <mergeCell ref="PP9:PQ9"/>
+    <mergeCell ref="PR9:PS9"/>
+    <mergeCell ref="PT9:PU9"/>
+    <mergeCell ref="PV9:PW9"/>
+    <mergeCell ref="PX9:PY9"/>
+    <mergeCell ref="PZ9:QA9"/>
+    <mergeCell ref="QB9:QC9"/>
+    <mergeCell ref="QD9:QE9"/>
+    <mergeCell ref="QF9:QG9"/>
+    <mergeCell ref="QH9:QI9"/>
+    <mergeCell ref="QJ9:QK9"/>
+    <mergeCell ref="QL9:QM9"/>
+    <mergeCell ref="QN9:QO9"/>
+    <mergeCell ref="QP9:QQ9"/>
+    <mergeCell ref="QR9:QS9"/>
+    <mergeCell ref="QT9:QU9"/>
+    <mergeCell ref="QV9:QW9"/>
+    <mergeCell ref="QX9:QY9"/>
+    <mergeCell ref="QZ9:RA9"/>
+    <mergeCell ref="RB9:RC9"/>
+    <mergeCell ref="RD9:RE9"/>
+    <mergeCell ref="RF9:RG9"/>
+    <mergeCell ref="RH9:RI9"/>
+    <mergeCell ref="RJ9:RK9"/>
+    <mergeCell ref="RL9:RM9"/>
+    <mergeCell ref="RN9:RO9"/>
+    <mergeCell ref="RP9:RQ9"/>
+    <mergeCell ref="RR9:RS9"/>
+    <mergeCell ref="RT9:RU9"/>
+    <mergeCell ref="RV9:RW9"/>
+    <mergeCell ref="RX9:RY9"/>
+    <mergeCell ref="RZ9:SA9"/>
+    <mergeCell ref="SB9:SC9"/>
+    <mergeCell ref="SD9:SE9"/>
+    <mergeCell ref="SF9:SG9"/>
+    <mergeCell ref="SH9:SI9"/>
+    <mergeCell ref="SJ9:SK9"/>
+    <mergeCell ref="SL9:SM9"/>
+    <mergeCell ref="SN9:SO9"/>
+    <mergeCell ref="SP9:SQ9"/>
+    <mergeCell ref="SR9:SS9"/>
+    <mergeCell ref="ST9:SU9"/>
+    <mergeCell ref="SV9:SW9"/>
+    <mergeCell ref="SX9:SY9"/>
+    <mergeCell ref="SZ9:TA9"/>
+    <mergeCell ref="TB9:TC9"/>
+    <mergeCell ref="TD9:TE9"/>
+    <mergeCell ref="TF9:TG9"/>
+    <mergeCell ref="TH9:TI9"/>
+    <mergeCell ref="TJ9:TK9"/>
+    <mergeCell ref="TL9:TM9"/>
+    <mergeCell ref="TN9:TO9"/>
+    <mergeCell ref="TP9:TQ9"/>
+    <mergeCell ref="TR9:TS9"/>
+    <mergeCell ref="TT9:TU9"/>
+    <mergeCell ref="TV9:TW9"/>
+    <mergeCell ref="TX9:TY9"/>
+    <mergeCell ref="TZ9:UA9"/>
+    <mergeCell ref="UB9:UC9"/>
+    <mergeCell ref="UD9:UE9"/>
+    <mergeCell ref="UF9:UG9"/>
+    <mergeCell ref="UH9:UI9"/>
+    <mergeCell ref="UJ9:UK9"/>
+    <mergeCell ref="UL9:UM9"/>
+    <mergeCell ref="UN9:UO9"/>
+    <mergeCell ref="UP9:UQ9"/>
+    <mergeCell ref="UR9:US9"/>
+    <mergeCell ref="UT9:UU9"/>
+    <mergeCell ref="UV9:UW9"/>
+    <mergeCell ref="UX9:UY9"/>
+    <mergeCell ref="UZ9:VA9"/>
+    <mergeCell ref="VB9:VC9"/>
+    <mergeCell ref="VD9:VE9"/>
+    <mergeCell ref="VF9:VG9"/>
+    <mergeCell ref="VH9:VI9"/>
+    <mergeCell ref="VJ9:VK9"/>
+    <mergeCell ref="VL9:VM9"/>
+    <mergeCell ref="VN9:VO9"/>
+    <mergeCell ref="VP9:VQ9"/>
+    <mergeCell ref="VR9:VS9"/>
+    <mergeCell ref="VT9:VU9"/>
+    <mergeCell ref="VV9:VW9"/>
+    <mergeCell ref="VX9:VY9"/>
+    <mergeCell ref="VZ9:WA9"/>
+    <mergeCell ref="WB9:WC9"/>
+    <mergeCell ref="WD9:WE9"/>
+    <mergeCell ref="WF9:WG9"/>
+    <mergeCell ref="WH9:WI9"/>
+    <mergeCell ref="WJ9:WK9"/>
+    <mergeCell ref="WL9:WM9"/>
+    <mergeCell ref="WN9:WO9"/>
+    <mergeCell ref="WP9:WQ9"/>
+    <mergeCell ref="WR9:WS9"/>
+    <mergeCell ref="WT9:WU9"/>
+    <mergeCell ref="WV9:WW9"/>
+    <mergeCell ref="WX9:WY9"/>
+    <mergeCell ref="WZ9:XA9"/>
+    <mergeCell ref="XB9:XC9"/>
+    <mergeCell ref="XD9:XE9"/>
+    <mergeCell ref="XF9:XG9"/>
+    <mergeCell ref="XH9:XI9"/>
+    <mergeCell ref="XJ9:XK9"/>
+    <mergeCell ref="XL9:XM9"/>
+    <mergeCell ref="XN9:XO9"/>
+    <mergeCell ref="XP9:XQ9"/>
+    <mergeCell ref="XR9:XS9"/>
+    <mergeCell ref="XT9:XU9"/>
+    <mergeCell ref="XV9:XW9"/>
+    <mergeCell ref="XX9:XY9"/>
     <mergeCell ref="YR9:YS9"/>
     <mergeCell ref="YT9:YU9"/>
     <mergeCell ref="XZ9:YA9"/>
@@ -11529,330 +11851,6 @@
     <mergeCell ref="YL9:YM9"/>
     <mergeCell ref="YN9:YO9"/>
     <mergeCell ref="YP9:YQ9"/>
-    <mergeCell ref="XH9:XI9"/>
-    <mergeCell ref="XJ9:XK9"/>
-    <mergeCell ref="XL9:XM9"/>
-    <mergeCell ref="XN9:XO9"/>
-    <mergeCell ref="XP9:XQ9"/>
-    <mergeCell ref="XR9:XS9"/>
-    <mergeCell ref="XT9:XU9"/>
-    <mergeCell ref="XV9:XW9"/>
-    <mergeCell ref="XX9:XY9"/>
-    <mergeCell ref="WP9:WQ9"/>
-    <mergeCell ref="WR9:WS9"/>
-    <mergeCell ref="WT9:WU9"/>
-    <mergeCell ref="WV9:WW9"/>
-    <mergeCell ref="WX9:WY9"/>
-    <mergeCell ref="WZ9:XA9"/>
-    <mergeCell ref="XB9:XC9"/>
-    <mergeCell ref="XD9:XE9"/>
-    <mergeCell ref="XF9:XG9"/>
-    <mergeCell ref="VX9:VY9"/>
-    <mergeCell ref="VZ9:WA9"/>
-    <mergeCell ref="WB9:WC9"/>
-    <mergeCell ref="WD9:WE9"/>
-    <mergeCell ref="WF9:WG9"/>
-    <mergeCell ref="WH9:WI9"/>
-    <mergeCell ref="WJ9:WK9"/>
-    <mergeCell ref="WL9:WM9"/>
-    <mergeCell ref="WN9:WO9"/>
-    <mergeCell ref="VF9:VG9"/>
-    <mergeCell ref="VH9:VI9"/>
-    <mergeCell ref="VJ9:VK9"/>
-    <mergeCell ref="VL9:VM9"/>
-    <mergeCell ref="VN9:VO9"/>
-    <mergeCell ref="VP9:VQ9"/>
-    <mergeCell ref="VR9:VS9"/>
-    <mergeCell ref="VT9:VU9"/>
-    <mergeCell ref="VV9:VW9"/>
-    <mergeCell ref="UN9:UO9"/>
-    <mergeCell ref="UP9:UQ9"/>
-    <mergeCell ref="UR9:US9"/>
-    <mergeCell ref="UT9:UU9"/>
-    <mergeCell ref="UV9:UW9"/>
-    <mergeCell ref="UX9:UY9"/>
-    <mergeCell ref="UZ9:VA9"/>
-    <mergeCell ref="VB9:VC9"/>
-    <mergeCell ref="VD9:VE9"/>
-    <mergeCell ref="TV9:TW9"/>
-    <mergeCell ref="TX9:TY9"/>
-    <mergeCell ref="TZ9:UA9"/>
-    <mergeCell ref="UB9:UC9"/>
-    <mergeCell ref="UD9:UE9"/>
-    <mergeCell ref="UF9:UG9"/>
-    <mergeCell ref="UH9:UI9"/>
-    <mergeCell ref="UJ9:UK9"/>
-    <mergeCell ref="UL9:UM9"/>
-    <mergeCell ref="TD9:TE9"/>
-    <mergeCell ref="TF9:TG9"/>
-    <mergeCell ref="TH9:TI9"/>
-    <mergeCell ref="TJ9:TK9"/>
-    <mergeCell ref="TL9:TM9"/>
-    <mergeCell ref="TN9:TO9"/>
-    <mergeCell ref="TP9:TQ9"/>
-    <mergeCell ref="TR9:TS9"/>
-    <mergeCell ref="TT9:TU9"/>
-    <mergeCell ref="SL9:SM9"/>
-    <mergeCell ref="SN9:SO9"/>
-    <mergeCell ref="SP9:SQ9"/>
-    <mergeCell ref="SR9:SS9"/>
-    <mergeCell ref="ST9:SU9"/>
-    <mergeCell ref="SV9:SW9"/>
-    <mergeCell ref="SX9:SY9"/>
-    <mergeCell ref="SZ9:TA9"/>
-    <mergeCell ref="TB9:TC9"/>
-    <mergeCell ref="RT9:RU9"/>
-    <mergeCell ref="RV9:RW9"/>
-    <mergeCell ref="RX9:RY9"/>
-    <mergeCell ref="RZ9:SA9"/>
-    <mergeCell ref="SB9:SC9"/>
-    <mergeCell ref="SD9:SE9"/>
-    <mergeCell ref="SF9:SG9"/>
-    <mergeCell ref="SH9:SI9"/>
-    <mergeCell ref="SJ9:SK9"/>
-    <mergeCell ref="RB9:RC9"/>
-    <mergeCell ref="RD9:RE9"/>
-    <mergeCell ref="RF9:RG9"/>
-    <mergeCell ref="RH9:RI9"/>
-    <mergeCell ref="RJ9:RK9"/>
-    <mergeCell ref="RL9:RM9"/>
-    <mergeCell ref="RN9:RO9"/>
-    <mergeCell ref="RP9:RQ9"/>
-    <mergeCell ref="RR9:RS9"/>
-    <mergeCell ref="QJ9:QK9"/>
-    <mergeCell ref="QL9:QM9"/>
-    <mergeCell ref="QN9:QO9"/>
-    <mergeCell ref="QP9:QQ9"/>
-    <mergeCell ref="QR9:QS9"/>
-    <mergeCell ref="QT9:QU9"/>
-    <mergeCell ref="QV9:QW9"/>
-    <mergeCell ref="QX9:QY9"/>
-    <mergeCell ref="QZ9:RA9"/>
-    <mergeCell ref="PR9:PS9"/>
-    <mergeCell ref="PT9:PU9"/>
-    <mergeCell ref="PV9:PW9"/>
-    <mergeCell ref="PX9:PY9"/>
-    <mergeCell ref="PZ9:QA9"/>
-    <mergeCell ref="QB9:QC9"/>
-    <mergeCell ref="QD9:QE9"/>
-    <mergeCell ref="QF9:QG9"/>
-    <mergeCell ref="QH9:QI9"/>
-    <mergeCell ref="OZ9:PA9"/>
-    <mergeCell ref="PB9:PC9"/>
-    <mergeCell ref="PD9:PE9"/>
-    <mergeCell ref="PF9:PG9"/>
-    <mergeCell ref="PH9:PI9"/>
-    <mergeCell ref="PJ9:PK9"/>
-    <mergeCell ref="PL9:PM9"/>
-    <mergeCell ref="PN9:PO9"/>
-    <mergeCell ref="PP9:PQ9"/>
-    <mergeCell ref="OH9:OI9"/>
-    <mergeCell ref="OJ9:OK9"/>
-    <mergeCell ref="OL9:OM9"/>
-    <mergeCell ref="ON9:OO9"/>
-    <mergeCell ref="OP9:OQ9"/>
-    <mergeCell ref="OR9:OS9"/>
-    <mergeCell ref="OT9:OU9"/>
-    <mergeCell ref="OV9:OW9"/>
-    <mergeCell ref="OX9:OY9"/>
-    <mergeCell ref="NP9:NQ9"/>
-    <mergeCell ref="NR9:NS9"/>
-    <mergeCell ref="NT9:NU9"/>
-    <mergeCell ref="NV9:NW9"/>
-    <mergeCell ref="NX9:NY9"/>
-    <mergeCell ref="NZ9:OA9"/>
-    <mergeCell ref="OB9:OC9"/>
-    <mergeCell ref="OD9:OE9"/>
-    <mergeCell ref="OF9:OG9"/>
-    <mergeCell ref="MX9:MY9"/>
-    <mergeCell ref="MZ9:NA9"/>
-    <mergeCell ref="NB9:NC9"/>
-    <mergeCell ref="ND9:NE9"/>
-    <mergeCell ref="NF9:NG9"/>
-    <mergeCell ref="NH9:NI9"/>
-    <mergeCell ref="NJ9:NK9"/>
-    <mergeCell ref="NL9:NM9"/>
-    <mergeCell ref="NN9:NO9"/>
-    <mergeCell ref="MF9:MG9"/>
-    <mergeCell ref="MH9:MI9"/>
-    <mergeCell ref="MJ9:MK9"/>
-    <mergeCell ref="ML9:MM9"/>
-    <mergeCell ref="MN9:MO9"/>
-    <mergeCell ref="MP9:MQ9"/>
-    <mergeCell ref="MR9:MS9"/>
-    <mergeCell ref="MT9:MU9"/>
-    <mergeCell ref="MV9:MW9"/>
-    <mergeCell ref="LN9:LO9"/>
-    <mergeCell ref="LP9:LQ9"/>
-    <mergeCell ref="LR9:LS9"/>
-    <mergeCell ref="LT9:LU9"/>
-    <mergeCell ref="LV9:LW9"/>
-    <mergeCell ref="LX9:LY9"/>
-    <mergeCell ref="LZ9:MA9"/>
-    <mergeCell ref="MB9:MC9"/>
-    <mergeCell ref="MD9:ME9"/>
-    <mergeCell ref="KV9:KW9"/>
-    <mergeCell ref="KX9:KY9"/>
-    <mergeCell ref="KZ9:LA9"/>
-    <mergeCell ref="LB9:LC9"/>
-    <mergeCell ref="LD9:LE9"/>
-    <mergeCell ref="LF9:LG9"/>
-    <mergeCell ref="LH9:LI9"/>
-    <mergeCell ref="LJ9:LK9"/>
-    <mergeCell ref="LL9:LM9"/>
-    <mergeCell ref="KD9:KE9"/>
-    <mergeCell ref="KF9:KG9"/>
-    <mergeCell ref="KH9:KI9"/>
-    <mergeCell ref="KJ9:KK9"/>
-    <mergeCell ref="KL9:KM9"/>
-    <mergeCell ref="KN9:KO9"/>
-    <mergeCell ref="KP9:KQ9"/>
-    <mergeCell ref="KR9:KS9"/>
-    <mergeCell ref="KT9:KU9"/>
-    <mergeCell ref="JL9:JM9"/>
-    <mergeCell ref="JN9:JO9"/>
-    <mergeCell ref="JP9:JQ9"/>
-    <mergeCell ref="JR9:JS9"/>
-    <mergeCell ref="JT9:JU9"/>
-    <mergeCell ref="JV9:JW9"/>
-    <mergeCell ref="JX9:JY9"/>
-    <mergeCell ref="JZ9:KA9"/>
-    <mergeCell ref="KB9:KC9"/>
-    <mergeCell ref="IT9:IU9"/>
-    <mergeCell ref="IV9:IW9"/>
-    <mergeCell ref="IX9:IY9"/>
-    <mergeCell ref="IZ9:JA9"/>
-    <mergeCell ref="JB9:JC9"/>
-    <mergeCell ref="JD9:JE9"/>
-    <mergeCell ref="JF9:JG9"/>
-    <mergeCell ref="JH9:JI9"/>
-    <mergeCell ref="JJ9:JK9"/>
-    <mergeCell ref="IB9:IC9"/>
-    <mergeCell ref="ID9:IE9"/>
-    <mergeCell ref="IF9:IG9"/>
-    <mergeCell ref="IH9:II9"/>
-    <mergeCell ref="IJ9:IK9"/>
-    <mergeCell ref="IL9:IM9"/>
-    <mergeCell ref="IN9:IO9"/>
-    <mergeCell ref="IP9:IQ9"/>
-    <mergeCell ref="IR9:IS9"/>
-    <mergeCell ref="HJ9:HK9"/>
-    <mergeCell ref="HL9:HM9"/>
-    <mergeCell ref="HN9:HO9"/>
-    <mergeCell ref="HP9:HQ9"/>
-    <mergeCell ref="HR9:HS9"/>
-    <mergeCell ref="HT9:HU9"/>
-    <mergeCell ref="HV9:HW9"/>
-    <mergeCell ref="HX9:HY9"/>
-    <mergeCell ref="HZ9:IA9"/>
-    <mergeCell ref="GR9:GS9"/>
-    <mergeCell ref="GT9:GU9"/>
-    <mergeCell ref="GV9:GW9"/>
-    <mergeCell ref="GX9:GY9"/>
-    <mergeCell ref="GZ9:HA9"/>
-    <mergeCell ref="HB9:HC9"/>
-    <mergeCell ref="HD9:HE9"/>
-    <mergeCell ref="HF9:HG9"/>
-    <mergeCell ref="HH9:HI9"/>
-    <mergeCell ref="FZ9:GA9"/>
-    <mergeCell ref="GB9:GC9"/>
-    <mergeCell ref="GD9:GE9"/>
-    <mergeCell ref="GF9:GG9"/>
-    <mergeCell ref="GH9:GI9"/>
-    <mergeCell ref="GJ9:GK9"/>
-    <mergeCell ref="GL9:GM9"/>
-    <mergeCell ref="GN9:GO9"/>
-    <mergeCell ref="GP9:GQ9"/>
-    <mergeCell ref="FH9:FI9"/>
-    <mergeCell ref="FJ9:FK9"/>
-    <mergeCell ref="FL9:FM9"/>
-    <mergeCell ref="FN9:FO9"/>
-    <mergeCell ref="FP9:FQ9"/>
-    <mergeCell ref="FR9:FS9"/>
-    <mergeCell ref="FT9:FU9"/>
-    <mergeCell ref="FV9:FW9"/>
-    <mergeCell ref="FX9:FY9"/>
-    <mergeCell ref="EP9:EQ9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="EZ9:FA9"/>
-    <mergeCell ref="FB9:FC9"/>
-    <mergeCell ref="FD9:FE9"/>
-    <mergeCell ref="FF9:FG9"/>
-    <mergeCell ref="DX9:DY9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="EH9:EI9"/>
-    <mergeCell ref="EJ9:EK9"/>
-    <mergeCell ref="EL9:EM9"/>
-    <mergeCell ref="EN9:EO9"/>
-    <mergeCell ref="DF9:DG9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DP9:DQ9"/>
-    <mergeCell ref="DR9:DS9"/>
-    <mergeCell ref="DT9:DU9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="CN9:CO9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="CZ9:DA9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="BV9:BW9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BR9:BS9"/>
-    <mergeCell ref="BT9:BU9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11862,14 +11860,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:YU16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="XM11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11:YU11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -12544,12 +12542,12 @@
     <col min="671" max="671" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>373</v>
       </c>
@@ -12557,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>374</v>
       </c>
@@ -12565,8 +12563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -12574,7 +12571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -12582,7 +12579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -12590,8 +12587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>375</v>
       </c>
@@ -14606,7 +14602,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>377</v>
       </c>
@@ -16621,7 +16617,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -18636,12 +18632,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>379</v>
       </c>
@@ -18649,12 +18645,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>381</v>
       </c>
@@ -18664,6 +18660,330 @@
     </row>
   </sheetData>
   <mergeCells count="335">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BR9:BS9"/>
+    <mergeCell ref="BT9:BU9"/>
+    <mergeCell ref="BV9:BW9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CN9:CO9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DF9:DG9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DP9:DQ9"/>
+    <mergeCell ref="DR9:DS9"/>
+    <mergeCell ref="DT9:DU9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DX9:DY9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="EH9:EI9"/>
+    <mergeCell ref="EJ9:EK9"/>
+    <mergeCell ref="EL9:EM9"/>
+    <mergeCell ref="EN9:EO9"/>
+    <mergeCell ref="EP9:EQ9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="EZ9:FA9"/>
+    <mergeCell ref="FB9:FC9"/>
+    <mergeCell ref="FD9:FE9"/>
+    <mergeCell ref="FF9:FG9"/>
+    <mergeCell ref="FH9:FI9"/>
+    <mergeCell ref="FJ9:FK9"/>
+    <mergeCell ref="FL9:FM9"/>
+    <mergeCell ref="FN9:FO9"/>
+    <mergeCell ref="FP9:FQ9"/>
+    <mergeCell ref="FR9:FS9"/>
+    <mergeCell ref="FT9:FU9"/>
+    <mergeCell ref="FV9:FW9"/>
+    <mergeCell ref="FX9:FY9"/>
+    <mergeCell ref="FZ9:GA9"/>
+    <mergeCell ref="GB9:GC9"/>
+    <mergeCell ref="GD9:GE9"/>
+    <mergeCell ref="GF9:GG9"/>
+    <mergeCell ref="GH9:GI9"/>
+    <mergeCell ref="GJ9:GK9"/>
+    <mergeCell ref="GL9:GM9"/>
+    <mergeCell ref="GN9:GO9"/>
+    <mergeCell ref="GP9:GQ9"/>
+    <mergeCell ref="GR9:GS9"/>
+    <mergeCell ref="GT9:GU9"/>
+    <mergeCell ref="GV9:GW9"/>
+    <mergeCell ref="GX9:GY9"/>
+    <mergeCell ref="GZ9:HA9"/>
+    <mergeCell ref="HB9:HC9"/>
+    <mergeCell ref="HD9:HE9"/>
+    <mergeCell ref="HF9:HG9"/>
+    <mergeCell ref="HH9:HI9"/>
+    <mergeCell ref="HJ9:HK9"/>
+    <mergeCell ref="HL9:HM9"/>
+    <mergeCell ref="HN9:HO9"/>
+    <mergeCell ref="HP9:HQ9"/>
+    <mergeCell ref="HR9:HS9"/>
+    <mergeCell ref="HT9:HU9"/>
+    <mergeCell ref="HV9:HW9"/>
+    <mergeCell ref="HX9:HY9"/>
+    <mergeCell ref="HZ9:IA9"/>
+    <mergeCell ref="IB9:IC9"/>
+    <mergeCell ref="ID9:IE9"/>
+    <mergeCell ref="IF9:IG9"/>
+    <mergeCell ref="IH9:II9"/>
+    <mergeCell ref="IJ9:IK9"/>
+    <mergeCell ref="IL9:IM9"/>
+    <mergeCell ref="IN9:IO9"/>
+    <mergeCell ref="IP9:IQ9"/>
+    <mergeCell ref="IR9:IS9"/>
+    <mergeCell ref="IT9:IU9"/>
+    <mergeCell ref="IV9:IW9"/>
+    <mergeCell ref="IX9:IY9"/>
+    <mergeCell ref="IZ9:JA9"/>
+    <mergeCell ref="JB9:JC9"/>
+    <mergeCell ref="JD9:JE9"/>
+    <mergeCell ref="JF9:JG9"/>
+    <mergeCell ref="JH9:JI9"/>
+    <mergeCell ref="JJ9:JK9"/>
+    <mergeCell ref="JL9:JM9"/>
+    <mergeCell ref="JN9:JO9"/>
+    <mergeCell ref="JP9:JQ9"/>
+    <mergeCell ref="JR9:JS9"/>
+    <mergeCell ref="JT9:JU9"/>
+    <mergeCell ref="JV9:JW9"/>
+    <mergeCell ref="JX9:JY9"/>
+    <mergeCell ref="JZ9:KA9"/>
+    <mergeCell ref="KB9:KC9"/>
+    <mergeCell ref="KD9:KE9"/>
+    <mergeCell ref="KF9:KG9"/>
+    <mergeCell ref="KH9:KI9"/>
+    <mergeCell ref="KJ9:KK9"/>
+    <mergeCell ref="KL9:KM9"/>
+    <mergeCell ref="KN9:KO9"/>
+    <mergeCell ref="KP9:KQ9"/>
+    <mergeCell ref="KR9:KS9"/>
+    <mergeCell ref="KT9:KU9"/>
+    <mergeCell ref="KV9:KW9"/>
+    <mergeCell ref="KX9:KY9"/>
+    <mergeCell ref="KZ9:LA9"/>
+    <mergeCell ref="LB9:LC9"/>
+    <mergeCell ref="LD9:LE9"/>
+    <mergeCell ref="LF9:LG9"/>
+    <mergeCell ref="LH9:LI9"/>
+    <mergeCell ref="LJ9:LK9"/>
+    <mergeCell ref="LL9:LM9"/>
+    <mergeCell ref="LN9:LO9"/>
+    <mergeCell ref="LP9:LQ9"/>
+    <mergeCell ref="LR9:LS9"/>
+    <mergeCell ref="LT9:LU9"/>
+    <mergeCell ref="LV9:LW9"/>
+    <mergeCell ref="LX9:LY9"/>
+    <mergeCell ref="LZ9:MA9"/>
+    <mergeCell ref="MB9:MC9"/>
+    <mergeCell ref="MD9:ME9"/>
+    <mergeCell ref="MF9:MG9"/>
+    <mergeCell ref="MH9:MI9"/>
+    <mergeCell ref="MJ9:MK9"/>
+    <mergeCell ref="ML9:MM9"/>
+    <mergeCell ref="MN9:MO9"/>
+    <mergeCell ref="MP9:MQ9"/>
+    <mergeCell ref="MR9:MS9"/>
+    <mergeCell ref="MT9:MU9"/>
+    <mergeCell ref="MV9:MW9"/>
+    <mergeCell ref="MX9:MY9"/>
+    <mergeCell ref="MZ9:NA9"/>
+    <mergeCell ref="NB9:NC9"/>
+    <mergeCell ref="ND9:NE9"/>
+    <mergeCell ref="NF9:NG9"/>
+    <mergeCell ref="NH9:NI9"/>
+    <mergeCell ref="NJ9:NK9"/>
+    <mergeCell ref="NL9:NM9"/>
+    <mergeCell ref="NN9:NO9"/>
+    <mergeCell ref="NP9:NQ9"/>
+    <mergeCell ref="NR9:NS9"/>
+    <mergeCell ref="NT9:NU9"/>
+    <mergeCell ref="NV9:NW9"/>
+    <mergeCell ref="NX9:NY9"/>
+    <mergeCell ref="NZ9:OA9"/>
+    <mergeCell ref="OB9:OC9"/>
+    <mergeCell ref="OD9:OE9"/>
+    <mergeCell ref="OF9:OG9"/>
+    <mergeCell ref="OH9:OI9"/>
+    <mergeCell ref="OJ9:OK9"/>
+    <mergeCell ref="OL9:OM9"/>
+    <mergeCell ref="ON9:OO9"/>
+    <mergeCell ref="OP9:OQ9"/>
+    <mergeCell ref="OR9:OS9"/>
+    <mergeCell ref="OT9:OU9"/>
+    <mergeCell ref="OV9:OW9"/>
+    <mergeCell ref="OX9:OY9"/>
+    <mergeCell ref="OZ9:PA9"/>
+    <mergeCell ref="PB9:PC9"/>
+    <mergeCell ref="PD9:PE9"/>
+    <mergeCell ref="PF9:PG9"/>
+    <mergeCell ref="PH9:PI9"/>
+    <mergeCell ref="PJ9:PK9"/>
+    <mergeCell ref="PL9:PM9"/>
+    <mergeCell ref="PN9:PO9"/>
+    <mergeCell ref="PP9:PQ9"/>
+    <mergeCell ref="PR9:PS9"/>
+    <mergeCell ref="PT9:PU9"/>
+    <mergeCell ref="PV9:PW9"/>
+    <mergeCell ref="PX9:PY9"/>
+    <mergeCell ref="PZ9:QA9"/>
+    <mergeCell ref="QB9:QC9"/>
+    <mergeCell ref="QD9:QE9"/>
+    <mergeCell ref="QF9:QG9"/>
+    <mergeCell ref="QH9:QI9"/>
+    <mergeCell ref="QJ9:QK9"/>
+    <mergeCell ref="QL9:QM9"/>
+    <mergeCell ref="QN9:QO9"/>
+    <mergeCell ref="QP9:QQ9"/>
+    <mergeCell ref="QR9:QS9"/>
+    <mergeCell ref="QT9:QU9"/>
+    <mergeCell ref="QV9:QW9"/>
+    <mergeCell ref="QX9:QY9"/>
+    <mergeCell ref="QZ9:RA9"/>
+    <mergeCell ref="RB9:RC9"/>
+    <mergeCell ref="RD9:RE9"/>
+    <mergeCell ref="RF9:RG9"/>
+    <mergeCell ref="RH9:RI9"/>
+    <mergeCell ref="RJ9:RK9"/>
+    <mergeCell ref="RL9:RM9"/>
+    <mergeCell ref="RN9:RO9"/>
+    <mergeCell ref="RP9:RQ9"/>
+    <mergeCell ref="RR9:RS9"/>
+    <mergeCell ref="RT9:RU9"/>
+    <mergeCell ref="RV9:RW9"/>
+    <mergeCell ref="RX9:RY9"/>
+    <mergeCell ref="RZ9:SA9"/>
+    <mergeCell ref="SB9:SC9"/>
+    <mergeCell ref="SD9:SE9"/>
+    <mergeCell ref="SF9:SG9"/>
+    <mergeCell ref="SH9:SI9"/>
+    <mergeCell ref="SJ9:SK9"/>
+    <mergeCell ref="SL9:SM9"/>
+    <mergeCell ref="SN9:SO9"/>
+    <mergeCell ref="SP9:SQ9"/>
+    <mergeCell ref="SR9:SS9"/>
+    <mergeCell ref="ST9:SU9"/>
+    <mergeCell ref="SV9:SW9"/>
+    <mergeCell ref="SX9:SY9"/>
+    <mergeCell ref="SZ9:TA9"/>
+    <mergeCell ref="TB9:TC9"/>
+    <mergeCell ref="TD9:TE9"/>
+    <mergeCell ref="TF9:TG9"/>
+    <mergeCell ref="TH9:TI9"/>
+    <mergeCell ref="TJ9:TK9"/>
+    <mergeCell ref="TL9:TM9"/>
+    <mergeCell ref="TN9:TO9"/>
+    <mergeCell ref="TP9:TQ9"/>
+    <mergeCell ref="TR9:TS9"/>
+    <mergeCell ref="TT9:TU9"/>
+    <mergeCell ref="TV9:TW9"/>
+    <mergeCell ref="TX9:TY9"/>
+    <mergeCell ref="TZ9:UA9"/>
+    <mergeCell ref="UB9:UC9"/>
+    <mergeCell ref="UD9:UE9"/>
+    <mergeCell ref="UF9:UG9"/>
+    <mergeCell ref="UH9:UI9"/>
+    <mergeCell ref="UJ9:UK9"/>
+    <mergeCell ref="UL9:UM9"/>
+    <mergeCell ref="UN9:UO9"/>
+    <mergeCell ref="UP9:UQ9"/>
+    <mergeCell ref="UR9:US9"/>
+    <mergeCell ref="UT9:UU9"/>
+    <mergeCell ref="UV9:UW9"/>
+    <mergeCell ref="UX9:UY9"/>
+    <mergeCell ref="UZ9:VA9"/>
+    <mergeCell ref="VB9:VC9"/>
+    <mergeCell ref="VD9:VE9"/>
+    <mergeCell ref="VF9:VG9"/>
+    <mergeCell ref="VH9:VI9"/>
+    <mergeCell ref="VJ9:VK9"/>
+    <mergeCell ref="VL9:VM9"/>
+    <mergeCell ref="VN9:VO9"/>
+    <mergeCell ref="VP9:VQ9"/>
+    <mergeCell ref="VR9:VS9"/>
+    <mergeCell ref="VT9:VU9"/>
+    <mergeCell ref="VV9:VW9"/>
+    <mergeCell ref="VX9:VY9"/>
+    <mergeCell ref="VZ9:WA9"/>
+    <mergeCell ref="WB9:WC9"/>
+    <mergeCell ref="WD9:WE9"/>
+    <mergeCell ref="WF9:WG9"/>
+    <mergeCell ref="WH9:WI9"/>
+    <mergeCell ref="WJ9:WK9"/>
+    <mergeCell ref="WL9:WM9"/>
+    <mergeCell ref="WN9:WO9"/>
+    <mergeCell ref="WP9:WQ9"/>
+    <mergeCell ref="WR9:WS9"/>
+    <mergeCell ref="WT9:WU9"/>
+    <mergeCell ref="WV9:WW9"/>
+    <mergeCell ref="WX9:WY9"/>
+    <mergeCell ref="WZ9:XA9"/>
+    <mergeCell ref="XB9:XC9"/>
+    <mergeCell ref="XD9:XE9"/>
+    <mergeCell ref="XF9:XG9"/>
+    <mergeCell ref="XH9:XI9"/>
+    <mergeCell ref="XJ9:XK9"/>
+    <mergeCell ref="XL9:XM9"/>
+    <mergeCell ref="XN9:XO9"/>
+    <mergeCell ref="XP9:XQ9"/>
+    <mergeCell ref="XR9:XS9"/>
+    <mergeCell ref="XT9:XU9"/>
+    <mergeCell ref="XV9:XW9"/>
+    <mergeCell ref="XX9:XY9"/>
     <mergeCell ref="YR9:YS9"/>
     <mergeCell ref="YT9:YU9"/>
     <mergeCell ref="XZ9:YA9"/>
@@ -18675,330 +18995,6 @@
     <mergeCell ref="YL9:YM9"/>
     <mergeCell ref="YN9:YO9"/>
     <mergeCell ref="YP9:YQ9"/>
-    <mergeCell ref="XH9:XI9"/>
-    <mergeCell ref="XJ9:XK9"/>
-    <mergeCell ref="XL9:XM9"/>
-    <mergeCell ref="XN9:XO9"/>
-    <mergeCell ref="XP9:XQ9"/>
-    <mergeCell ref="XR9:XS9"/>
-    <mergeCell ref="XT9:XU9"/>
-    <mergeCell ref="XV9:XW9"/>
-    <mergeCell ref="XX9:XY9"/>
-    <mergeCell ref="WP9:WQ9"/>
-    <mergeCell ref="WR9:WS9"/>
-    <mergeCell ref="WT9:WU9"/>
-    <mergeCell ref="WV9:WW9"/>
-    <mergeCell ref="WX9:WY9"/>
-    <mergeCell ref="WZ9:XA9"/>
-    <mergeCell ref="XB9:XC9"/>
-    <mergeCell ref="XD9:XE9"/>
-    <mergeCell ref="XF9:XG9"/>
-    <mergeCell ref="VX9:VY9"/>
-    <mergeCell ref="VZ9:WA9"/>
-    <mergeCell ref="WB9:WC9"/>
-    <mergeCell ref="WD9:WE9"/>
-    <mergeCell ref="WF9:WG9"/>
-    <mergeCell ref="WH9:WI9"/>
-    <mergeCell ref="WJ9:WK9"/>
-    <mergeCell ref="WL9:WM9"/>
-    <mergeCell ref="WN9:WO9"/>
-    <mergeCell ref="VF9:VG9"/>
-    <mergeCell ref="VH9:VI9"/>
-    <mergeCell ref="VJ9:VK9"/>
-    <mergeCell ref="VL9:VM9"/>
-    <mergeCell ref="VN9:VO9"/>
-    <mergeCell ref="VP9:VQ9"/>
-    <mergeCell ref="VR9:VS9"/>
-    <mergeCell ref="VT9:VU9"/>
-    <mergeCell ref="VV9:VW9"/>
-    <mergeCell ref="UN9:UO9"/>
-    <mergeCell ref="UP9:UQ9"/>
-    <mergeCell ref="UR9:US9"/>
-    <mergeCell ref="UT9:UU9"/>
-    <mergeCell ref="UV9:UW9"/>
-    <mergeCell ref="UX9:UY9"/>
-    <mergeCell ref="UZ9:VA9"/>
-    <mergeCell ref="VB9:VC9"/>
-    <mergeCell ref="VD9:VE9"/>
-    <mergeCell ref="TV9:TW9"/>
-    <mergeCell ref="TX9:TY9"/>
-    <mergeCell ref="TZ9:UA9"/>
-    <mergeCell ref="UB9:UC9"/>
-    <mergeCell ref="UD9:UE9"/>
-    <mergeCell ref="UF9:UG9"/>
-    <mergeCell ref="UH9:UI9"/>
-    <mergeCell ref="UJ9:UK9"/>
-    <mergeCell ref="UL9:UM9"/>
-    <mergeCell ref="TD9:TE9"/>
-    <mergeCell ref="TF9:TG9"/>
-    <mergeCell ref="TH9:TI9"/>
-    <mergeCell ref="TJ9:TK9"/>
-    <mergeCell ref="TL9:TM9"/>
-    <mergeCell ref="TN9:TO9"/>
-    <mergeCell ref="TP9:TQ9"/>
-    <mergeCell ref="TR9:TS9"/>
-    <mergeCell ref="TT9:TU9"/>
-    <mergeCell ref="SL9:SM9"/>
-    <mergeCell ref="SN9:SO9"/>
-    <mergeCell ref="SP9:SQ9"/>
-    <mergeCell ref="SR9:SS9"/>
-    <mergeCell ref="ST9:SU9"/>
-    <mergeCell ref="SV9:SW9"/>
-    <mergeCell ref="SX9:SY9"/>
-    <mergeCell ref="SZ9:TA9"/>
-    <mergeCell ref="TB9:TC9"/>
-    <mergeCell ref="RT9:RU9"/>
-    <mergeCell ref="RV9:RW9"/>
-    <mergeCell ref="RX9:RY9"/>
-    <mergeCell ref="RZ9:SA9"/>
-    <mergeCell ref="SB9:SC9"/>
-    <mergeCell ref="SD9:SE9"/>
-    <mergeCell ref="SF9:SG9"/>
-    <mergeCell ref="SH9:SI9"/>
-    <mergeCell ref="SJ9:SK9"/>
-    <mergeCell ref="RB9:RC9"/>
-    <mergeCell ref="RD9:RE9"/>
-    <mergeCell ref="RF9:RG9"/>
-    <mergeCell ref="RH9:RI9"/>
-    <mergeCell ref="RJ9:RK9"/>
-    <mergeCell ref="RL9:RM9"/>
-    <mergeCell ref="RN9:RO9"/>
-    <mergeCell ref="RP9:RQ9"/>
-    <mergeCell ref="RR9:RS9"/>
-    <mergeCell ref="QJ9:QK9"/>
-    <mergeCell ref="QL9:QM9"/>
-    <mergeCell ref="QN9:QO9"/>
-    <mergeCell ref="QP9:QQ9"/>
-    <mergeCell ref="QR9:QS9"/>
-    <mergeCell ref="QT9:QU9"/>
-    <mergeCell ref="QV9:QW9"/>
-    <mergeCell ref="QX9:QY9"/>
-    <mergeCell ref="QZ9:RA9"/>
-    <mergeCell ref="PR9:PS9"/>
-    <mergeCell ref="PT9:PU9"/>
-    <mergeCell ref="PV9:PW9"/>
-    <mergeCell ref="PX9:PY9"/>
-    <mergeCell ref="PZ9:QA9"/>
-    <mergeCell ref="QB9:QC9"/>
-    <mergeCell ref="QD9:QE9"/>
-    <mergeCell ref="QF9:QG9"/>
-    <mergeCell ref="QH9:QI9"/>
-    <mergeCell ref="OZ9:PA9"/>
-    <mergeCell ref="PB9:PC9"/>
-    <mergeCell ref="PD9:PE9"/>
-    <mergeCell ref="PF9:PG9"/>
-    <mergeCell ref="PH9:PI9"/>
-    <mergeCell ref="PJ9:PK9"/>
-    <mergeCell ref="PL9:PM9"/>
-    <mergeCell ref="PN9:PO9"/>
-    <mergeCell ref="PP9:PQ9"/>
-    <mergeCell ref="OH9:OI9"/>
-    <mergeCell ref="OJ9:OK9"/>
-    <mergeCell ref="OL9:OM9"/>
-    <mergeCell ref="ON9:OO9"/>
-    <mergeCell ref="OP9:OQ9"/>
-    <mergeCell ref="OR9:OS9"/>
-    <mergeCell ref="OT9:OU9"/>
-    <mergeCell ref="OV9:OW9"/>
-    <mergeCell ref="OX9:OY9"/>
-    <mergeCell ref="NP9:NQ9"/>
-    <mergeCell ref="NR9:NS9"/>
-    <mergeCell ref="NT9:NU9"/>
-    <mergeCell ref="NV9:NW9"/>
-    <mergeCell ref="NX9:NY9"/>
-    <mergeCell ref="NZ9:OA9"/>
-    <mergeCell ref="OB9:OC9"/>
-    <mergeCell ref="OD9:OE9"/>
-    <mergeCell ref="OF9:OG9"/>
-    <mergeCell ref="MX9:MY9"/>
-    <mergeCell ref="MZ9:NA9"/>
-    <mergeCell ref="NB9:NC9"/>
-    <mergeCell ref="ND9:NE9"/>
-    <mergeCell ref="NF9:NG9"/>
-    <mergeCell ref="NH9:NI9"/>
-    <mergeCell ref="NJ9:NK9"/>
-    <mergeCell ref="NL9:NM9"/>
-    <mergeCell ref="NN9:NO9"/>
-    <mergeCell ref="MF9:MG9"/>
-    <mergeCell ref="MH9:MI9"/>
-    <mergeCell ref="MJ9:MK9"/>
-    <mergeCell ref="ML9:MM9"/>
-    <mergeCell ref="MN9:MO9"/>
-    <mergeCell ref="MP9:MQ9"/>
-    <mergeCell ref="MR9:MS9"/>
-    <mergeCell ref="MT9:MU9"/>
-    <mergeCell ref="MV9:MW9"/>
-    <mergeCell ref="LN9:LO9"/>
-    <mergeCell ref="LP9:LQ9"/>
-    <mergeCell ref="LR9:LS9"/>
-    <mergeCell ref="LT9:LU9"/>
-    <mergeCell ref="LV9:LW9"/>
-    <mergeCell ref="LX9:LY9"/>
-    <mergeCell ref="LZ9:MA9"/>
-    <mergeCell ref="MB9:MC9"/>
-    <mergeCell ref="MD9:ME9"/>
-    <mergeCell ref="KV9:KW9"/>
-    <mergeCell ref="KX9:KY9"/>
-    <mergeCell ref="KZ9:LA9"/>
-    <mergeCell ref="LB9:LC9"/>
-    <mergeCell ref="LD9:LE9"/>
-    <mergeCell ref="LF9:LG9"/>
-    <mergeCell ref="LH9:LI9"/>
-    <mergeCell ref="LJ9:LK9"/>
-    <mergeCell ref="LL9:LM9"/>
-    <mergeCell ref="KD9:KE9"/>
-    <mergeCell ref="KF9:KG9"/>
-    <mergeCell ref="KH9:KI9"/>
-    <mergeCell ref="KJ9:KK9"/>
-    <mergeCell ref="KL9:KM9"/>
-    <mergeCell ref="KN9:KO9"/>
-    <mergeCell ref="KP9:KQ9"/>
-    <mergeCell ref="KR9:KS9"/>
-    <mergeCell ref="KT9:KU9"/>
-    <mergeCell ref="JL9:JM9"/>
-    <mergeCell ref="JN9:JO9"/>
-    <mergeCell ref="JP9:JQ9"/>
-    <mergeCell ref="JR9:JS9"/>
-    <mergeCell ref="JT9:JU9"/>
-    <mergeCell ref="JV9:JW9"/>
-    <mergeCell ref="JX9:JY9"/>
-    <mergeCell ref="JZ9:KA9"/>
-    <mergeCell ref="KB9:KC9"/>
-    <mergeCell ref="IT9:IU9"/>
-    <mergeCell ref="IV9:IW9"/>
-    <mergeCell ref="IX9:IY9"/>
-    <mergeCell ref="IZ9:JA9"/>
-    <mergeCell ref="JB9:JC9"/>
-    <mergeCell ref="JD9:JE9"/>
-    <mergeCell ref="JF9:JG9"/>
-    <mergeCell ref="JH9:JI9"/>
-    <mergeCell ref="JJ9:JK9"/>
-    <mergeCell ref="IB9:IC9"/>
-    <mergeCell ref="ID9:IE9"/>
-    <mergeCell ref="IF9:IG9"/>
-    <mergeCell ref="IH9:II9"/>
-    <mergeCell ref="IJ9:IK9"/>
-    <mergeCell ref="IL9:IM9"/>
-    <mergeCell ref="IN9:IO9"/>
-    <mergeCell ref="IP9:IQ9"/>
-    <mergeCell ref="IR9:IS9"/>
-    <mergeCell ref="HJ9:HK9"/>
-    <mergeCell ref="HL9:HM9"/>
-    <mergeCell ref="HN9:HO9"/>
-    <mergeCell ref="HP9:HQ9"/>
-    <mergeCell ref="HR9:HS9"/>
-    <mergeCell ref="HT9:HU9"/>
-    <mergeCell ref="HV9:HW9"/>
-    <mergeCell ref="HX9:HY9"/>
-    <mergeCell ref="HZ9:IA9"/>
-    <mergeCell ref="GR9:GS9"/>
-    <mergeCell ref="GT9:GU9"/>
-    <mergeCell ref="GV9:GW9"/>
-    <mergeCell ref="GX9:GY9"/>
-    <mergeCell ref="GZ9:HA9"/>
-    <mergeCell ref="HB9:HC9"/>
-    <mergeCell ref="HD9:HE9"/>
-    <mergeCell ref="HF9:HG9"/>
-    <mergeCell ref="HH9:HI9"/>
-    <mergeCell ref="FZ9:GA9"/>
-    <mergeCell ref="GB9:GC9"/>
-    <mergeCell ref="GD9:GE9"/>
-    <mergeCell ref="GF9:GG9"/>
-    <mergeCell ref="GH9:GI9"/>
-    <mergeCell ref="GJ9:GK9"/>
-    <mergeCell ref="GL9:GM9"/>
-    <mergeCell ref="GN9:GO9"/>
-    <mergeCell ref="GP9:GQ9"/>
-    <mergeCell ref="FH9:FI9"/>
-    <mergeCell ref="FJ9:FK9"/>
-    <mergeCell ref="FL9:FM9"/>
-    <mergeCell ref="FN9:FO9"/>
-    <mergeCell ref="FP9:FQ9"/>
-    <mergeCell ref="FR9:FS9"/>
-    <mergeCell ref="FT9:FU9"/>
-    <mergeCell ref="FV9:FW9"/>
-    <mergeCell ref="FX9:FY9"/>
-    <mergeCell ref="EP9:EQ9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="EZ9:FA9"/>
-    <mergeCell ref="FB9:FC9"/>
-    <mergeCell ref="FD9:FE9"/>
-    <mergeCell ref="FF9:FG9"/>
-    <mergeCell ref="DX9:DY9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="EH9:EI9"/>
-    <mergeCell ref="EJ9:EK9"/>
-    <mergeCell ref="EL9:EM9"/>
-    <mergeCell ref="EN9:EO9"/>
-    <mergeCell ref="DF9:DG9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DP9:DQ9"/>
-    <mergeCell ref="DR9:DS9"/>
-    <mergeCell ref="DT9:DU9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="CN9:CO9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="CZ9:DA9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="BV9:BW9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BR9:BS9"/>
-    <mergeCell ref="BT9:BU9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19012,10 +19008,10 @@
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -19690,12 +19686,12 @@
     <col min="671" max="671" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>373</v>
       </c>
@@ -19703,7 +19699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>374</v>
       </c>
@@ -19711,8 +19707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -19720,7 +19715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -19728,7 +19723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -19736,8 +19731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>375</v>
       </c>
@@ -21752,7 +21746,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>377</v>
       </c>
@@ -23767,7 +23761,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -25782,12 +25776,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>379</v>
       </c>
@@ -25795,12 +25789,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>381</v>
       </c>
@@ -25810,6 +25804,330 @@
     </row>
   </sheetData>
   <mergeCells count="335">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BR9:BS9"/>
+    <mergeCell ref="BT9:BU9"/>
+    <mergeCell ref="BV9:BW9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CN9:CO9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DF9:DG9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DP9:DQ9"/>
+    <mergeCell ref="DR9:DS9"/>
+    <mergeCell ref="DT9:DU9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DX9:DY9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="EH9:EI9"/>
+    <mergeCell ref="EJ9:EK9"/>
+    <mergeCell ref="EL9:EM9"/>
+    <mergeCell ref="EN9:EO9"/>
+    <mergeCell ref="EP9:EQ9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="EZ9:FA9"/>
+    <mergeCell ref="FB9:FC9"/>
+    <mergeCell ref="FD9:FE9"/>
+    <mergeCell ref="FF9:FG9"/>
+    <mergeCell ref="FH9:FI9"/>
+    <mergeCell ref="FJ9:FK9"/>
+    <mergeCell ref="FL9:FM9"/>
+    <mergeCell ref="FN9:FO9"/>
+    <mergeCell ref="FP9:FQ9"/>
+    <mergeCell ref="FR9:FS9"/>
+    <mergeCell ref="FT9:FU9"/>
+    <mergeCell ref="FV9:FW9"/>
+    <mergeCell ref="FX9:FY9"/>
+    <mergeCell ref="FZ9:GA9"/>
+    <mergeCell ref="GB9:GC9"/>
+    <mergeCell ref="GD9:GE9"/>
+    <mergeCell ref="GF9:GG9"/>
+    <mergeCell ref="GH9:GI9"/>
+    <mergeCell ref="GJ9:GK9"/>
+    <mergeCell ref="GL9:GM9"/>
+    <mergeCell ref="GN9:GO9"/>
+    <mergeCell ref="GP9:GQ9"/>
+    <mergeCell ref="GR9:GS9"/>
+    <mergeCell ref="GT9:GU9"/>
+    <mergeCell ref="GV9:GW9"/>
+    <mergeCell ref="GX9:GY9"/>
+    <mergeCell ref="GZ9:HA9"/>
+    <mergeCell ref="HB9:HC9"/>
+    <mergeCell ref="HD9:HE9"/>
+    <mergeCell ref="HF9:HG9"/>
+    <mergeCell ref="HH9:HI9"/>
+    <mergeCell ref="HJ9:HK9"/>
+    <mergeCell ref="HL9:HM9"/>
+    <mergeCell ref="HN9:HO9"/>
+    <mergeCell ref="HP9:HQ9"/>
+    <mergeCell ref="HR9:HS9"/>
+    <mergeCell ref="HT9:HU9"/>
+    <mergeCell ref="HV9:HW9"/>
+    <mergeCell ref="HX9:HY9"/>
+    <mergeCell ref="HZ9:IA9"/>
+    <mergeCell ref="IB9:IC9"/>
+    <mergeCell ref="ID9:IE9"/>
+    <mergeCell ref="IF9:IG9"/>
+    <mergeCell ref="IH9:II9"/>
+    <mergeCell ref="IJ9:IK9"/>
+    <mergeCell ref="IL9:IM9"/>
+    <mergeCell ref="IN9:IO9"/>
+    <mergeCell ref="IP9:IQ9"/>
+    <mergeCell ref="IR9:IS9"/>
+    <mergeCell ref="IT9:IU9"/>
+    <mergeCell ref="IV9:IW9"/>
+    <mergeCell ref="IX9:IY9"/>
+    <mergeCell ref="IZ9:JA9"/>
+    <mergeCell ref="JB9:JC9"/>
+    <mergeCell ref="JD9:JE9"/>
+    <mergeCell ref="JF9:JG9"/>
+    <mergeCell ref="JH9:JI9"/>
+    <mergeCell ref="JJ9:JK9"/>
+    <mergeCell ref="JL9:JM9"/>
+    <mergeCell ref="JN9:JO9"/>
+    <mergeCell ref="JP9:JQ9"/>
+    <mergeCell ref="JR9:JS9"/>
+    <mergeCell ref="JT9:JU9"/>
+    <mergeCell ref="JV9:JW9"/>
+    <mergeCell ref="JX9:JY9"/>
+    <mergeCell ref="JZ9:KA9"/>
+    <mergeCell ref="KB9:KC9"/>
+    <mergeCell ref="KD9:KE9"/>
+    <mergeCell ref="KF9:KG9"/>
+    <mergeCell ref="KH9:KI9"/>
+    <mergeCell ref="KJ9:KK9"/>
+    <mergeCell ref="KL9:KM9"/>
+    <mergeCell ref="KN9:KO9"/>
+    <mergeCell ref="KP9:KQ9"/>
+    <mergeCell ref="KR9:KS9"/>
+    <mergeCell ref="KT9:KU9"/>
+    <mergeCell ref="KV9:KW9"/>
+    <mergeCell ref="KX9:KY9"/>
+    <mergeCell ref="KZ9:LA9"/>
+    <mergeCell ref="LB9:LC9"/>
+    <mergeCell ref="LD9:LE9"/>
+    <mergeCell ref="LF9:LG9"/>
+    <mergeCell ref="LH9:LI9"/>
+    <mergeCell ref="LJ9:LK9"/>
+    <mergeCell ref="LL9:LM9"/>
+    <mergeCell ref="LN9:LO9"/>
+    <mergeCell ref="LP9:LQ9"/>
+    <mergeCell ref="LR9:LS9"/>
+    <mergeCell ref="LT9:LU9"/>
+    <mergeCell ref="LV9:LW9"/>
+    <mergeCell ref="LX9:LY9"/>
+    <mergeCell ref="LZ9:MA9"/>
+    <mergeCell ref="MB9:MC9"/>
+    <mergeCell ref="MD9:ME9"/>
+    <mergeCell ref="MF9:MG9"/>
+    <mergeCell ref="MH9:MI9"/>
+    <mergeCell ref="MJ9:MK9"/>
+    <mergeCell ref="ML9:MM9"/>
+    <mergeCell ref="MN9:MO9"/>
+    <mergeCell ref="MP9:MQ9"/>
+    <mergeCell ref="MR9:MS9"/>
+    <mergeCell ref="MT9:MU9"/>
+    <mergeCell ref="MV9:MW9"/>
+    <mergeCell ref="MX9:MY9"/>
+    <mergeCell ref="MZ9:NA9"/>
+    <mergeCell ref="NB9:NC9"/>
+    <mergeCell ref="ND9:NE9"/>
+    <mergeCell ref="NF9:NG9"/>
+    <mergeCell ref="NH9:NI9"/>
+    <mergeCell ref="NJ9:NK9"/>
+    <mergeCell ref="NL9:NM9"/>
+    <mergeCell ref="NN9:NO9"/>
+    <mergeCell ref="NP9:NQ9"/>
+    <mergeCell ref="NR9:NS9"/>
+    <mergeCell ref="NT9:NU9"/>
+    <mergeCell ref="NV9:NW9"/>
+    <mergeCell ref="NX9:NY9"/>
+    <mergeCell ref="NZ9:OA9"/>
+    <mergeCell ref="OB9:OC9"/>
+    <mergeCell ref="OD9:OE9"/>
+    <mergeCell ref="OF9:OG9"/>
+    <mergeCell ref="OH9:OI9"/>
+    <mergeCell ref="OJ9:OK9"/>
+    <mergeCell ref="OL9:OM9"/>
+    <mergeCell ref="ON9:OO9"/>
+    <mergeCell ref="OP9:OQ9"/>
+    <mergeCell ref="OR9:OS9"/>
+    <mergeCell ref="OT9:OU9"/>
+    <mergeCell ref="OV9:OW9"/>
+    <mergeCell ref="OX9:OY9"/>
+    <mergeCell ref="OZ9:PA9"/>
+    <mergeCell ref="PB9:PC9"/>
+    <mergeCell ref="PD9:PE9"/>
+    <mergeCell ref="PF9:PG9"/>
+    <mergeCell ref="PH9:PI9"/>
+    <mergeCell ref="PJ9:PK9"/>
+    <mergeCell ref="PL9:PM9"/>
+    <mergeCell ref="PN9:PO9"/>
+    <mergeCell ref="PP9:PQ9"/>
+    <mergeCell ref="PR9:PS9"/>
+    <mergeCell ref="PT9:PU9"/>
+    <mergeCell ref="PV9:PW9"/>
+    <mergeCell ref="PX9:PY9"/>
+    <mergeCell ref="PZ9:QA9"/>
+    <mergeCell ref="QB9:QC9"/>
+    <mergeCell ref="QD9:QE9"/>
+    <mergeCell ref="QF9:QG9"/>
+    <mergeCell ref="QH9:QI9"/>
+    <mergeCell ref="QJ9:QK9"/>
+    <mergeCell ref="QL9:QM9"/>
+    <mergeCell ref="QN9:QO9"/>
+    <mergeCell ref="QP9:QQ9"/>
+    <mergeCell ref="QR9:QS9"/>
+    <mergeCell ref="QT9:QU9"/>
+    <mergeCell ref="QV9:QW9"/>
+    <mergeCell ref="QX9:QY9"/>
+    <mergeCell ref="QZ9:RA9"/>
+    <mergeCell ref="RB9:RC9"/>
+    <mergeCell ref="RD9:RE9"/>
+    <mergeCell ref="RF9:RG9"/>
+    <mergeCell ref="RH9:RI9"/>
+    <mergeCell ref="RJ9:RK9"/>
+    <mergeCell ref="RL9:RM9"/>
+    <mergeCell ref="RN9:RO9"/>
+    <mergeCell ref="RP9:RQ9"/>
+    <mergeCell ref="RR9:RS9"/>
+    <mergeCell ref="RT9:RU9"/>
+    <mergeCell ref="RV9:RW9"/>
+    <mergeCell ref="RX9:RY9"/>
+    <mergeCell ref="RZ9:SA9"/>
+    <mergeCell ref="SB9:SC9"/>
+    <mergeCell ref="SD9:SE9"/>
+    <mergeCell ref="SF9:SG9"/>
+    <mergeCell ref="SH9:SI9"/>
+    <mergeCell ref="SJ9:SK9"/>
+    <mergeCell ref="SL9:SM9"/>
+    <mergeCell ref="SN9:SO9"/>
+    <mergeCell ref="SP9:SQ9"/>
+    <mergeCell ref="SR9:SS9"/>
+    <mergeCell ref="ST9:SU9"/>
+    <mergeCell ref="SV9:SW9"/>
+    <mergeCell ref="SX9:SY9"/>
+    <mergeCell ref="SZ9:TA9"/>
+    <mergeCell ref="TB9:TC9"/>
+    <mergeCell ref="TD9:TE9"/>
+    <mergeCell ref="TF9:TG9"/>
+    <mergeCell ref="TH9:TI9"/>
+    <mergeCell ref="TJ9:TK9"/>
+    <mergeCell ref="TL9:TM9"/>
+    <mergeCell ref="TN9:TO9"/>
+    <mergeCell ref="TP9:TQ9"/>
+    <mergeCell ref="TR9:TS9"/>
+    <mergeCell ref="TT9:TU9"/>
+    <mergeCell ref="TV9:TW9"/>
+    <mergeCell ref="TX9:TY9"/>
+    <mergeCell ref="TZ9:UA9"/>
+    <mergeCell ref="UB9:UC9"/>
+    <mergeCell ref="UD9:UE9"/>
+    <mergeCell ref="UF9:UG9"/>
+    <mergeCell ref="UH9:UI9"/>
+    <mergeCell ref="UJ9:UK9"/>
+    <mergeCell ref="UL9:UM9"/>
+    <mergeCell ref="UN9:UO9"/>
+    <mergeCell ref="UP9:UQ9"/>
+    <mergeCell ref="UR9:US9"/>
+    <mergeCell ref="UT9:UU9"/>
+    <mergeCell ref="UV9:UW9"/>
+    <mergeCell ref="UX9:UY9"/>
+    <mergeCell ref="UZ9:VA9"/>
+    <mergeCell ref="VB9:VC9"/>
+    <mergeCell ref="VD9:VE9"/>
+    <mergeCell ref="VF9:VG9"/>
+    <mergeCell ref="VH9:VI9"/>
+    <mergeCell ref="VJ9:VK9"/>
+    <mergeCell ref="VL9:VM9"/>
+    <mergeCell ref="VN9:VO9"/>
+    <mergeCell ref="VP9:VQ9"/>
+    <mergeCell ref="VR9:VS9"/>
+    <mergeCell ref="VT9:VU9"/>
+    <mergeCell ref="VV9:VW9"/>
+    <mergeCell ref="VX9:VY9"/>
+    <mergeCell ref="VZ9:WA9"/>
+    <mergeCell ref="WB9:WC9"/>
+    <mergeCell ref="WD9:WE9"/>
+    <mergeCell ref="WF9:WG9"/>
+    <mergeCell ref="WH9:WI9"/>
+    <mergeCell ref="WJ9:WK9"/>
+    <mergeCell ref="WL9:WM9"/>
+    <mergeCell ref="WN9:WO9"/>
+    <mergeCell ref="WP9:WQ9"/>
+    <mergeCell ref="WR9:WS9"/>
+    <mergeCell ref="WT9:WU9"/>
+    <mergeCell ref="WV9:WW9"/>
+    <mergeCell ref="WX9:WY9"/>
+    <mergeCell ref="WZ9:XA9"/>
+    <mergeCell ref="XB9:XC9"/>
+    <mergeCell ref="XD9:XE9"/>
+    <mergeCell ref="XF9:XG9"/>
+    <mergeCell ref="XH9:XI9"/>
+    <mergeCell ref="XJ9:XK9"/>
+    <mergeCell ref="XL9:XM9"/>
+    <mergeCell ref="XN9:XO9"/>
+    <mergeCell ref="XP9:XQ9"/>
+    <mergeCell ref="XR9:XS9"/>
+    <mergeCell ref="XT9:XU9"/>
+    <mergeCell ref="XV9:XW9"/>
+    <mergeCell ref="XX9:XY9"/>
     <mergeCell ref="YR9:YS9"/>
     <mergeCell ref="YT9:YU9"/>
     <mergeCell ref="XZ9:YA9"/>
@@ -25821,330 +26139,6 @@
     <mergeCell ref="YL9:YM9"/>
     <mergeCell ref="YN9:YO9"/>
     <mergeCell ref="YP9:YQ9"/>
-    <mergeCell ref="XH9:XI9"/>
-    <mergeCell ref="XJ9:XK9"/>
-    <mergeCell ref="XL9:XM9"/>
-    <mergeCell ref="XN9:XO9"/>
-    <mergeCell ref="XP9:XQ9"/>
-    <mergeCell ref="XR9:XS9"/>
-    <mergeCell ref="XT9:XU9"/>
-    <mergeCell ref="XV9:XW9"/>
-    <mergeCell ref="XX9:XY9"/>
-    <mergeCell ref="WP9:WQ9"/>
-    <mergeCell ref="WR9:WS9"/>
-    <mergeCell ref="WT9:WU9"/>
-    <mergeCell ref="WV9:WW9"/>
-    <mergeCell ref="WX9:WY9"/>
-    <mergeCell ref="WZ9:XA9"/>
-    <mergeCell ref="XB9:XC9"/>
-    <mergeCell ref="XD9:XE9"/>
-    <mergeCell ref="XF9:XG9"/>
-    <mergeCell ref="VX9:VY9"/>
-    <mergeCell ref="VZ9:WA9"/>
-    <mergeCell ref="WB9:WC9"/>
-    <mergeCell ref="WD9:WE9"/>
-    <mergeCell ref="WF9:WG9"/>
-    <mergeCell ref="WH9:WI9"/>
-    <mergeCell ref="WJ9:WK9"/>
-    <mergeCell ref="WL9:WM9"/>
-    <mergeCell ref="WN9:WO9"/>
-    <mergeCell ref="VF9:VG9"/>
-    <mergeCell ref="VH9:VI9"/>
-    <mergeCell ref="VJ9:VK9"/>
-    <mergeCell ref="VL9:VM9"/>
-    <mergeCell ref="VN9:VO9"/>
-    <mergeCell ref="VP9:VQ9"/>
-    <mergeCell ref="VR9:VS9"/>
-    <mergeCell ref="VT9:VU9"/>
-    <mergeCell ref="VV9:VW9"/>
-    <mergeCell ref="UN9:UO9"/>
-    <mergeCell ref="UP9:UQ9"/>
-    <mergeCell ref="UR9:US9"/>
-    <mergeCell ref="UT9:UU9"/>
-    <mergeCell ref="UV9:UW9"/>
-    <mergeCell ref="UX9:UY9"/>
-    <mergeCell ref="UZ9:VA9"/>
-    <mergeCell ref="VB9:VC9"/>
-    <mergeCell ref="VD9:VE9"/>
-    <mergeCell ref="TV9:TW9"/>
-    <mergeCell ref="TX9:TY9"/>
-    <mergeCell ref="TZ9:UA9"/>
-    <mergeCell ref="UB9:UC9"/>
-    <mergeCell ref="UD9:UE9"/>
-    <mergeCell ref="UF9:UG9"/>
-    <mergeCell ref="UH9:UI9"/>
-    <mergeCell ref="UJ9:UK9"/>
-    <mergeCell ref="UL9:UM9"/>
-    <mergeCell ref="TD9:TE9"/>
-    <mergeCell ref="TF9:TG9"/>
-    <mergeCell ref="TH9:TI9"/>
-    <mergeCell ref="TJ9:TK9"/>
-    <mergeCell ref="TL9:TM9"/>
-    <mergeCell ref="TN9:TO9"/>
-    <mergeCell ref="TP9:TQ9"/>
-    <mergeCell ref="TR9:TS9"/>
-    <mergeCell ref="TT9:TU9"/>
-    <mergeCell ref="SL9:SM9"/>
-    <mergeCell ref="SN9:SO9"/>
-    <mergeCell ref="SP9:SQ9"/>
-    <mergeCell ref="SR9:SS9"/>
-    <mergeCell ref="ST9:SU9"/>
-    <mergeCell ref="SV9:SW9"/>
-    <mergeCell ref="SX9:SY9"/>
-    <mergeCell ref="SZ9:TA9"/>
-    <mergeCell ref="TB9:TC9"/>
-    <mergeCell ref="RT9:RU9"/>
-    <mergeCell ref="RV9:RW9"/>
-    <mergeCell ref="RX9:RY9"/>
-    <mergeCell ref="RZ9:SA9"/>
-    <mergeCell ref="SB9:SC9"/>
-    <mergeCell ref="SD9:SE9"/>
-    <mergeCell ref="SF9:SG9"/>
-    <mergeCell ref="SH9:SI9"/>
-    <mergeCell ref="SJ9:SK9"/>
-    <mergeCell ref="RB9:RC9"/>
-    <mergeCell ref="RD9:RE9"/>
-    <mergeCell ref="RF9:RG9"/>
-    <mergeCell ref="RH9:RI9"/>
-    <mergeCell ref="RJ9:RK9"/>
-    <mergeCell ref="RL9:RM9"/>
-    <mergeCell ref="RN9:RO9"/>
-    <mergeCell ref="RP9:RQ9"/>
-    <mergeCell ref="RR9:RS9"/>
-    <mergeCell ref="QJ9:QK9"/>
-    <mergeCell ref="QL9:QM9"/>
-    <mergeCell ref="QN9:QO9"/>
-    <mergeCell ref="QP9:QQ9"/>
-    <mergeCell ref="QR9:QS9"/>
-    <mergeCell ref="QT9:QU9"/>
-    <mergeCell ref="QV9:QW9"/>
-    <mergeCell ref="QX9:QY9"/>
-    <mergeCell ref="QZ9:RA9"/>
-    <mergeCell ref="PR9:PS9"/>
-    <mergeCell ref="PT9:PU9"/>
-    <mergeCell ref="PV9:PW9"/>
-    <mergeCell ref="PX9:PY9"/>
-    <mergeCell ref="PZ9:QA9"/>
-    <mergeCell ref="QB9:QC9"/>
-    <mergeCell ref="QD9:QE9"/>
-    <mergeCell ref="QF9:QG9"/>
-    <mergeCell ref="QH9:QI9"/>
-    <mergeCell ref="OZ9:PA9"/>
-    <mergeCell ref="PB9:PC9"/>
-    <mergeCell ref="PD9:PE9"/>
-    <mergeCell ref="PF9:PG9"/>
-    <mergeCell ref="PH9:PI9"/>
-    <mergeCell ref="PJ9:PK9"/>
-    <mergeCell ref="PL9:PM9"/>
-    <mergeCell ref="PN9:PO9"/>
-    <mergeCell ref="PP9:PQ9"/>
-    <mergeCell ref="OH9:OI9"/>
-    <mergeCell ref="OJ9:OK9"/>
-    <mergeCell ref="OL9:OM9"/>
-    <mergeCell ref="ON9:OO9"/>
-    <mergeCell ref="OP9:OQ9"/>
-    <mergeCell ref="OR9:OS9"/>
-    <mergeCell ref="OT9:OU9"/>
-    <mergeCell ref="OV9:OW9"/>
-    <mergeCell ref="OX9:OY9"/>
-    <mergeCell ref="NP9:NQ9"/>
-    <mergeCell ref="NR9:NS9"/>
-    <mergeCell ref="NT9:NU9"/>
-    <mergeCell ref="NV9:NW9"/>
-    <mergeCell ref="NX9:NY9"/>
-    <mergeCell ref="NZ9:OA9"/>
-    <mergeCell ref="OB9:OC9"/>
-    <mergeCell ref="OD9:OE9"/>
-    <mergeCell ref="OF9:OG9"/>
-    <mergeCell ref="MX9:MY9"/>
-    <mergeCell ref="MZ9:NA9"/>
-    <mergeCell ref="NB9:NC9"/>
-    <mergeCell ref="ND9:NE9"/>
-    <mergeCell ref="NF9:NG9"/>
-    <mergeCell ref="NH9:NI9"/>
-    <mergeCell ref="NJ9:NK9"/>
-    <mergeCell ref="NL9:NM9"/>
-    <mergeCell ref="NN9:NO9"/>
-    <mergeCell ref="MF9:MG9"/>
-    <mergeCell ref="MH9:MI9"/>
-    <mergeCell ref="MJ9:MK9"/>
-    <mergeCell ref="ML9:MM9"/>
-    <mergeCell ref="MN9:MO9"/>
-    <mergeCell ref="MP9:MQ9"/>
-    <mergeCell ref="MR9:MS9"/>
-    <mergeCell ref="MT9:MU9"/>
-    <mergeCell ref="MV9:MW9"/>
-    <mergeCell ref="LN9:LO9"/>
-    <mergeCell ref="LP9:LQ9"/>
-    <mergeCell ref="LR9:LS9"/>
-    <mergeCell ref="LT9:LU9"/>
-    <mergeCell ref="LV9:LW9"/>
-    <mergeCell ref="LX9:LY9"/>
-    <mergeCell ref="LZ9:MA9"/>
-    <mergeCell ref="MB9:MC9"/>
-    <mergeCell ref="MD9:ME9"/>
-    <mergeCell ref="KV9:KW9"/>
-    <mergeCell ref="KX9:KY9"/>
-    <mergeCell ref="KZ9:LA9"/>
-    <mergeCell ref="LB9:LC9"/>
-    <mergeCell ref="LD9:LE9"/>
-    <mergeCell ref="LF9:LG9"/>
-    <mergeCell ref="LH9:LI9"/>
-    <mergeCell ref="LJ9:LK9"/>
-    <mergeCell ref="LL9:LM9"/>
-    <mergeCell ref="KD9:KE9"/>
-    <mergeCell ref="KF9:KG9"/>
-    <mergeCell ref="KH9:KI9"/>
-    <mergeCell ref="KJ9:KK9"/>
-    <mergeCell ref="KL9:KM9"/>
-    <mergeCell ref="KN9:KO9"/>
-    <mergeCell ref="KP9:KQ9"/>
-    <mergeCell ref="KR9:KS9"/>
-    <mergeCell ref="KT9:KU9"/>
-    <mergeCell ref="JL9:JM9"/>
-    <mergeCell ref="JN9:JO9"/>
-    <mergeCell ref="JP9:JQ9"/>
-    <mergeCell ref="JR9:JS9"/>
-    <mergeCell ref="JT9:JU9"/>
-    <mergeCell ref="JV9:JW9"/>
-    <mergeCell ref="JX9:JY9"/>
-    <mergeCell ref="JZ9:KA9"/>
-    <mergeCell ref="KB9:KC9"/>
-    <mergeCell ref="IT9:IU9"/>
-    <mergeCell ref="IV9:IW9"/>
-    <mergeCell ref="IX9:IY9"/>
-    <mergeCell ref="IZ9:JA9"/>
-    <mergeCell ref="JB9:JC9"/>
-    <mergeCell ref="JD9:JE9"/>
-    <mergeCell ref="JF9:JG9"/>
-    <mergeCell ref="JH9:JI9"/>
-    <mergeCell ref="JJ9:JK9"/>
-    <mergeCell ref="IB9:IC9"/>
-    <mergeCell ref="ID9:IE9"/>
-    <mergeCell ref="IF9:IG9"/>
-    <mergeCell ref="IH9:II9"/>
-    <mergeCell ref="IJ9:IK9"/>
-    <mergeCell ref="IL9:IM9"/>
-    <mergeCell ref="IN9:IO9"/>
-    <mergeCell ref="IP9:IQ9"/>
-    <mergeCell ref="IR9:IS9"/>
-    <mergeCell ref="HJ9:HK9"/>
-    <mergeCell ref="HL9:HM9"/>
-    <mergeCell ref="HN9:HO9"/>
-    <mergeCell ref="HP9:HQ9"/>
-    <mergeCell ref="HR9:HS9"/>
-    <mergeCell ref="HT9:HU9"/>
-    <mergeCell ref="HV9:HW9"/>
-    <mergeCell ref="HX9:HY9"/>
-    <mergeCell ref="HZ9:IA9"/>
-    <mergeCell ref="GR9:GS9"/>
-    <mergeCell ref="GT9:GU9"/>
-    <mergeCell ref="GV9:GW9"/>
-    <mergeCell ref="GX9:GY9"/>
-    <mergeCell ref="GZ9:HA9"/>
-    <mergeCell ref="HB9:HC9"/>
-    <mergeCell ref="HD9:HE9"/>
-    <mergeCell ref="HF9:HG9"/>
-    <mergeCell ref="HH9:HI9"/>
-    <mergeCell ref="FZ9:GA9"/>
-    <mergeCell ref="GB9:GC9"/>
-    <mergeCell ref="GD9:GE9"/>
-    <mergeCell ref="GF9:GG9"/>
-    <mergeCell ref="GH9:GI9"/>
-    <mergeCell ref="GJ9:GK9"/>
-    <mergeCell ref="GL9:GM9"/>
-    <mergeCell ref="GN9:GO9"/>
-    <mergeCell ref="GP9:GQ9"/>
-    <mergeCell ref="FH9:FI9"/>
-    <mergeCell ref="FJ9:FK9"/>
-    <mergeCell ref="FL9:FM9"/>
-    <mergeCell ref="FN9:FO9"/>
-    <mergeCell ref="FP9:FQ9"/>
-    <mergeCell ref="FR9:FS9"/>
-    <mergeCell ref="FT9:FU9"/>
-    <mergeCell ref="FV9:FW9"/>
-    <mergeCell ref="FX9:FY9"/>
-    <mergeCell ref="EP9:EQ9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="EZ9:FA9"/>
-    <mergeCell ref="FB9:FC9"/>
-    <mergeCell ref="FD9:FE9"/>
-    <mergeCell ref="FF9:FG9"/>
-    <mergeCell ref="DX9:DY9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="EH9:EI9"/>
-    <mergeCell ref="EJ9:EK9"/>
-    <mergeCell ref="EL9:EM9"/>
-    <mergeCell ref="EN9:EO9"/>
-    <mergeCell ref="DF9:DG9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DP9:DQ9"/>
-    <mergeCell ref="DR9:DS9"/>
-    <mergeCell ref="DT9:DU9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="CN9:CO9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="CZ9:DA9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="BV9:BW9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BR9:BS9"/>
-    <mergeCell ref="BT9:BU9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26161,7 +26155,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -26836,12 +26830,12 @@
     <col min="671" max="671" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>373</v>
       </c>
@@ -26849,7 +26843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>374</v>
       </c>
@@ -26857,8 +26851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -26866,7 +26859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -26874,7 +26867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -26882,8 +26875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>375</v>
       </c>
@@ -28898,7 +28890,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>377</v>
       </c>
@@ -30913,7 +30905,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -32928,12 +32920,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>379</v>
       </c>
@@ -32941,12 +32933,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>381</v>
       </c>
@@ -32956,6 +32948,330 @@
     </row>
   </sheetData>
   <mergeCells count="335">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BR9:BS9"/>
+    <mergeCell ref="BT9:BU9"/>
+    <mergeCell ref="BV9:BW9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CN9:CO9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DF9:DG9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DP9:DQ9"/>
+    <mergeCell ref="DR9:DS9"/>
+    <mergeCell ref="DT9:DU9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DX9:DY9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="EH9:EI9"/>
+    <mergeCell ref="EJ9:EK9"/>
+    <mergeCell ref="EL9:EM9"/>
+    <mergeCell ref="EN9:EO9"/>
+    <mergeCell ref="EP9:EQ9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="EZ9:FA9"/>
+    <mergeCell ref="FB9:FC9"/>
+    <mergeCell ref="FD9:FE9"/>
+    <mergeCell ref="FF9:FG9"/>
+    <mergeCell ref="FH9:FI9"/>
+    <mergeCell ref="FJ9:FK9"/>
+    <mergeCell ref="FL9:FM9"/>
+    <mergeCell ref="FN9:FO9"/>
+    <mergeCell ref="FP9:FQ9"/>
+    <mergeCell ref="FR9:FS9"/>
+    <mergeCell ref="FT9:FU9"/>
+    <mergeCell ref="FV9:FW9"/>
+    <mergeCell ref="FX9:FY9"/>
+    <mergeCell ref="FZ9:GA9"/>
+    <mergeCell ref="GB9:GC9"/>
+    <mergeCell ref="GD9:GE9"/>
+    <mergeCell ref="GF9:GG9"/>
+    <mergeCell ref="GH9:GI9"/>
+    <mergeCell ref="GJ9:GK9"/>
+    <mergeCell ref="GL9:GM9"/>
+    <mergeCell ref="GN9:GO9"/>
+    <mergeCell ref="GP9:GQ9"/>
+    <mergeCell ref="GR9:GS9"/>
+    <mergeCell ref="GT9:GU9"/>
+    <mergeCell ref="GV9:GW9"/>
+    <mergeCell ref="GX9:GY9"/>
+    <mergeCell ref="GZ9:HA9"/>
+    <mergeCell ref="HB9:HC9"/>
+    <mergeCell ref="HD9:HE9"/>
+    <mergeCell ref="HF9:HG9"/>
+    <mergeCell ref="HH9:HI9"/>
+    <mergeCell ref="HJ9:HK9"/>
+    <mergeCell ref="HL9:HM9"/>
+    <mergeCell ref="HN9:HO9"/>
+    <mergeCell ref="HP9:HQ9"/>
+    <mergeCell ref="HR9:HS9"/>
+    <mergeCell ref="HT9:HU9"/>
+    <mergeCell ref="HV9:HW9"/>
+    <mergeCell ref="HX9:HY9"/>
+    <mergeCell ref="HZ9:IA9"/>
+    <mergeCell ref="IB9:IC9"/>
+    <mergeCell ref="ID9:IE9"/>
+    <mergeCell ref="IF9:IG9"/>
+    <mergeCell ref="IH9:II9"/>
+    <mergeCell ref="IJ9:IK9"/>
+    <mergeCell ref="IL9:IM9"/>
+    <mergeCell ref="IN9:IO9"/>
+    <mergeCell ref="IP9:IQ9"/>
+    <mergeCell ref="IR9:IS9"/>
+    <mergeCell ref="IT9:IU9"/>
+    <mergeCell ref="IV9:IW9"/>
+    <mergeCell ref="IX9:IY9"/>
+    <mergeCell ref="IZ9:JA9"/>
+    <mergeCell ref="JB9:JC9"/>
+    <mergeCell ref="JD9:JE9"/>
+    <mergeCell ref="JF9:JG9"/>
+    <mergeCell ref="JH9:JI9"/>
+    <mergeCell ref="JJ9:JK9"/>
+    <mergeCell ref="JL9:JM9"/>
+    <mergeCell ref="JN9:JO9"/>
+    <mergeCell ref="JP9:JQ9"/>
+    <mergeCell ref="JR9:JS9"/>
+    <mergeCell ref="JT9:JU9"/>
+    <mergeCell ref="JV9:JW9"/>
+    <mergeCell ref="JX9:JY9"/>
+    <mergeCell ref="JZ9:KA9"/>
+    <mergeCell ref="KB9:KC9"/>
+    <mergeCell ref="KD9:KE9"/>
+    <mergeCell ref="KF9:KG9"/>
+    <mergeCell ref="KH9:KI9"/>
+    <mergeCell ref="KJ9:KK9"/>
+    <mergeCell ref="KL9:KM9"/>
+    <mergeCell ref="KN9:KO9"/>
+    <mergeCell ref="KP9:KQ9"/>
+    <mergeCell ref="KR9:KS9"/>
+    <mergeCell ref="KT9:KU9"/>
+    <mergeCell ref="KV9:KW9"/>
+    <mergeCell ref="KX9:KY9"/>
+    <mergeCell ref="KZ9:LA9"/>
+    <mergeCell ref="LB9:LC9"/>
+    <mergeCell ref="LD9:LE9"/>
+    <mergeCell ref="LF9:LG9"/>
+    <mergeCell ref="LH9:LI9"/>
+    <mergeCell ref="LJ9:LK9"/>
+    <mergeCell ref="LL9:LM9"/>
+    <mergeCell ref="LN9:LO9"/>
+    <mergeCell ref="LP9:LQ9"/>
+    <mergeCell ref="LR9:LS9"/>
+    <mergeCell ref="LT9:LU9"/>
+    <mergeCell ref="LV9:LW9"/>
+    <mergeCell ref="LX9:LY9"/>
+    <mergeCell ref="LZ9:MA9"/>
+    <mergeCell ref="MB9:MC9"/>
+    <mergeCell ref="MD9:ME9"/>
+    <mergeCell ref="MF9:MG9"/>
+    <mergeCell ref="MH9:MI9"/>
+    <mergeCell ref="MJ9:MK9"/>
+    <mergeCell ref="ML9:MM9"/>
+    <mergeCell ref="MN9:MO9"/>
+    <mergeCell ref="MP9:MQ9"/>
+    <mergeCell ref="MR9:MS9"/>
+    <mergeCell ref="MT9:MU9"/>
+    <mergeCell ref="MV9:MW9"/>
+    <mergeCell ref="MX9:MY9"/>
+    <mergeCell ref="MZ9:NA9"/>
+    <mergeCell ref="NB9:NC9"/>
+    <mergeCell ref="ND9:NE9"/>
+    <mergeCell ref="NF9:NG9"/>
+    <mergeCell ref="NH9:NI9"/>
+    <mergeCell ref="NJ9:NK9"/>
+    <mergeCell ref="NL9:NM9"/>
+    <mergeCell ref="NN9:NO9"/>
+    <mergeCell ref="NP9:NQ9"/>
+    <mergeCell ref="NR9:NS9"/>
+    <mergeCell ref="NT9:NU9"/>
+    <mergeCell ref="NV9:NW9"/>
+    <mergeCell ref="NX9:NY9"/>
+    <mergeCell ref="NZ9:OA9"/>
+    <mergeCell ref="OB9:OC9"/>
+    <mergeCell ref="OD9:OE9"/>
+    <mergeCell ref="OF9:OG9"/>
+    <mergeCell ref="OH9:OI9"/>
+    <mergeCell ref="OJ9:OK9"/>
+    <mergeCell ref="OL9:OM9"/>
+    <mergeCell ref="ON9:OO9"/>
+    <mergeCell ref="OP9:OQ9"/>
+    <mergeCell ref="OR9:OS9"/>
+    <mergeCell ref="OT9:OU9"/>
+    <mergeCell ref="OV9:OW9"/>
+    <mergeCell ref="OX9:OY9"/>
+    <mergeCell ref="OZ9:PA9"/>
+    <mergeCell ref="PB9:PC9"/>
+    <mergeCell ref="PD9:PE9"/>
+    <mergeCell ref="PF9:PG9"/>
+    <mergeCell ref="PH9:PI9"/>
+    <mergeCell ref="PJ9:PK9"/>
+    <mergeCell ref="PL9:PM9"/>
+    <mergeCell ref="PN9:PO9"/>
+    <mergeCell ref="PP9:PQ9"/>
+    <mergeCell ref="PR9:PS9"/>
+    <mergeCell ref="PT9:PU9"/>
+    <mergeCell ref="PV9:PW9"/>
+    <mergeCell ref="PX9:PY9"/>
+    <mergeCell ref="PZ9:QA9"/>
+    <mergeCell ref="QB9:QC9"/>
+    <mergeCell ref="QD9:QE9"/>
+    <mergeCell ref="QF9:QG9"/>
+    <mergeCell ref="QH9:QI9"/>
+    <mergeCell ref="QJ9:QK9"/>
+    <mergeCell ref="QL9:QM9"/>
+    <mergeCell ref="QN9:QO9"/>
+    <mergeCell ref="QP9:QQ9"/>
+    <mergeCell ref="QR9:QS9"/>
+    <mergeCell ref="QT9:QU9"/>
+    <mergeCell ref="QV9:QW9"/>
+    <mergeCell ref="QX9:QY9"/>
+    <mergeCell ref="QZ9:RA9"/>
+    <mergeCell ref="RB9:RC9"/>
+    <mergeCell ref="RD9:RE9"/>
+    <mergeCell ref="RF9:RG9"/>
+    <mergeCell ref="RH9:RI9"/>
+    <mergeCell ref="RJ9:RK9"/>
+    <mergeCell ref="RL9:RM9"/>
+    <mergeCell ref="RN9:RO9"/>
+    <mergeCell ref="RP9:RQ9"/>
+    <mergeCell ref="RR9:RS9"/>
+    <mergeCell ref="RT9:RU9"/>
+    <mergeCell ref="RV9:RW9"/>
+    <mergeCell ref="RX9:RY9"/>
+    <mergeCell ref="RZ9:SA9"/>
+    <mergeCell ref="SB9:SC9"/>
+    <mergeCell ref="SD9:SE9"/>
+    <mergeCell ref="SF9:SG9"/>
+    <mergeCell ref="SH9:SI9"/>
+    <mergeCell ref="SJ9:SK9"/>
+    <mergeCell ref="SL9:SM9"/>
+    <mergeCell ref="SN9:SO9"/>
+    <mergeCell ref="SP9:SQ9"/>
+    <mergeCell ref="SR9:SS9"/>
+    <mergeCell ref="ST9:SU9"/>
+    <mergeCell ref="SV9:SW9"/>
+    <mergeCell ref="SX9:SY9"/>
+    <mergeCell ref="SZ9:TA9"/>
+    <mergeCell ref="TB9:TC9"/>
+    <mergeCell ref="TD9:TE9"/>
+    <mergeCell ref="TF9:TG9"/>
+    <mergeCell ref="TH9:TI9"/>
+    <mergeCell ref="TJ9:TK9"/>
+    <mergeCell ref="TL9:TM9"/>
+    <mergeCell ref="TN9:TO9"/>
+    <mergeCell ref="TP9:TQ9"/>
+    <mergeCell ref="TR9:TS9"/>
+    <mergeCell ref="TT9:TU9"/>
+    <mergeCell ref="TV9:TW9"/>
+    <mergeCell ref="TX9:TY9"/>
+    <mergeCell ref="TZ9:UA9"/>
+    <mergeCell ref="UB9:UC9"/>
+    <mergeCell ref="UD9:UE9"/>
+    <mergeCell ref="UF9:UG9"/>
+    <mergeCell ref="UH9:UI9"/>
+    <mergeCell ref="UJ9:UK9"/>
+    <mergeCell ref="UL9:UM9"/>
+    <mergeCell ref="UN9:UO9"/>
+    <mergeCell ref="UP9:UQ9"/>
+    <mergeCell ref="UR9:US9"/>
+    <mergeCell ref="UT9:UU9"/>
+    <mergeCell ref="UV9:UW9"/>
+    <mergeCell ref="UX9:UY9"/>
+    <mergeCell ref="UZ9:VA9"/>
+    <mergeCell ref="VB9:VC9"/>
+    <mergeCell ref="VD9:VE9"/>
+    <mergeCell ref="VF9:VG9"/>
+    <mergeCell ref="VH9:VI9"/>
+    <mergeCell ref="VJ9:VK9"/>
+    <mergeCell ref="VL9:VM9"/>
+    <mergeCell ref="VN9:VO9"/>
+    <mergeCell ref="VP9:VQ9"/>
+    <mergeCell ref="VR9:VS9"/>
+    <mergeCell ref="VT9:VU9"/>
+    <mergeCell ref="VV9:VW9"/>
+    <mergeCell ref="VX9:VY9"/>
+    <mergeCell ref="VZ9:WA9"/>
+    <mergeCell ref="WB9:WC9"/>
+    <mergeCell ref="WD9:WE9"/>
+    <mergeCell ref="WF9:WG9"/>
+    <mergeCell ref="WH9:WI9"/>
+    <mergeCell ref="WJ9:WK9"/>
+    <mergeCell ref="WL9:WM9"/>
+    <mergeCell ref="WN9:WO9"/>
+    <mergeCell ref="WP9:WQ9"/>
+    <mergeCell ref="WR9:WS9"/>
+    <mergeCell ref="WT9:WU9"/>
+    <mergeCell ref="WV9:WW9"/>
+    <mergeCell ref="WX9:WY9"/>
+    <mergeCell ref="WZ9:XA9"/>
+    <mergeCell ref="XB9:XC9"/>
+    <mergeCell ref="XD9:XE9"/>
+    <mergeCell ref="XF9:XG9"/>
+    <mergeCell ref="XH9:XI9"/>
+    <mergeCell ref="XJ9:XK9"/>
+    <mergeCell ref="XL9:XM9"/>
+    <mergeCell ref="XN9:XO9"/>
+    <mergeCell ref="XP9:XQ9"/>
+    <mergeCell ref="XR9:XS9"/>
+    <mergeCell ref="XT9:XU9"/>
+    <mergeCell ref="XV9:XW9"/>
+    <mergeCell ref="XX9:XY9"/>
     <mergeCell ref="YR9:YS9"/>
     <mergeCell ref="YT9:YU9"/>
     <mergeCell ref="XZ9:YA9"/>
@@ -32967,330 +33283,6 @@
     <mergeCell ref="YL9:YM9"/>
     <mergeCell ref="YN9:YO9"/>
     <mergeCell ref="YP9:YQ9"/>
-    <mergeCell ref="XH9:XI9"/>
-    <mergeCell ref="XJ9:XK9"/>
-    <mergeCell ref="XL9:XM9"/>
-    <mergeCell ref="XN9:XO9"/>
-    <mergeCell ref="XP9:XQ9"/>
-    <mergeCell ref="XR9:XS9"/>
-    <mergeCell ref="XT9:XU9"/>
-    <mergeCell ref="XV9:XW9"/>
-    <mergeCell ref="XX9:XY9"/>
-    <mergeCell ref="WP9:WQ9"/>
-    <mergeCell ref="WR9:WS9"/>
-    <mergeCell ref="WT9:WU9"/>
-    <mergeCell ref="WV9:WW9"/>
-    <mergeCell ref="WX9:WY9"/>
-    <mergeCell ref="WZ9:XA9"/>
-    <mergeCell ref="XB9:XC9"/>
-    <mergeCell ref="XD9:XE9"/>
-    <mergeCell ref="XF9:XG9"/>
-    <mergeCell ref="VX9:VY9"/>
-    <mergeCell ref="VZ9:WA9"/>
-    <mergeCell ref="WB9:WC9"/>
-    <mergeCell ref="WD9:WE9"/>
-    <mergeCell ref="WF9:WG9"/>
-    <mergeCell ref="WH9:WI9"/>
-    <mergeCell ref="WJ9:WK9"/>
-    <mergeCell ref="WL9:WM9"/>
-    <mergeCell ref="WN9:WO9"/>
-    <mergeCell ref="VF9:VG9"/>
-    <mergeCell ref="VH9:VI9"/>
-    <mergeCell ref="VJ9:VK9"/>
-    <mergeCell ref="VL9:VM9"/>
-    <mergeCell ref="VN9:VO9"/>
-    <mergeCell ref="VP9:VQ9"/>
-    <mergeCell ref="VR9:VS9"/>
-    <mergeCell ref="VT9:VU9"/>
-    <mergeCell ref="VV9:VW9"/>
-    <mergeCell ref="UN9:UO9"/>
-    <mergeCell ref="UP9:UQ9"/>
-    <mergeCell ref="UR9:US9"/>
-    <mergeCell ref="UT9:UU9"/>
-    <mergeCell ref="UV9:UW9"/>
-    <mergeCell ref="UX9:UY9"/>
-    <mergeCell ref="UZ9:VA9"/>
-    <mergeCell ref="VB9:VC9"/>
-    <mergeCell ref="VD9:VE9"/>
-    <mergeCell ref="TV9:TW9"/>
-    <mergeCell ref="TX9:TY9"/>
-    <mergeCell ref="TZ9:UA9"/>
-    <mergeCell ref="UB9:UC9"/>
-    <mergeCell ref="UD9:UE9"/>
-    <mergeCell ref="UF9:UG9"/>
-    <mergeCell ref="UH9:UI9"/>
-    <mergeCell ref="UJ9:UK9"/>
-    <mergeCell ref="UL9:UM9"/>
-    <mergeCell ref="TD9:TE9"/>
-    <mergeCell ref="TF9:TG9"/>
-    <mergeCell ref="TH9:TI9"/>
-    <mergeCell ref="TJ9:TK9"/>
-    <mergeCell ref="TL9:TM9"/>
-    <mergeCell ref="TN9:TO9"/>
-    <mergeCell ref="TP9:TQ9"/>
-    <mergeCell ref="TR9:TS9"/>
-    <mergeCell ref="TT9:TU9"/>
-    <mergeCell ref="SL9:SM9"/>
-    <mergeCell ref="SN9:SO9"/>
-    <mergeCell ref="SP9:SQ9"/>
-    <mergeCell ref="SR9:SS9"/>
-    <mergeCell ref="ST9:SU9"/>
-    <mergeCell ref="SV9:SW9"/>
-    <mergeCell ref="SX9:SY9"/>
-    <mergeCell ref="SZ9:TA9"/>
-    <mergeCell ref="TB9:TC9"/>
-    <mergeCell ref="RT9:RU9"/>
-    <mergeCell ref="RV9:RW9"/>
-    <mergeCell ref="RX9:RY9"/>
-    <mergeCell ref="RZ9:SA9"/>
-    <mergeCell ref="SB9:SC9"/>
-    <mergeCell ref="SD9:SE9"/>
-    <mergeCell ref="SF9:SG9"/>
-    <mergeCell ref="SH9:SI9"/>
-    <mergeCell ref="SJ9:SK9"/>
-    <mergeCell ref="RB9:RC9"/>
-    <mergeCell ref="RD9:RE9"/>
-    <mergeCell ref="RF9:RG9"/>
-    <mergeCell ref="RH9:RI9"/>
-    <mergeCell ref="RJ9:RK9"/>
-    <mergeCell ref="RL9:RM9"/>
-    <mergeCell ref="RN9:RO9"/>
-    <mergeCell ref="RP9:RQ9"/>
-    <mergeCell ref="RR9:RS9"/>
-    <mergeCell ref="QJ9:QK9"/>
-    <mergeCell ref="QL9:QM9"/>
-    <mergeCell ref="QN9:QO9"/>
-    <mergeCell ref="QP9:QQ9"/>
-    <mergeCell ref="QR9:QS9"/>
-    <mergeCell ref="QT9:QU9"/>
-    <mergeCell ref="QV9:QW9"/>
-    <mergeCell ref="QX9:QY9"/>
-    <mergeCell ref="QZ9:RA9"/>
-    <mergeCell ref="PR9:PS9"/>
-    <mergeCell ref="PT9:PU9"/>
-    <mergeCell ref="PV9:PW9"/>
-    <mergeCell ref="PX9:PY9"/>
-    <mergeCell ref="PZ9:QA9"/>
-    <mergeCell ref="QB9:QC9"/>
-    <mergeCell ref="QD9:QE9"/>
-    <mergeCell ref="QF9:QG9"/>
-    <mergeCell ref="QH9:QI9"/>
-    <mergeCell ref="OZ9:PA9"/>
-    <mergeCell ref="PB9:PC9"/>
-    <mergeCell ref="PD9:PE9"/>
-    <mergeCell ref="PF9:PG9"/>
-    <mergeCell ref="PH9:PI9"/>
-    <mergeCell ref="PJ9:PK9"/>
-    <mergeCell ref="PL9:PM9"/>
-    <mergeCell ref="PN9:PO9"/>
-    <mergeCell ref="PP9:PQ9"/>
-    <mergeCell ref="OH9:OI9"/>
-    <mergeCell ref="OJ9:OK9"/>
-    <mergeCell ref="OL9:OM9"/>
-    <mergeCell ref="ON9:OO9"/>
-    <mergeCell ref="OP9:OQ9"/>
-    <mergeCell ref="OR9:OS9"/>
-    <mergeCell ref="OT9:OU9"/>
-    <mergeCell ref="OV9:OW9"/>
-    <mergeCell ref="OX9:OY9"/>
-    <mergeCell ref="NP9:NQ9"/>
-    <mergeCell ref="NR9:NS9"/>
-    <mergeCell ref="NT9:NU9"/>
-    <mergeCell ref="NV9:NW9"/>
-    <mergeCell ref="NX9:NY9"/>
-    <mergeCell ref="NZ9:OA9"/>
-    <mergeCell ref="OB9:OC9"/>
-    <mergeCell ref="OD9:OE9"/>
-    <mergeCell ref="OF9:OG9"/>
-    <mergeCell ref="MX9:MY9"/>
-    <mergeCell ref="MZ9:NA9"/>
-    <mergeCell ref="NB9:NC9"/>
-    <mergeCell ref="ND9:NE9"/>
-    <mergeCell ref="NF9:NG9"/>
-    <mergeCell ref="NH9:NI9"/>
-    <mergeCell ref="NJ9:NK9"/>
-    <mergeCell ref="NL9:NM9"/>
-    <mergeCell ref="NN9:NO9"/>
-    <mergeCell ref="MF9:MG9"/>
-    <mergeCell ref="MH9:MI9"/>
-    <mergeCell ref="MJ9:MK9"/>
-    <mergeCell ref="ML9:MM9"/>
-    <mergeCell ref="MN9:MO9"/>
-    <mergeCell ref="MP9:MQ9"/>
-    <mergeCell ref="MR9:MS9"/>
-    <mergeCell ref="MT9:MU9"/>
-    <mergeCell ref="MV9:MW9"/>
-    <mergeCell ref="LN9:LO9"/>
-    <mergeCell ref="LP9:LQ9"/>
-    <mergeCell ref="LR9:LS9"/>
-    <mergeCell ref="LT9:LU9"/>
-    <mergeCell ref="LV9:LW9"/>
-    <mergeCell ref="LX9:LY9"/>
-    <mergeCell ref="LZ9:MA9"/>
-    <mergeCell ref="MB9:MC9"/>
-    <mergeCell ref="MD9:ME9"/>
-    <mergeCell ref="KV9:KW9"/>
-    <mergeCell ref="KX9:KY9"/>
-    <mergeCell ref="KZ9:LA9"/>
-    <mergeCell ref="LB9:LC9"/>
-    <mergeCell ref="LD9:LE9"/>
-    <mergeCell ref="LF9:LG9"/>
-    <mergeCell ref="LH9:LI9"/>
-    <mergeCell ref="LJ9:LK9"/>
-    <mergeCell ref="LL9:LM9"/>
-    <mergeCell ref="KD9:KE9"/>
-    <mergeCell ref="KF9:KG9"/>
-    <mergeCell ref="KH9:KI9"/>
-    <mergeCell ref="KJ9:KK9"/>
-    <mergeCell ref="KL9:KM9"/>
-    <mergeCell ref="KN9:KO9"/>
-    <mergeCell ref="KP9:KQ9"/>
-    <mergeCell ref="KR9:KS9"/>
-    <mergeCell ref="KT9:KU9"/>
-    <mergeCell ref="JL9:JM9"/>
-    <mergeCell ref="JN9:JO9"/>
-    <mergeCell ref="JP9:JQ9"/>
-    <mergeCell ref="JR9:JS9"/>
-    <mergeCell ref="JT9:JU9"/>
-    <mergeCell ref="JV9:JW9"/>
-    <mergeCell ref="JX9:JY9"/>
-    <mergeCell ref="JZ9:KA9"/>
-    <mergeCell ref="KB9:KC9"/>
-    <mergeCell ref="IT9:IU9"/>
-    <mergeCell ref="IV9:IW9"/>
-    <mergeCell ref="IX9:IY9"/>
-    <mergeCell ref="IZ9:JA9"/>
-    <mergeCell ref="JB9:JC9"/>
-    <mergeCell ref="JD9:JE9"/>
-    <mergeCell ref="JF9:JG9"/>
-    <mergeCell ref="JH9:JI9"/>
-    <mergeCell ref="JJ9:JK9"/>
-    <mergeCell ref="IB9:IC9"/>
-    <mergeCell ref="ID9:IE9"/>
-    <mergeCell ref="IF9:IG9"/>
-    <mergeCell ref="IH9:II9"/>
-    <mergeCell ref="IJ9:IK9"/>
-    <mergeCell ref="IL9:IM9"/>
-    <mergeCell ref="IN9:IO9"/>
-    <mergeCell ref="IP9:IQ9"/>
-    <mergeCell ref="IR9:IS9"/>
-    <mergeCell ref="HJ9:HK9"/>
-    <mergeCell ref="HL9:HM9"/>
-    <mergeCell ref="HN9:HO9"/>
-    <mergeCell ref="HP9:HQ9"/>
-    <mergeCell ref="HR9:HS9"/>
-    <mergeCell ref="HT9:HU9"/>
-    <mergeCell ref="HV9:HW9"/>
-    <mergeCell ref="HX9:HY9"/>
-    <mergeCell ref="HZ9:IA9"/>
-    <mergeCell ref="GR9:GS9"/>
-    <mergeCell ref="GT9:GU9"/>
-    <mergeCell ref="GV9:GW9"/>
-    <mergeCell ref="GX9:GY9"/>
-    <mergeCell ref="GZ9:HA9"/>
-    <mergeCell ref="HB9:HC9"/>
-    <mergeCell ref="HD9:HE9"/>
-    <mergeCell ref="HF9:HG9"/>
-    <mergeCell ref="HH9:HI9"/>
-    <mergeCell ref="FZ9:GA9"/>
-    <mergeCell ref="GB9:GC9"/>
-    <mergeCell ref="GD9:GE9"/>
-    <mergeCell ref="GF9:GG9"/>
-    <mergeCell ref="GH9:GI9"/>
-    <mergeCell ref="GJ9:GK9"/>
-    <mergeCell ref="GL9:GM9"/>
-    <mergeCell ref="GN9:GO9"/>
-    <mergeCell ref="GP9:GQ9"/>
-    <mergeCell ref="FH9:FI9"/>
-    <mergeCell ref="FJ9:FK9"/>
-    <mergeCell ref="FL9:FM9"/>
-    <mergeCell ref="FN9:FO9"/>
-    <mergeCell ref="FP9:FQ9"/>
-    <mergeCell ref="FR9:FS9"/>
-    <mergeCell ref="FT9:FU9"/>
-    <mergeCell ref="FV9:FW9"/>
-    <mergeCell ref="FX9:FY9"/>
-    <mergeCell ref="EP9:EQ9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="EZ9:FA9"/>
-    <mergeCell ref="FB9:FC9"/>
-    <mergeCell ref="FD9:FE9"/>
-    <mergeCell ref="FF9:FG9"/>
-    <mergeCell ref="DX9:DY9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="EH9:EI9"/>
-    <mergeCell ref="EJ9:EK9"/>
-    <mergeCell ref="EL9:EM9"/>
-    <mergeCell ref="EN9:EO9"/>
-    <mergeCell ref="DF9:DG9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DP9:DQ9"/>
-    <mergeCell ref="DR9:DS9"/>
-    <mergeCell ref="DT9:DU9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="CN9:CO9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="CZ9:DA9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="BV9:BW9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BR9:BS9"/>
-    <mergeCell ref="BT9:BU9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33307,7 +33299,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -33982,12 +33974,12 @@
     <col min="671" max="671" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>373</v>
       </c>
@@ -33995,7 +33987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>374</v>
       </c>
@@ -34003,8 +33995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -34012,7 +34003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -34020,7 +34011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -34028,8 +34019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>375</v>
       </c>
@@ -36044,7 +36034,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>377</v>
       </c>
@@ -38059,7 +38049,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -40074,12 +40064,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>379</v>
       </c>
@@ -40087,12 +40077,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>381</v>
       </c>
@@ -40102,6 +40092,330 @@
     </row>
   </sheetData>
   <mergeCells count="335">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BR9:BS9"/>
+    <mergeCell ref="BT9:BU9"/>
+    <mergeCell ref="BV9:BW9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CN9:CO9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DF9:DG9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DP9:DQ9"/>
+    <mergeCell ref="DR9:DS9"/>
+    <mergeCell ref="DT9:DU9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DX9:DY9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="EH9:EI9"/>
+    <mergeCell ref="EJ9:EK9"/>
+    <mergeCell ref="EL9:EM9"/>
+    <mergeCell ref="EN9:EO9"/>
+    <mergeCell ref="EP9:EQ9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="EZ9:FA9"/>
+    <mergeCell ref="FB9:FC9"/>
+    <mergeCell ref="FD9:FE9"/>
+    <mergeCell ref="FF9:FG9"/>
+    <mergeCell ref="FH9:FI9"/>
+    <mergeCell ref="FJ9:FK9"/>
+    <mergeCell ref="FL9:FM9"/>
+    <mergeCell ref="FN9:FO9"/>
+    <mergeCell ref="FP9:FQ9"/>
+    <mergeCell ref="FR9:FS9"/>
+    <mergeCell ref="FT9:FU9"/>
+    <mergeCell ref="FV9:FW9"/>
+    <mergeCell ref="FX9:FY9"/>
+    <mergeCell ref="FZ9:GA9"/>
+    <mergeCell ref="GB9:GC9"/>
+    <mergeCell ref="GD9:GE9"/>
+    <mergeCell ref="GF9:GG9"/>
+    <mergeCell ref="GH9:GI9"/>
+    <mergeCell ref="GJ9:GK9"/>
+    <mergeCell ref="GL9:GM9"/>
+    <mergeCell ref="GN9:GO9"/>
+    <mergeCell ref="GP9:GQ9"/>
+    <mergeCell ref="GR9:GS9"/>
+    <mergeCell ref="GT9:GU9"/>
+    <mergeCell ref="GV9:GW9"/>
+    <mergeCell ref="GX9:GY9"/>
+    <mergeCell ref="GZ9:HA9"/>
+    <mergeCell ref="HB9:HC9"/>
+    <mergeCell ref="HD9:HE9"/>
+    <mergeCell ref="HF9:HG9"/>
+    <mergeCell ref="HH9:HI9"/>
+    <mergeCell ref="HJ9:HK9"/>
+    <mergeCell ref="HL9:HM9"/>
+    <mergeCell ref="HN9:HO9"/>
+    <mergeCell ref="HP9:HQ9"/>
+    <mergeCell ref="HR9:HS9"/>
+    <mergeCell ref="HT9:HU9"/>
+    <mergeCell ref="HV9:HW9"/>
+    <mergeCell ref="HX9:HY9"/>
+    <mergeCell ref="HZ9:IA9"/>
+    <mergeCell ref="IB9:IC9"/>
+    <mergeCell ref="ID9:IE9"/>
+    <mergeCell ref="IF9:IG9"/>
+    <mergeCell ref="IH9:II9"/>
+    <mergeCell ref="IJ9:IK9"/>
+    <mergeCell ref="IL9:IM9"/>
+    <mergeCell ref="IN9:IO9"/>
+    <mergeCell ref="IP9:IQ9"/>
+    <mergeCell ref="IR9:IS9"/>
+    <mergeCell ref="IT9:IU9"/>
+    <mergeCell ref="IV9:IW9"/>
+    <mergeCell ref="IX9:IY9"/>
+    <mergeCell ref="IZ9:JA9"/>
+    <mergeCell ref="JB9:JC9"/>
+    <mergeCell ref="JD9:JE9"/>
+    <mergeCell ref="JF9:JG9"/>
+    <mergeCell ref="JH9:JI9"/>
+    <mergeCell ref="JJ9:JK9"/>
+    <mergeCell ref="JL9:JM9"/>
+    <mergeCell ref="JN9:JO9"/>
+    <mergeCell ref="JP9:JQ9"/>
+    <mergeCell ref="JR9:JS9"/>
+    <mergeCell ref="JT9:JU9"/>
+    <mergeCell ref="JV9:JW9"/>
+    <mergeCell ref="JX9:JY9"/>
+    <mergeCell ref="JZ9:KA9"/>
+    <mergeCell ref="KB9:KC9"/>
+    <mergeCell ref="KD9:KE9"/>
+    <mergeCell ref="KF9:KG9"/>
+    <mergeCell ref="KH9:KI9"/>
+    <mergeCell ref="KJ9:KK9"/>
+    <mergeCell ref="KL9:KM9"/>
+    <mergeCell ref="KN9:KO9"/>
+    <mergeCell ref="KP9:KQ9"/>
+    <mergeCell ref="KR9:KS9"/>
+    <mergeCell ref="KT9:KU9"/>
+    <mergeCell ref="KV9:KW9"/>
+    <mergeCell ref="KX9:KY9"/>
+    <mergeCell ref="KZ9:LA9"/>
+    <mergeCell ref="LB9:LC9"/>
+    <mergeCell ref="LD9:LE9"/>
+    <mergeCell ref="LF9:LG9"/>
+    <mergeCell ref="LH9:LI9"/>
+    <mergeCell ref="LJ9:LK9"/>
+    <mergeCell ref="LL9:LM9"/>
+    <mergeCell ref="LN9:LO9"/>
+    <mergeCell ref="LP9:LQ9"/>
+    <mergeCell ref="LR9:LS9"/>
+    <mergeCell ref="LT9:LU9"/>
+    <mergeCell ref="LV9:LW9"/>
+    <mergeCell ref="LX9:LY9"/>
+    <mergeCell ref="LZ9:MA9"/>
+    <mergeCell ref="MB9:MC9"/>
+    <mergeCell ref="MD9:ME9"/>
+    <mergeCell ref="MF9:MG9"/>
+    <mergeCell ref="MH9:MI9"/>
+    <mergeCell ref="MJ9:MK9"/>
+    <mergeCell ref="ML9:MM9"/>
+    <mergeCell ref="MN9:MO9"/>
+    <mergeCell ref="MP9:MQ9"/>
+    <mergeCell ref="MR9:MS9"/>
+    <mergeCell ref="MT9:MU9"/>
+    <mergeCell ref="MV9:MW9"/>
+    <mergeCell ref="MX9:MY9"/>
+    <mergeCell ref="MZ9:NA9"/>
+    <mergeCell ref="NB9:NC9"/>
+    <mergeCell ref="ND9:NE9"/>
+    <mergeCell ref="NF9:NG9"/>
+    <mergeCell ref="NH9:NI9"/>
+    <mergeCell ref="NJ9:NK9"/>
+    <mergeCell ref="NL9:NM9"/>
+    <mergeCell ref="NN9:NO9"/>
+    <mergeCell ref="NP9:NQ9"/>
+    <mergeCell ref="NR9:NS9"/>
+    <mergeCell ref="NT9:NU9"/>
+    <mergeCell ref="NV9:NW9"/>
+    <mergeCell ref="NX9:NY9"/>
+    <mergeCell ref="NZ9:OA9"/>
+    <mergeCell ref="OB9:OC9"/>
+    <mergeCell ref="OD9:OE9"/>
+    <mergeCell ref="OF9:OG9"/>
+    <mergeCell ref="OH9:OI9"/>
+    <mergeCell ref="OJ9:OK9"/>
+    <mergeCell ref="OL9:OM9"/>
+    <mergeCell ref="ON9:OO9"/>
+    <mergeCell ref="OP9:OQ9"/>
+    <mergeCell ref="OR9:OS9"/>
+    <mergeCell ref="OT9:OU9"/>
+    <mergeCell ref="OV9:OW9"/>
+    <mergeCell ref="OX9:OY9"/>
+    <mergeCell ref="OZ9:PA9"/>
+    <mergeCell ref="PB9:PC9"/>
+    <mergeCell ref="PD9:PE9"/>
+    <mergeCell ref="PF9:PG9"/>
+    <mergeCell ref="PH9:PI9"/>
+    <mergeCell ref="PJ9:PK9"/>
+    <mergeCell ref="PL9:PM9"/>
+    <mergeCell ref="PN9:PO9"/>
+    <mergeCell ref="PP9:PQ9"/>
+    <mergeCell ref="PR9:PS9"/>
+    <mergeCell ref="PT9:PU9"/>
+    <mergeCell ref="PV9:PW9"/>
+    <mergeCell ref="PX9:PY9"/>
+    <mergeCell ref="PZ9:QA9"/>
+    <mergeCell ref="QB9:QC9"/>
+    <mergeCell ref="QD9:QE9"/>
+    <mergeCell ref="QF9:QG9"/>
+    <mergeCell ref="QH9:QI9"/>
+    <mergeCell ref="QJ9:QK9"/>
+    <mergeCell ref="QL9:QM9"/>
+    <mergeCell ref="QN9:QO9"/>
+    <mergeCell ref="QP9:QQ9"/>
+    <mergeCell ref="QR9:QS9"/>
+    <mergeCell ref="QT9:QU9"/>
+    <mergeCell ref="QV9:QW9"/>
+    <mergeCell ref="QX9:QY9"/>
+    <mergeCell ref="QZ9:RA9"/>
+    <mergeCell ref="RB9:RC9"/>
+    <mergeCell ref="RD9:RE9"/>
+    <mergeCell ref="RF9:RG9"/>
+    <mergeCell ref="RH9:RI9"/>
+    <mergeCell ref="RJ9:RK9"/>
+    <mergeCell ref="RL9:RM9"/>
+    <mergeCell ref="RN9:RO9"/>
+    <mergeCell ref="RP9:RQ9"/>
+    <mergeCell ref="RR9:RS9"/>
+    <mergeCell ref="RT9:RU9"/>
+    <mergeCell ref="RV9:RW9"/>
+    <mergeCell ref="RX9:RY9"/>
+    <mergeCell ref="RZ9:SA9"/>
+    <mergeCell ref="SB9:SC9"/>
+    <mergeCell ref="SD9:SE9"/>
+    <mergeCell ref="SF9:SG9"/>
+    <mergeCell ref="SH9:SI9"/>
+    <mergeCell ref="SJ9:SK9"/>
+    <mergeCell ref="SL9:SM9"/>
+    <mergeCell ref="SN9:SO9"/>
+    <mergeCell ref="SP9:SQ9"/>
+    <mergeCell ref="SR9:SS9"/>
+    <mergeCell ref="ST9:SU9"/>
+    <mergeCell ref="SV9:SW9"/>
+    <mergeCell ref="SX9:SY9"/>
+    <mergeCell ref="SZ9:TA9"/>
+    <mergeCell ref="TB9:TC9"/>
+    <mergeCell ref="TD9:TE9"/>
+    <mergeCell ref="TF9:TG9"/>
+    <mergeCell ref="TH9:TI9"/>
+    <mergeCell ref="TJ9:TK9"/>
+    <mergeCell ref="TL9:TM9"/>
+    <mergeCell ref="TN9:TO9"/>
+    <mergeCell ref="TP9:TQ9"/>
+    <mergeCell ref="TR9:TS9"/>
+    <mergeCell ref="TT9:TU9"/>
+    <mergeCell ref="TV9:TW9"/>
+    <mergeCell ref="TX9:TY9"/>
+    <mergeCell ref="TZ9:UA9"/>
+    <mergeCell ref="UB9:UC9"/>
+    <mergeCell ref="UD9:UE9"/>
+    <mergeCell ref="UF9:UG9"/>
+    <mergeCell ref="UH9:UI9"/>
+    <mergeCell ref="UJ9:UK9"/>
+    <mergeCell ref="UL9:UM9"/>
+    <mergeCell ref="UN9:UO9"/>
+    <mergeCell ref="UP9:UQ9"/>
+    <mergeCell ref="UR9:US9"/>
+    <mergeCell ref="UT9:UU9"/>
+    <mergeCell ref="UV9:UW9"/>
+    <mergeCell ref="UX9:UY9"/>
+    <mergeCell ref="UZ9:VA9"/>
+    <mergeCell ref="VB9:VC9"/>
+    <mergeCell ref="VD9:VE9"/>
+    <mergeCell ref="VF9:VG9"/>
+    <mergeCell ref="VH9:VI9"/>
+    <mergeCell ref="VJ9:VK9"/>
+    <mergeCell ref="VL9:VM9"/>
+    <mergeCell ref="VN9:VO9"/>
+    <mergeCell ref="VP9:VQ9"/>
+    <mergeCell ref="VR9:VS9"/>
+    <mergeCell ref="VT9:VU9"/>
+    <mergeCell ref="VV9:VW9"/>
+    <mergeCell ref="VX9:VY9"/>
+    <mergeCell ref="VZ9:WA9"/>
+    <mergeCell ref="WB9:WC9"/>
+    <mergeCell ref="WD9:WE9"/>
+    <mergeCell ref="WF9:WG9"/>
+    <mergeCell ref="WH9:WI9"/>
+    <mergeCell ref="WJ9:WK9"/>
+    <mergeCell ref="WL9:WM9"/>
+    <mergeCell ref="WN9:WO9"/>
+    <mergeCell ref="WP9:WQ9"/>
+    <mergeCell ref="WR9:WS9"/>
+    <mergeCell ref="WT9:WU9"/>
+    <mergeCell ref="WV9:WW9"/>
+    <mergeCell ref="WX9:WY9"/>
+    <mergeCell ref="WZ9:XA9"/>
+    <mergeCell ref="XB9:XC9"/>
+    <mergeCell ref="XD9:XE9"/>
+    <mergeCell ref="XF9:XG9"/>
+    <mergeCell ref="XH9:XI9"/>
+    <mergeCell ref="XJ9:XK9"/>
+    <mergeCell ref="XL9:XM9"/>
+    <mergeCell ref="XN9:XO9"/>
+    <mergeCell ref="XP9:XQ9"/>
+    <mergeCell ref="XR9:XS9"/>
+    <mergeCell ref="XT9:XU9"/>
+    <mergeCell ref="XV9:XW9"/>
+    <mergeCell ref="XX9:XY9"/>
     <mergeCell ref="YR9:YS9"/>
     <mergeCell ref="YT9:YU9"/>
     <mergeCell ref="XZ9:YA9"/>
@@ -40113,330 +40427,6 @@
     <mergeCell ref="YL9:YM9"/>
     <mergeCell ref="YN9:YO9"/>
     <mergeCell ref="YP9:YQ9"/>
-    <mergeCell ref="XH9:XI9"/>
-    <mergeCell ref="XJ9:XK9"/>
-    <mergeCell ref="XL9:XM9"/>
-    <mergeCell ref="XN9:XO9"/>
-    <mergeCell ref="XP9:XQ9"/>
-    <mergeCell ref="XR9:XS9"/>
-    <mergeCell ref="XT9:XU9"/>
-    <mergeCell ref="XV9:XW9"/>
-    <mergeCell ref="XX9:XY9"/>
-    <mergeCell ref="WP9:WQ9"/>
-    <mergeCell ref="WR9:WS9"/>
-    <mergeCell ref="WT9:WU9"/>
-    <mergeCell ref="WV9:WW9"/>
-    <mergeCell ref="WX9:WY9"/>
-    <mergeCell ref="WZ9:XA9"/>
-    <mergeCell ref="XB9:XC9"/>
-    <mergeCell ref="XD9:XE9"/>
-    <mergeCell ref="XF9:XG9"/>
-    <mergeCell ref="VX9:VY9"/>
-    <mergeCell ref="VZ9:WA9"/>
-    <mergeCell ref="WB9:WC9"/>
-    <mergeCell ref="WD9:WE9"/>
-    <mergeCell ref="WF9:WG9"/>
-    <mergeCell ref="WH9:WI9"/>
-    <mergeCell ref="WJ9:WK9"/>
-    <mergeCell ref="WL9:WM9"/>
-    <mergeCell ref="WN9:WO9"/>
-    <mergeCell ref="VF9:VG9"/>
-    <mergeCell ref="VH9:VI9"/>
-    <mergeCell ref="VJ9:VK9"/>
-    <mergeCell ref="VL9:VM9"/>
-    <mergeCell ref="VN9:VO9"/>
-    <mergeCell ref="VP9:VQ9"/>
-    <mergeCell ref="VR9:VS9"/>
-    <mergeCell ref="VT9:VU9"/>
-    <mergeCell ref="VV9:VW9"/>
-    <mergeCell ref="UN9:UO9"/>
-    <mergeCell ref="UP9:UQ9"/>
-    <mergeCell ref="UR9:US9"/>
-    <mergeCell ref="UT9:UU9"/>
-    <mergeCell ref="UV9:UW9"/>
-    <mergeCell ref="UX9:UY9"/>
-    <mergeCell ref="UZ9:VA9"/>
-    <mergeCell ref="VB9:VC9"/>
-    <mergeCell ref="VD9:VE9"/>
-    <mergeCell ref="TV9:TW9"/>
-    <mergeCell ref="TX9:TY9"/>
-    <mergeCell ref="TZ9:UA9"/>
-    <mergeCell ref="UB9:UC9"/>
-    <mergeCell ref="UD9:UE9"/>
-    <mergeCell ref="UF9:UG9"/>
-    <mergeCell ref="UH9:UI9"/>
-    <mergeCell ref="UJ9:UK9"/>
-    <mergeCell ref="UL9:UM9"/>
-    <mergeCell ref="TD9:TE9"/>
-    <mergeCell ref="TF9:TG9"/>
-    <mergeCell ref="TH9:TI9"/>
-    <mergeCell ref="TJ9:TK9"/>
-    <mergeCell ref="TL9:TM9"/>
-    <mergeCell ref="TN9:TO9"/>
-    <mergeCell ref="TP9:TQ9"/>
-    <mergeCell ref="TR9:TS9"/>
-    <mergeCell ref="TT9:TU9"/>
-    <mergeCell ref="SL9:SM9"/>
-    <mergeCell ref="SN9:SO9"/>
-    <mergeCell ref="SP9:SQ9"/>
-    <mergeCell ref="SR9:SS9"/>
-    <mergeCell ref="ST9:SU9"/>
-    <mergeCell ref="SV9:SW9"/>
-    <mergeCell ref="SX9:SY9"/>
-    <mergeCell ref="SZ9:TA9"/>
-    <mergeCell ref="TB9:TC9"/>
-    <mergeCell ref="RT9:RU9"/>
-    <mergeCell ref="RV9:RW9"/>
-    <mergeCell ref="RX9:RY9"/>
-    <mergeCell ref="RZ9:SA9"/>
-    <mergeCell ref="SB9:SC9"/>
-    <mergeCell ref="SD9:SE9"/>
-    <mergeCell ref="SF9:SG9"/>
-    <mergeCell ref="SH9:SI9"/>
-    <mergeCell ref="SJ9:SK9"/>
-    <mergeCell ref="RB9:RC9"/>
-    <mergeCell ref="RD9:RE9"/>
-    <mergeCell ref="RF9:RG9"/>
-    <mergeCell ref="RH9:RI9"/>
-    <mergeCell ref="RJ9:RK9"/>
-    <mergeCell ref="RL9:RM9"/>
-    <mergeCell ref="RN9:RO9"/>
-    <mergeCell ref="RP9:RQ9"/>
-    <mergeCell ref="RR9:RS9"/>
-    <mergeCell ref="QJ9:QK9"/>
-    <mergeCell ref="QL9:QM9"/>
-    <mergeCell ref="QN9:QO9"/>
-    <mergeCell ref="QP9:QQ9"/>
-    <mergeCell ref="QR9:QS9"/>
-    <mergeCell ref="QT9:QU9"/>
-    <mergeCell ref="QV9:QW9"/>
-    <mergeCell ref="QX9:QY9"/>
-    <mergeCell ref="QZ9:RA9"/>
-    <mergeCell ref="PR9:PS9"/>
-    <mergeCell ref="PT9:PU9"/>
-    <mergeCell ref="PV9:PW9"/>
-    <mergeCell ref="PX9:PY9"/>
-    <mergeCell ref="PZ9:QA9"/>
-    <mergeCell ref="QB9:QC9"/>
-    <mergeCell ref="QD9:QE9"/>
-    <mergeCell ref="QF9:QG9"/>
-    <mergeCell ref="QH9:QI9"/>
-    <mergeCell ref="OZ9:PA9"/>
-    <mergeCell ref="PB9:PC9"/>
-    <mergeCell ref="PD9:PE9"/>
-    <mergeCell ref="PF9:PG9"/>
-    <mergeCell ref="PH9:PI9"/>
-    <mergeCell ref="PJ9:PK9"/>
-    <mergeCell ref="PL9:PM9"/>
-    <mergeCell ref="PN9:PO9"/>
-    <mergeCell ref="PP9:PQ9"/>
-    <mergeCell ref="OH9:OI9"/>
-    <mergeCell ref="OJ9:OK9"/>
-    <mergeCell ref="OL9:OM9"/>
-    <mergeCell ref="ON9:OO9"/>
-    <mergeCell ref="OP9:OQ9"/>
-    <mergeCell ref="OR9:OS9"/>
-    <mergeCell ref="OT9:OU9"/>
-    <mergeCell ref="OV9:OW9"/>
-    <mergeCell ref="OX9:OY9"/>
-    <mergeCell ref="NP9:NQ9"/>
-    <mergeCell ref="NR9:NS9"/>
-    <mergeCell ref="NT9:NU9"/>
-    <mergeCell ref="NV9:NW9"/>
-    <mergeCell ref="NX9:NY9"/>
-    <mergeCell ref="NZ9:OA9"/>
-    <mergeCell ref="OB9:OC9"/>
-    <mergeCell ref="OD9:OE9"/>
-    <mergeCell ref="OF9:OG9"/>
-    <mergeCell ref="MX9:MY9"/>
-    <mergeCell ref="MZ9:NA9"/>
-    <mergeCell ref="NB9:NC9"/>
-    <mergeCell ref="ND9:NE9"/>
-    <mergeCell ref="NF9:NG9"/>
-    <mergeCell ref="NH9:NI9"/>
-    <mergeCell ref="NJ9:NK9"/>
-    <mergeCell ref="NL9:NM9"/>
-    <mergeCell ref="NN9:NO9"/>
-    <mergeCell ref="MF9:MG9"/>
-    <mergeCell ref="MH9:MI9"/>
-    <mergeCell ref="MJ9:MK9"/>
-    <mergeCell ref="ML9:MM9"/>
-    <mergeCell ref="MN9:MO9"/>
-    <mergeCell ref="MP9:MQ9"/>
-    <mergeCell ref="MR9:MS9"/>
-    <mergeCell ref="MT9:MU9"/>
-    <mergeCell ref="MV9:MW9"/>
-    <mergeCell ref="LN9:LO9"/>
-    <mergeCell ref="LP9:LQ9"/>
-    <mergeCell ref="LR9:LS9"/>
-    <mergeCell ref="LT9:LU9"/>
-    <mergeCell ref="LV9:LW9"/>
-    <mergeCell ref="LX9:LY9"/>
-    <mergeCell ref="LZ9:MA9"/>
-    <mergeCell ref="MB9:MC9"/>
-    <mergeCell ref="MD9:ME9"/>
-    <mergeCell ref="KV9:KW9"/>
-    <mergeCell ref="KX9:KY9"/>
-    <mergeCell ref="KZ9:LA9"/>
-    <mergeCell ref="LB9:LC9"/>
-    <mergeCell ref="LD9:LE9"/>
-    <mergeCell ref="LF9:LG9"/>
-    <mergeCell ref="LH9:LI9"/>
-    <mergeCell ref="LJ9:LK9"/>
-    <mergeCell ref="LL9:LM9"/>
-    <mergeCell ref="KD9:KE9"/>
-    <mergeCell ref="KF9:KG9"/>
-    <mergeCell ref="KH9:KI9"/>
-    <mergeCell ref="KJ9:KK9"/>
-    <mergeCell ref="KL9:KM9"/>
-    <mergeCell ref="KN9:KO9"/>
-    <mergeCell ref="KP9:KQ9"/>
-    <mergeCell ref="KR9:KS9"/>
-    <mergeCell ref="KT9:KU9"/>
-    <mergeCell ref="JL9:JM9"/>
-    <mergeCell ref="JN9:JO9"/>
-    <mergeCell ref="JP9:JQ9"/>
-    <mergeCell ref="JR9:JS9"/>
-    <mergeCell ref="JT9:JU9"/>
-    <mergeCell ref="JV9:JW9"/>
-    <mergeCell ref="JX9:JY9"/>
-    <mergeCell ref="JZ9:KA9"/>
-    <mergeCell ref="KB9:KC9"/>
-    <mergeCell ref="IT9:IU9"/>
-    <mergeCell ref="IV9:IW9"/>
-    <mergeCell ref="IX9:IY9"/>
-    <mergeCell ref="IZ9:JA9"/>
-    <mergeCell ref="JB9:JC9"/>
-    <mergeCell ref="JD9:JE9"/>
-    <mergeCell ref="JF9:JG9"/>
-    <mergeCell ref="JH9:JI9"/>
-    <mergeCell ref="JJ9:JK9"/>
-    <mergeCell ref="IB9:IC9"/>
-    <mergeCell ref="ID9:IE9"/>
-    <mergeCell ref="IF9:IG9"/>
-    <mergeCell ref="IH9:II9"/>
-    <mergeCell ref="IJ9:IK9"/>
-    <mergeCell ref="IL9:IM9"/>
-    <mergeCell ref="IN9:IO9"/>
-    <mergeCell ref="IP9:IQ9"/>
-    <mergeCell ref="IR9:IS9"/>
-    <mergeCell ref="HJ9:HK9"/>
-    <mergeCell ref="HL9:HM9"/>
-    <mergeCell ref="HN9:HO9"/>
-    <mergeCell ref="HP9:HQ9"/>
-    <mergeCell ref="HR9:HS9"/>
-    <mergeCell ref="HT9:HU9"/>
-    <mergeCell ref="HV9:HW9"/>
-    <mergeCell ref="HX9:HY9"/>
-    <mergeCell ref="HZ9:IA9"/>
-    <mergeCell ref="GR9:GS9"/>
-    <mergeCell ref="GT9:GU9"/>
-    <mergeCell ref="GV9:GW9"/>
-    <mergeCell ref="GX9:GY9"/>
-    <mergeCell ref="GZ9:HA9"/>
-    <mergeCell ref="HB9:HC9"/>
-    <mergeCell ref="HD9:HE9"/>
-    <mergeCell ref="HF9:HG9"/>
-    <mergeCell ref="HH9:HI9"/>
-    <mergeCell ref="FZ9:GA9"/>
-    <mergeCell ref="GB9:GC9"/>
-    <mergeCell ref="GD9:GE9"/>
-    <mergeCell ref="GF9:GG9"/>
-    <mergeCell ref="GH9:GI9"/>
-    <mergeCell ref="GJ9:GK9"/>
-    <mergeCell ref="GL9:GM9"/>
-    <mergeCell ref="GN9:GO9"/>
-    <mergeCell ref="GP9:GQ9"/>
-    <mergeCell ref="FH9:FI9"/>
-    <mergeCell ref="FJ9:FK9"/>
-    <mergeCell ref="FL9:FM9"/>
-    <mergeCell ref="FN9:FO9"/>
-    <mergeCell ref="FP9:FQ9"/>
-    <mergeCell ref="FR9:FS9"/>
-    <mergeCell ref="FT9:FU9"/>
-    <mergeCell ref="FV9:FW9"/>
-    <mergeCell ref="FX9:FY9"/>
-    <mergeCell ref="EP9:EQ9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="EZ9:FA9"/>
-    <mergeCell ref="FB9:FC9"/>
-    <mergeCell ref="FD9:FE9"/>
-    <mergeCell ref="FF9:FG9"/>
-    <mergeCell ref="DX9:DY9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="EH9:EI9"/>
-    <mergeCell ref="EJ9:EK9"/>
-    <mergeCell ref="EL9:EM9"/>
-    <mergeCell ref="EN9:EO9"/>
-    <mergeCell ref="DF9:DG9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DP9:DQ9"/>
-    <mergeCell ref="DR9:DS9"/>
-    <mergeCell ref="DT9:DU9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="CN9:CO9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="CZ9:DA9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="BV9:BW9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BR9:BS9"/>
-    <mergeCell ref="BT9:BU9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40447,13 +40437,13 @@
   <dimension ref="A1:YU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="CJ11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="CR11" sqref="CR11:YT11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -41128,12 +41118,12 @@
     <col min="671" max="671" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>373</v>
       </c>
@@ -41141,7 +41131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>374</v>
       </c>
@@ -41149,8 +41139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -41158,7 +41147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -41166,7 +41155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -41174,8 +41163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>375</v>
       </c>
@@ -43190,7 +43178,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>377</v>
       </c>
@@ -45205,7 +45193,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -47220,12 +47208,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>379</v>
       </c>
@@ -47233,12 +47221,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>381</v>
       </c>
@@ -47248,6 +47236,330 @@
     </row>
   </sheetData>
   <mergeCells count="335">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BR9:BS9"/>
+    <mergeCell ref="BT9:BU9"/>
+    <mergeCell ref="BV9:BW9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CN9:CO9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DF9:DG9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DP9:DQ9"/>
+    <mergeCell ref="DR9:DS9"/>
+    <mergeCell ref="DT9:DU9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DX9:DY9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="EH9:EI9"/>
+    <mergeCell ref="EJ9:EK9"/>
+    <mergeCell ref="EL9:EM9"/>
+    <mergeCell ref="EN9:EO9"/>
+    <mergeCell ref="EP9:EQ9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="EZ9:FA9"/>
+    <mergeCell ref="FB9:FC9"/>
+    <mergeCell ref="FD9:FE9"/>
+    <mergeCell ref="FF9:FG9"/>
+    <mergeCell ref="FH9:FI9"/>
+    <mergeCell ref="FJ9:FK9"/>
+    <mergeCell ref="FL9:FM9"/>
+    <mergeCell ref="FN9:FO9"/>
+    <mergeCell ref="FP9:FQ9"/>
+    <mergeCell ref="FR9:FS9"/>
+    <mergeCell ref="FT9:FU9"/>
+    <mergeCell ref="FV9:FW9"/>
+    <mergeCell ref="FX9:FY9"/>
+    <mergeCell ref="FZ9:GA9"/>
+    <mergeCell ref="GB9:GC9"/>
+    <mergeCell ref="GD9:GE9"/>
+    <mergeCell ref="GF9:GG9"/>
+    <mergeCell ref="GH9:GI9"/>
+    <mergeCell ref="GJ9:GK9"/>
+    <mergeCell ref="GL9:GM9"/>
+    <mergeCell ref="GN9:GO9"/>
+    <mergeCell ref="GP9:GQ9"/>
+    <mergeCell ref="GR9:GS9"/>
+    <mergeCell ref="GT9:GU9"/>
+    <mergeCell ref="GV9:GW9"/>
+    <mergeCell ref="GX9:GY9"/>
+    <mergeCell ref="GZ9:HA9"/>
+    <mergeCell ref="HB9:HC9"/>
+    <mergeCell ref="HD9:HE9"/>
+    <mergeCell ref="HF9:HG9"/>
+    <mergeCell ref="HH9:HI9"/>
+    <mergeCell ref="HJ9:HK9"/>
+    <mergeCell ref="HL9:HM9"/>
+    <mergeCell ref="HN9:HO9"/>
+    <mergeCell ref="HP9:HQ9"/>
+    <mergeCell ref="HR9:HS9"/>
+    <mergeCell ref="HT9:HU9"/>
+    <mergeCell ref="HV9:HW9"/>
+    <mergeCell ref="HX9:HY9"/>
+    <mergeCell ref="HZ9:IA9"/>
+    <mergeCell ref="IB9:IC9"/>
+    <mergeCell ref="ID9:IE9"/>
+    <mergeCell ref="IF9:IG9"/>
+    <mergeCell ref="IH9:II9"/>
+    <mergeCell ref="IJ9:IK9"/>
+    <mergeCell ref="IL9:IM9"/>
+    <mergeCell ref="IN9:IO9"/>
+    <mergeCell ref="IP9:IQ9"/>
+    <mergeCell ref="IR9:IS9"/>
+    <mergeCell ref="IT9:IU9"/>
+    <mergeCell ref="IV9:IW9"/>
+    <mergeCell ref="IX9:IY9"/>
+    <mergeCell ref="IZ9:JA9"/>
+    <mergeCell ref="JB9:JC9"/>
+    <mergeCell ref="JD9:JE9"/>
+    <mergeCell ref="JF9:JG9"/>
+    <mergeCell ref="JH9:JI9"/>
+    <mergeCell ref="JJ9:JK9"/>
+    <mergeCell ref="JL9:JM9"/>
+    <mergeCell ref="JN9:JO9"/>
+    <mergeCell ref="JP9:JQ9"/>
+    <mergeCell ref="JR9:JS9"/>
+    <mergeCell ref="JT9:JU9"/>
+    <mergeCell ref="JV9:JW9"/>
+    <mergeCell ref="JX9:JY9"/>
+    <mergeCell ref="JZ9:KA9"/>
+    <mergeCell ref="KB9:KC9"/>
+    <mergeCell ref="KD9:KE9"/>
+    <mergeCell ref="KF9:KG9"/>
+    <mergeCell ref="KH9:KI9"/>
+    <mergeCell ref="KJ9:KK9"/>
+    <mergeCell ref="KL9:KM9"/>
+    <mergeCell ref="KN9:KO9"/>
+    <mergeCell ref="KP9:KQ9"/>
+    <mergeCell ref="KR9:KS9"/>
+    <mergeCell ref="KT9:KU9"/>
+    <mergeCell ref="KV9:KW9"/>
+    <mergeCell ref="KX9:KY9"/>
+    <mergeCell ref="KZ9:LA9"/>
+    <mergeCell ref="LB9:LC9"/>
+    <mergeCell ref="LD9:LE9"/>
+    <mergeCell ref="LF9:LG9"/>
+    <mergeCell ref="LH9:LI9"/>
+    <mergeCell ref="LJ9:LK9"/>
+    <mergeCell ref="LL9:LM9"/>
+    <mergeCell ref="LN9:LO9"/>
+    <mergeCell ref="LP9:LQ9"/>
+    <mergeCell ref="LR9:LS9"/>
+    <mergeCell ref="LT9:LU9"/>
+    <mergeCell ref="LV9:LW9"/>
+    <mergeCell ref="LX9:LY9"/>
+    <mergeCell ref="LZ9:MA9"/>
+    <mergeCell ref="MB9:MC9"/>
+    <mergeCell ref="MD9:ME9"/>
+    <mergeCell ref="MF9:MG9"/>
+    <mergeCell ref="MH9:MI9"/>
+    <mergeCell ref="MJ9:MK9"/>
+    <mergeCell ref="ML9:MM9"/>
+    <mergeCell ref="MN9:MO9"/>
+    <mergeCell ref="MP9:MQ9"/>
+    <mergeCell ref="MR9:MS9"/>
+    <mergeCell ref="MT9:MU9"/>
+    <mergeCell ref="MV9:MW9"/>
+    <mergeCell ref="MX9:MY9"/>
+    <mergeCell ref="MZ9:NA9"/>
+    <mergeCell ref="NB9:NC9"/>
+    <mergeCell ref="ND9:NE9"/>
+    <mergeCell ref="NF9:NG9"/>
+    <mergeCell ref="NH9:NI9"/>
+    <mergeCell ref="NJ9:NK9"/>
+    <mergeCell ref="NL9:NM9"/>
+    <mergeCell ref="NN9:NO9"/>
+    <mergeCell ref="NP9:NQ9"/>
+    <mergeCell ref="NR9:NS9"/>
+    <mergeCell ref="NT9:NU9"/>
+    <mergeCell ref="NV9:NW9"/>
+    <mergeCell ref="NX9:NY9"/>
+    <mergeCell ref="NZ9:OA9"/>
+    <mergeCell ref="OB9:OC9"/>
+    <mergeCell ref="OD9:OE9"/>
+    <mergeCell ref="OF9:OG9"/>
+    <mergeCell ref="OH9:OI9"/>
+    <mergeCell ref="OJ9:OK9"/>
+    <mergeCell ref="OL9:OM9"/>
+    <mergeCell ref="ON9:OO9"/>
+    <mergeCell ref="OP9:OQ9"/>
+    <mergeCell ref="OR9:OS9"/>
+    <mergeCell ref="OT9:OU9"/>
+    <mergeCell ref="OV9:OW9"/>
+    <mergeCell ref="OX9:OY9"/>
+    <mergeCell ref="OZ9:PA9"/>
+    <mergeCell ref="PB9:PC9"/>
+    <mergeCell ref="PD9:PE9"/>
+    <mergeCell ref="PF9:PG9"/>
+    <mergeCell ref="PH9:PI9"/>
+    <mergeCell ref="PJ9:PK9"/>
+    <mergeCell ref="PL9:PM9"/>
+    <mergeCell ref="PN9:PO9"/>
+    <mergeCell ref="PP9:PQ9"/>
+    <mergeCell ref="PR9:PS9"/>
+    <mergeCell ref="PT9:PU9"/>
+    <mergeCell ref="PV9:PW9"/>
+    <mergeCell ref="PX9:PY9"/>
+    <mergeCell ref="PZ9:QA9"/>
+    <mergeCell ref="QB9:QC9"/>
+    <mergeCell ref="QD9:QE9"/>
+    <mergeCell ref="QF9:QG9"/>
+    <mergeCell ref="QH9:QI9"/>
+    <mergeCell ref="QJ9:QK9"/>
+    <mergeCell ref="QL9:QM9"/>
+    <mergeCell ref="QN9:QO9"/>
+    <mergeCell ref="QP9:QQ9"/>
+    <mergeCell ref="QR9:QS9"/>
+    <mergeCell ref="QT9:QU9"/>
+    <mergeCell ref="QV9:QW9"/>
+    <mergeCell ref="QX9:QY9"/>
+    <mergeCell ref="QZ9:RA9"/>
+    <mergeCell ref="RB9:RC9"/>
+    <mergeCell ref="RD9:RE9"/>
+    <mergeCell ref="RF9:RG9"/>
+    <mergeCell ref="RH9:RI9"/>
+    <mergeCell ref="RJ9:RK9"/>
+    <mergeCell ref="RL9:RM9"/>
+    <mergeCell ref="RN9:RO9"/>
+    <mergeCell ref="RP9:RQ9"/>
+    <mergeCell ref="RR9:RS9"/>
+    <mergeCell ref="RT9:RU9"/>
+    <mergeCell ref="RV9:RW9"/>
+    <mergeCell ref="RX9:RY9"/>
+    <mergeCell ref="RZ9:SA9"/>
+    <mergeCell ref="SB9:SC9"/>
+    <mergeCell ref="SD9:SE9"/>
+    <mergeCell ref="SF9:SG9"/>
+    <mergeCell ref="SH9:SI9"/>
+    <mergeCell ref="SJ9:SK9"/>
+    <mergeCell ref="SL9:SM9"/>
+    <mergeCell ref="SN9:SO9"/>
+    <mergeCell ref="SP9:SQ9"/>
+    <mergeCell ref="SR9:SS9"/>
+    <mergeCell ref="ST9:SU9"/>
+    <mergeCell ref="SV9:SW9"/>
+    <mergeCell ref="SX9:SY9"/>
+    <mergeCell ref="SZ9:TA9"/>
+    <mergeCell ref="TB9:TC9"/>
+    <mergeCell ref="TD9:TE9"/>
+    <mergeCell ref="TF9:TG9"/>
+    <mergeCell ref="TH9:TI9"/>
+    <mergeCell ref="TJ9:TK9"/>
+    <mergeCell ref="TL9:TM9"/>
+    <mergeCell ref="TN9:TO9"/>
+    <mergeCell ref="TP9:TQ9"/>
+    <mergeCell ref="TR9:TS9"/>
+    <mergeCell ref="TT9:TU9"/>
+    <mergeCell ref="TV9:TW9"/>
+    <mergeCell ref="TX9:TY9"/>
+    <mergeCell ref="TZ9:UA9"/>
+    <mergeCell ref="UB9:UC9"/>
+    <mergeCell ref="UD9:UE9"/>
+    <mergeCell ref="UF9:UG9"/>
+    <mergeCell ref="UH9:UI9"/>
+    <mergeCell ref="UJ9:UK9"/>
+    <mergeCell ref="UL9:UM9"/>
+    <mergeCell ref="UN9:UO9"/>
+    <mergeCell ref="UP9:UQ9"/>
+    <mergeCell ref="UR9:US9"/>
+    <mergeCell ref="UT9:UU9"/>
+    <mergeCell ref="UV9:UW9"/>
+    <mergeCell ref="UX9:UY9"/>
+    <mergeCell ref="UZ9:VA9"/>
+    <mergeCell ref="VB9:VC9"/>
+    <mergeCell ref="VD9:VE9"/>
+    <mergeCell ref="VF9:VG9"/>
+    <mergeCell ref="VH9:VI9"/>
+    <mergeCell ref="VJ9:VK9"/>
+    <mergeCell ref="VL9:VM9"/>
+    <mergeCell ref="VN9:VO9"/>
+    <mergeCell ref="VP9:VQ9"/>
+    <mergeCell ref="VR9:VS9"/>
+    <mergeCell ref="VT9:VU9"/>
+    <mergeCell ref="VV9:VW9"/>
+    <mergeCell ref="VX9:VY9"/>
+    <mergeCell ref="VZ9:WA9"/>
+    <mergeCell ref="WB9:WC9"/>
+    <mergeCell ref="WD9:WE9"/>
+    <mergeCell ref="WF9:WG9"/>
+    <mergeCell ref="WH9:WI9"/>
+    <mergeCell ref="WJ9:WK9"/>
+    <mergeCell ref="WL9:WM9"/>
+    <mergeCell ref="WN9:WO9"/>
+    <mergeCell ref="WP9:WQ9"/>
+    <mergeCell ref="WR9:WS9"/>
+    <mergeCell ref="WT9:WU9"/>
+    <mergeCell ref="WV9:WW9"/>
+    <mergeCell ref="WX9:WY9"/>
+    <mergeCell ref="WZ9:XA9"/>
+    <mergeCell ref="XB9:XC9"/>
+    <mergeCell ref="XD9:XE9"/>
+    <mergeCell ref="XF9:XG9"/>
+    <mergeCell ref="XH9:XI9"/>
+    <mergeCell ref="XJ9:XK9"/>
+    <mergeCell ref="XL9:XM9"/>
+    <mergeCell ref="XN9:XO9"/>
+    <mergeCell ref="XP9:XQ9"/>
+    <mergeCell ref="XR9:XS9"/>
+    <mergeCell ref="XT9:XU9"/>
+    <mergeCell ref="XV9:XW9"/>
+    <mergeCell ref="XX9:XY9"/>
     <mergeCell ref="YR9:YS9"/>
     <mergeCell ref="YT9:YU9"/>
     <mergeCell ref="XZ9:YA9"/>
@@ -47259,330 +47571,6 @@
     <mergeCell ref="YL9:YM9"/>
     <mergeCell ref="YN9:YO9"/>
     <mergeCell ref="YP9:YQ9"/>
-    <mergeCell ref="XH9:XI9"/>
-    <mergeCell ref="XJ9:XK9"/>
-    <mergeCell ref="XL9:XM9"/>
-    <mergeCell ref="XN9:XO9"/>
-    <mergeCell ref="XP9:XQ9"/>
-    <mergeCell ref="XR9:XS9"/>
-    <mergeCell ref="XT9:XU9"/>
-    <mergeCell ref="XV9:XW9"/>
-    <mergeCell ref="XX9:XY9"/>
-    <mergeCell ref="WP9:WQ9"/>
-    <mergeCell ref="WR9:WS9"/>
-    <mergeCell ref="WT9:WU9"/>
-    <mergeCell ref="WV9:WW9"/>
-    <mergeCell ref="WX9:WY9"/>
-    <mergeCell ref="WZ9:XA9"/>
-    <mergeCell ref="XB9:XC9"/>
-    <mergeCell ref="XD9:XE9"/>
-    <mergeCell ref="XF9:XG9"/>
-    <mergeCell ref="VX9:VY9"/>
-    <mergeCell ref="VZ9:WA9"/>
-    <mergeCell ref="WB9:WC9"/>
-    <mergeCell ref="WD9:WE9"/>
-    <mergeCell ref="WF9:WG9"/>
-    <mergeCell ref="WH9:WI9"/>
-    <mergeCell ref="WJ9:WK9"/>
-    <mergeCell ref="WL9:WM9"/>
-    <mergeCell ref="WN9:WO9"/>
-    <mergeCell ref="VF9:VG9"/>
-    <mergeCell ref="VH9:VI9"/>
-    <mergeCell ref="VJ9:VK9"/>
-    <mergeCell ref="VL9:VM9"/>
-    <mergeCell ref="VN9:VO9"/>
-    <mergeCell ref="VP9:VQ9"/>
-    <mergeCell ref="VR9:VS9"/>
-    <mergeCell ref="VT9:VU9"/>
-    <mergeCell ref="VV9:VW9"/>
-    <mergeCell ref="UN9:UO9"/>
-    <mergeCell ref="UP9:UQ9"/>
-    <mergeCell ref="UR9:US9"/>
-    <mergeCell ref="UT9:UU9"/>
-    <mergeCell ref="UV9:UW9"/>
-    <mergeCell ref="UX9:UY9"/>
-    <mergeCell ref="UZ9:VA9"/>
-    <mergeCell ref="VB9:VC9"/>
-    <mergeCell ref="VD9:VE9"/>
-    <mergeCell ref="TV9:TW9"/>
-    <mergeCell ref="TX9:TY9"/>
-    <mergeCell ref="TZ9:UA9"/>
-    <mergeCell ref="UB9:UC9"/>
-    <mergeCell ref="UD9:UE9"/>
-    <mergeCell ref="UF9:UG9"/>
-    <mergeCell ref="UH9:UI9"/>
-    <mergeCell ref="UJ9:UK9"/>
-    <mergeCell ref="UL9:UM9"/>
-    <mergeCell ref="TD9:TE9"/>
-    <mergeCell ref="TF9:TG9"/>
-    <mergeCell ref="TH9:TI9"/>
-    <mergeCell ref="TJ9:TK9"/>
-    <mergeCell ref="TL9:TM9"/>
-    <mergeCell ref="TN9:TO9"/>
-    <mergeCell ref="TP9:TQ9"/>
-    <mergeCell ref="TR9:TS9"/>
-    <mergeCell ref="TT9:TU9"/>
-    <mergeCell ref="SL9:SM9"/>
-    <mergeCell ref="SN9:SO9"/>
-    <mergeCell ref="SP9:SQ9"/>
-    <mergeCell ref="SR9:SS9"/>
-    <mergeCell ref="ST9:SU9"/>
-    <mergeCell ref="SV9:SW9"/>
-    <mergeCell ref="SX9:SY9"/>
-    <mergeCell ref="SZ9:TA9"/>
-    <mergeCell ref="TB9:TC9"/>
-    <mergeCell ref="RT9:RU9"/>
-    <mergeCell ref="RV9:RW9"/>
-    <mergeCell ref="RX9:RY9"/>
-    <mergeCell ref="RZ9:SA9"/>
-    <mergeCell ref="SB9:SC9"/>
-    <mergeCell ref="SD9:SE9"/>
-    <mergeCell ref="SF9:SG9"/>
-    <mergeCell ref="SH9:SI9"/>
-    <mergeCell ref="SJ9:SK9"/>
-    <mergeCell ref="RB9:RC9"/>
-    <mergeCell ref="RD9:RE9"/>
-    <mergeCell ref="RF9:RG9"/>
-    <mergeCell ref="RH9:RI9"/>
-    <mergeCell ref="RJ9:RK9"/>
-    <mergeCell ref="RL9:RM9"/>
-    <mergeCell ref="RN9:RO9"/>
-    <mergeCell ref="RP9:RQ9"/>
-    <mergeCell ref="RR9:RS9"/>
-    <mergeCell ref="QJ9:QK9"/>
-    <mergeCell ref="QL9:QM9"/>
-    <mergeCell ref="QN9:QO9"/>
-    <mergeCell ref="QP9:QQ9"/>
-    <mergeCell ref="QR9:QS9"/>
-    <mergeCell ref="QT9:QU9"/>
-    <mergeCell ref="QV9:QW9"/>
-    <mergeCell ref="QX9:QY9"/>
-    <mergeCell ref="QZ9:RA9"/>
-    <mergeCell ref="PR9:PS9"/>
-    <mergeCell ref="PT9:PU9"/>
-    <mergeCell ref="PV9:PW9"/>
-    <mergeCell ref="PX9:PY9"/>
-    <mergeCell ref="PZ9:QA9"/>
-    <mergeCell ref="QB9:QC9"/>
-    <mergeCell ref="QD9:QE9"/>
-    <mergeCell ref="QF9:QG9"/>
-    <mergeCell ref="QH9:QI9"/>
-    <mergeCell ref="OZ9:PA9"/>
-    <mergeCell ref="PB9:PC9"/>
-    <mergeCell ref="PD9:PE9"/>
-    <mergeCell ref="PF9:PG9"/>
-    <mergeCell ref="PH9:PI9"/>
-    <mergeCell ref="PJ9:PK9"/>
-    <mergeCell ref="PL9:PM9"/>
-    <mergeCell ref="PN9:PO9"/>
-    <mergeCell ref="PP9:PQ9"/>
-    <mergeCell ref="OH9:OI9"/>
-    <mergeCell ref="OJ9:OK9"/>
-    <mergeCell ref="OL9:OM9"/>
-    <mergeCell ref="ON9:OO9"/>
-    <mergeCell ref="OP9:OQ9"/>
-    <mergeCell ref="OR9:OS9"/>
-    <mergeCell ref="OT9:OU9"/>
-    <mergeCell ref="OV9:OW9"/>
-    <mergeCell ref="OX9:OY9"/>
-    <mergeCell ref="NP9:NQ9"/>
-    <mergeCell ref="NR9:NS9"/>
-    <mergeCell ref="NT9:NU9"/>
-    <mergeCell ref="NV9:NW9"/>
-    <mergeCell ref="NX9:NY9"/>
-    <mergeCell ref="NZ9:OA9"/>
-    <mergeCell ref="OB9:OC9"/>
-    <mergeCell ref="OD9:OE9"/>
-    <mergeCell ref="OF9:OG9"/>
-    <mergeCell ref="MX9:MY9"/>
-    <mergeCell ref="MZ9:NA9"/>
-    <mergeCell ref="NB9:NC9"/>
-    <mergeCell ref="ND9:NE9"/>
-    <mergeCell ref="NF9:NG9"/>
-    <mergeCell ref="NH9:NI9"/>
-    <mergeCell ref="NJ9:NK9"/>
-    <mergeCell ref="NL9:NM9"/>
-    <mergeCell ref="NN9:NO9"/>
-    <mergeCell ref="MF9:MG9"/>
-    <mergeCell ref="MH9:MI9"/>
-    <mergeCell ref="MJ9:MK9"/>
-    <mergeCell ref="ML9:MM9"/>
-    <mergeCell ref="MN9:MO9"/>
-    <mergeCell ref="MP9:MQ9"/>
-    <mergeCell ref="MR9:MS9"/>
-    <mergeCell ref="MT9:MU9"/>
-    <mergeCell ref="MV9:MW9"/>
-    <mergeCell ref="LN9:LO9"/>
-    <mergeCell ref="LP9:LQ9"/>
-    <mergeCell ref="LR9:LS9"/>
-    <mergeCell ref="LT9:LU9"/>
-    <mergeCell ref="LV9:LW9"/>
-    <mergeCell ref="LX9:LY9"/>
-    <mergeCell ref="LZ9:MA9"/>
-    <mergeCell ref="MB9:MC9"/>
-    <mergeCell ref="MD9:ME9"/>
-    <mergeCell ref="KV9:KW9"/>
-    <mergeCell ref="KX9:KY9"/>
-    <mergeCell ref="KZ9:LA9"/>
-    <mergeCell ref="LB9:LC9"/>
-    <mergeCell ref="LD9:LE9"/>
-    <mergeCell ref="LF9:LG9"/>
-    <mergeCell ref="LH9:LI9"/>
-    <mergeCell ref="LJ9:LK9"/>
-    <mergeCell ref="LL9:LM9"/>
-    <mergeCell ref="KD9:KE9"/>
-    <mergeCell ref="KF9:KG9"/>
-    <mergeCell ref="KH9:KI9"/>
-    <mergeCell ref="KJ9:KK9"/>
-    <mergeCell ref="KL9:KM9"/>
-    <mergeCell ref="KN9:KO9"/>
-    <mergeCell ref="KP9:KQ9"/>
-    <mergeCell ref="KR9:KS9"/>
-    <mergeCell ref="KT9:KU9"/>
-    <mergeCell ref="JL9:JM9"/>
-    <mergeCell ref="JN9:JO9"/>
-    <mergeCell ref="JP9:JQ9"/>
-    <mergeCell ref="JR9:JS9"/>
-    <mergeCell ref="JT9:JU9"/>
-    <mergeCell ref="JV9:JW9"/>
-    <mergeCell ref="JX9:JY9"/>
-    <mergeCell ref="JZ9:KA9"/>
-    <mergeCell ref="KB9:KC9"/>
-    <mergeCell ref="IT9:IU9"/>
-    <mergeCell ref="IV9:IW9"/>
-    <mergeCell ref="IX9:IY9"/>
-    <mergeCell ref="IZ9:JA9"/>
-    <mergeCell ref="JB9:JC9"/>
-    <mergeCell ref="JD9:JE9"/>
-    <mergeCell ref="JF9:JG9"/>
-    <mergeCell ref="JH9:JI9"/>
-    <mergeCell ref="JJ9:JK9"/>
-    <mergeCell ref="IB9:IC9"/>
-    <mergeCell ref="ID9:IE9"/>
-    <mergeCell ref="IF9:IG9"/>
-    <mergeCell ref="IH9:II9"/>
-    <mergeCell ref="IJ9:IK9"/>
-    <mergeCell ref="IL9:IM9"/>
-    <mergeCell ref="IN9:IO9"/>
-    <mergeCell ref="IP9:IQ9"/>
-    <mergeCell ref="IR9:IS9"/>
-    <mergeCell ref="HJ9:HK9"/>
-    <mergeCell ref="HL9:HM9"/>
-    <mergeCell ref="HN9:HO9"/>
-    <mergeCell ref="HP9:HQ9"/>
-    <mergeCell ref="HR9:HS9"/>
-    <mergeCell ref="HT9:HU9"/>
-    <mergeCell ref="HV9:HW9"/>
-    <mergeCell ref="HX9:HY9"/>
-    <mergeCell ref="HZ9:IA9"/>
-    <mergeCell ref="GR9:GS9"/>
-    <mergeCell ref="GT9:GU9"/>
-    <mergeCell ref="GV9:GW9"/>
-    <mergeCell ref="GX9:GY9"/>
-    <mergeCell ref="GZ9:HA9"/>
-    <mergeCell ref="HB9:HC9"/>
-    <mergeCell ref="HD9:HE9"/>
-    <mergeCell ref="HF9:HG9"/>
-    <mergeCell ref="HH9:HI9"/>
-    <mergeCell ref="FZ9:GA9"/>
-    <mergeCell ref="GB9:GC9"/>
-    <mergeCell ref="GD9:GE9"/>
-    <mergeCell ref="GF9:GG9"/>
-    <mergeCell ref="GH9:GI9"/>
-    <mergeCell ref="GJ9:GK9"/>
-    <mergeCell ref="GL9:GM9"/>
-    <mergeCell ref="GN9:GO9"/>
-    <mergeCell ref="GP9:GQ9"/>
-    <mergeCell ref="FH9:FI9"/>
-    <mergeCell ref="FJ9:FK9"/>
-    <mergeCell ref="FL9:FM9"/>
-    <mergeCell ref="FN9:FO9"/>
-    <mergeCell ref="FP9:FQ9"/>
-    <mergeCell ref="FR9:FS9"/>
-    <mergeCell ref="FT9:FU9"/>
-    <mergeCell ref="FV9:FW9"/>
-    <mergeCell ref="FX9:FY9"/>
-    <mergeCell ref="EP9:EQ9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="EZ9:FA9"/>
-    <mergeCell ref="FB9:FC9"/>
-    <mergeCell ref="FD9:FE9"/>
-    <mergeCell ref="FF9:FG9"/>
-    <mergeCell ref="DX9:DY9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="EH9:EI9"/>
-    <mergeCell ref="EJ9:EK9"/>
-    <mergeCell ref="EL9:EM9"/>
-    <mergeCell ref="EN9:EO9"/>
-    <mergeCell ref="DF9:DG9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DP9:DQ9"/>
-    <mergeCell ref="DR9:DS9"/>
-    <mergeCell ref="DT9:DU9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="CN9:CO9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="CZ9:DA9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="BV9:BW9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BR9:BS9"/>
-    <mergeCell ref="BT9:BU9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47599,7 +47587,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -48274,12 +48262,12 @@
     <col min="671" max="671" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>373</v>
       </c>
@@ -48287,7 +48275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>374</v>
       </c>
@@ -48295,8 +48283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -48304,7 +48291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -48312,7 +48299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -48320,8 +48307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:671" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>375</v>
       </c>
@@ -50336,7 +50322,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>377</v>
       </c>
@@ -52351,7 +52337,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -54366,12 +54352,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>379</v>
       </c>
@@ -54379,12 +54365,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:671" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:671" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>381</v>
       </c>
@@ -54394,6 +54380,330 @@
     </row>
   </sheetData>
   <mergeCells count="335">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BR9:BS9"/>
+    <mergeCell ref="BT9:BU9"/>
+    <mergeCell ref="BV9:BW9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CN9:CO9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DF9:DG9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DP9:DQ9"/>
+    <mergeCell ref="DR9:DS9"/>
+    <mergeCell ref="DT9:DU9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DX9:DY9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="EH9:EI9"/>
+    <mergeCell ref="EJ9:EK9"/>
+    <mergeCell ref="EL9:EM9"/>
+    <mergeCell ref="EN9:EO9"/>
+    <mergeCell ref="EP9:EQ9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="EZ9:FA9"/>
+    <mergeCell ref="FB9:FC9"/>
+    <mergeCell ref="FD9:FE9"/>
+    <mergeCell ref="FF9:FG9"/>
+    <mergeCell ref="FH9:FI9"/>
+    <mergeCell ref="FJ9:FK9"/>
+    <mergeCell ref="FL9:FM9"/>
+    <mergeCell ref="FN9:FO9"/>
+    <mergeCell ref="FP9:FQ9"/>
+    <mergeCell ref="FR9:FS9"/>
+    <mergeCell ref="FT9:FU9"/>
+    <mergeCell ref="FV9:FW9"/>
+    <mergeCell ref="FX9:FY9"/>
+    <mergeCell ref="FZ9:GA9"/>
+    <mergeCell ref="GB9:GC9"/>
+    <mergeCell ref="GD9:GE9"/>
+    <mergeCell ref="GF9:GG9"/>
+    <mergeCell ref="GH9:GI9"/>
+    <mergeCell ref="GJ9:GK9"/>
+    <mergeCell ref="GL9:GM9"/>
+    <mergeCell ref="GN9:GO9"/>
+    <mergeCell ref="GP9:GQ9"/>
+    <mergeCell ref="GR9:GS9"/>
+    <mergeCell ref="GT9:GU9"/>
+    <mergeCell ref="GV9:GW9"/>
+    <mergeCell ref="GX9:GY9"/>
+    <mergeCell ref="GZ9:HA9"/>
+    <mergeCell ref="HB9:HC9"/>
+    <mergeCell ref="HD9:HE9"/>
+    <mergeCell ref="HF9:HG9"/>
+    <mergeCell ref="HH9:HI9"/>
+    <mergeCell ref="HJ9:HK9"/>
+    <mergeCell ref="HL9:HM9"/>
+    <mergeCell ref="HN9:HO9"/>
+    <mergeCell ref="HP9:HQ9"/>
+    <mergeCell ref="HR9:HS9"/>
+    <mergeCell ref="HT9:HU9"/>
+    <mergeCell ref="HV9:HW9"/>
+    <mergeCell ref="HX9:HY9"/>
+    <mergeCell ref="HZ9:IA9"/>
+    <mergeCell ref="IB9:IC9"/>
+    <mergeCell ref="ID9:IE9"/>
+    <mergeCell ref="IF9:IG9"/>
+    <mergeCell ref="IH9:II9"/>
+    <mergeCell ref="IJ9:IK9"/>
+    <mergeCell ref="IL9:IM9"/>
+    <mergeCell ref="IN9:IO9"/>
+    <mergeCell ref="IP9:IQ9"/>
+    <mergeCell ref="IR9:IS9"/>
+    <mergeCell ref="IT9:IU9"/>
+    <mergeCell ref="IV9:IW9"/>
+    <mergeCell ref="IX9:IY9"/>
+    <mergeCell ref="IZ9:JA9"/>
+    <mergeCell ref="JB9:JC9"/>
+    <mergeCell ref="JD9:JE9"/>
+    <mergeCell ref="JF9:JG9"/>
+    <mergeCell ref="JH9:JI9"/>
+    <mergeCell ref="JJ9:JK9"/>
+    <mergeCell ref="JL9:JM9"/>
+    <mergeCell ref="JN9:JO9"/>
+    <mergeCell ref="JP9:JQ9"/>
+    <mergeCell ref="JR9:JS9"/>
+    <mergeCell ref="JT9:JU9"/>
+    <mergeCell ref="JV9:JW9"/>
+    <mergeCell ref="JX9:JY9"/>
+    <mergeCell ref="JZ9:KA9"/>
+    <mergeCell ref="KB9:KC9"/>
+    <mergeCell ref="KD9:KE9"/>
+    <mergeCell ref="KF9:KG9"/>
+    <mergeCell ref="KH9:KI9"/>
+    <mergeCell ref="KJ9:KK9"/>
+    <mergeCell ref="KL9:KM9"/>
+    <mergeCell ref="KN9:KO9"/>
+    <mergeCell ref="KP9:KQ9"/>
+    <mergeCell ref="KR9:KS9"/>
+    <mergeCell ref="KT9:KU9"/>
+    <mergeCell ref="KV9:KW9"/>
+    <mergeCell ref="KX9:KY9"/>
+    <mergeCell ref="KZ9:LA9"/>
+    <mergeCell ref="LB9:LC9"/>
+    <mergeCell ref="LD9:LE9"/>
+    <mergeCell ref="LF9:LG9"/>
+    <mergeCell ref="LH9:LI9"/>
+    <mergeCell ref="LJ9:LK9"/>
+    <mergeCell ref="LL9:LM9"/>
+    <mergeCell ref="LN9:LO9"/>
+    <mergeCell ref="LP9:LQ9"/>
+    <mergeCell ref="LR9:LS9"/>
+    <mergeCell ref="LT9:LU9"/>
+    <mergeCell ref="LV9:LW9"/>
+    <mergeCell ref="LX9:LY9"/>
+    <mergeCell ref="LZ9:MA9"/>
+    <mergeCell ref="MB9:MC9"/>
+    <mergeCell ref="MD9:ME9"/>
+    <mergeCell ref="MF9:MG9"/>
+    <mergeCell ref="MH9:MI9"/>
+    <mergeCell ref="MJ9:MK9"/>
+    <mergeCell ref="ML9:MM9"/>
+    <mergeCell ref="MN9:MO9"/>
+    <mergeCell ref="MP9:MQ9"/>
+    <mergeCell ref="MR9:MS9"/>
+    <mergeCell ref="MT9:MU9"/>
+    <mergeCell ref="MV9:MW9"/>
+    <mergeCell ref="MX9:MY9"/>
+    <mergeCell ref="MZ9:NA9"/>
+    <mergeCell ref="NB9:NC9"/>
+    <mergeCell ref="ND9:NE9"/>
+    <mergeCell ref="NF9:NG9"/>
+    <mergeCell ref="NH9:NI9"/>
+    <mergeCell ref="NJ9:NK9"/>
+    <mergeCell ref="NL9:NM9"/>
+    <mergeCell ref="NN9:NO9"/>
+    <mergeCell ref="NP9:NQ9"/>
+    <mergeCell ref="NR9:NS9"/>
+    <mergeCell ref="NT9:NU9"/>
+    <mergeCell ref="NV9:NW9"/>
+    <mergeCell ref="NX9:NY9"/>
+    <mergeCell ref="NZ9:OA9"/>
+    <mergeCell ref="OB9:OC9"/>
+    <mergeCell ref="OD9:OE9"/>
+    <mergeCell ref="OF9:OG9"/>
+    <mergeCell ref="OH9:OI9"/>
+    <mergeCell ref="OJ9:OK9"/>
+    <mergeCell ref="OL9:OM9"/>
+    <mergeCell ref="ON9:OO9"/>
+    <mergeCell ref="OP9:OQ9"/>
+    <mergeCell ref="OR9:OS9"/>
+    <mergeCell ref="OT9:OU9"/>
+    <mergeCell ref="OV9:OW9"/>
+    <mergeCell ref="OX9:OY9"/>
+    <mergeCell ref="OZ9:PA9"/>
+    <mergeCell ref="PB9:PC9"/>
+    <mergeCell ref="PD9:PE9"/>
+    <mergeCell ref="PF9:PG9"/>
+    <mergeCell ref="PH9:PI9"/>
+    <mergeCell ref="PJ9:PK9"/>
+    <mergeCell ref="PL9:PM9"/>
+    <mergeCell ref="PN9:PO9"/>
+    <mergeCell ref="PP9:PQ9"/>
+    <mergeCell ref="PR9:PS9"/>
+    <mergeCell ref="PT9:PU9"/>
+    <mergeCell ref="PV9:PW9"/>
+    <mergeCell ref="PX9:PY9"/>
+    <mergeCell ref="PZ9:QA9"/>
+    <mergeCell ref="QB9:QC9"/>
+    <mergeCell ref="QD9:QE9"/>
+    <mergeCell ref="QF9:QG9"/>
+    <mergeCell ref="QH9:QI9"/>
+    <mergeCell ref="QJ9:QK9"/>
+    <mergeCell ref="QL9:QM9"/>
+    <mergeCell ref="QN9:QO9"/>
+    <mergeCell ref="QP9:QQ9"/>
+    <mergeCell ref="QR9:QS9"/>
+    <mergeCell ref="QT9:QU9"/>
+    <mergeCell ref="QV9:QW9"/>
+    <mergeCell ref="QX9:QY9"/>
+    <mergeCell ref="QZ9:RA9"/>
+    <mergeCell ref="RB9:RC9"/>
+    <mergeCell ref="RD9:RE9"/>
+    <mergeCell ref="RF9:RG9"/>
+    <mergeCell ref="RH9:RI9"/>
+    <mergeCell ref="RJ9:RK9"/>
+    <mergeCell ref="RL9:RM9"/>
+    <mergeCell ref="RN9:RO9"/>
+    <mergeCell ref="RP9:RQ9"/>
+    <mergeCell ref="RR9:RS9"/>
+    <mergeCell ref="RT9:RU9"/>
+    <mergeCell ref="RV9:RW9"/>
+    <mergeCell ref="RX9:RY9"/>
+    <mergeCell ref="RZ9:SA9"/>
+    <mergeCell ref="SB9:SC9"/>
+    <mergeCell ref="SD9:SE9"/>
+    <mergeCell ref="SF9:SG9"/>
+    <mergeCell ref="SH9:SI9"/>
+    <mergeCell ref="SJ9:SK9"/>
+    <mergeCell ref="SL9:SM9"/>
+    <mergeCell ref="SN9:SO9"/>
+    <mergeCell ref="SP9:SQ9"/>
+    <mergeCell ref="SR9:SS9"/>
+    <mergeCell ref="ST9:SU9"/>
+    <mergeCell ref="SV9:SW9"/>
+    <mergeCell ref="SX9:SY9"/>
+    <mergeCell ref="SZ9:TA9"/>
+    <mergeCell ref="TB9:TC9"/>
+    <mergeCell ref="TD9:TE9"/>
+    <mergeCell ref="TF9:TG9"/>
+    <mergeCell ref="TH9:TI9"/>
+    <mergeCell ref="TJ9:TK9"/>
+    <mergeCell ref="TL9:TM9"/>
+    <mergeCell ref="TN9:TO9"/>
+    <mergeCell ref="TP9:TQ9"/>
+    <mergeCell ref="TR9:TS9"/>
+    <mergeCell ref="TT9:TU9"/>
+    <mergeCell ref="TV9:TW9"/>
+    <mergeCell ref="TX9:TY9"/>
+    <mergeCell ref="TZ9:UA9"/>
+    <mergeCell ref="UB9:UC9"/>
+    <mergeCell ref="UD9:UE9"/>
+    <mergeCell ref="UF9:UG9"/>
+    <mergeCell ref="UH9:UI9"/>
+    <mergeCell ref="UJ9:UK9"/>
+    <mergeCell ref="UL9:UM9"/>
+    <mergeCell ref="UN9:UO9"/>
+    <mergeCell ref="UP9:UQ9"/>
+    <mergeCell ref="UR9:US9"/>
+    <mergeCell ref="UT9:UU9"/>
+    <mergeCell ref="UV9:UW9"/>
+    <mergeCell ref="UX9:UY9"/>
+    <mergeCell ref="UZ9:VA9"/>
+    <mergeCell ref="VB9:VC9"/>
+    <mergeCell ref="VD9:VE9"/>
+    <mergeCell ref="VF9:VG9"/>
+    <mergeCell ref="VH9:VI9"/>
+    <mergeCell ref="VJ9:VK9"/>
+    <mergeCell ref="VL9:VM9"/>
+    <mergeCell ref="VN9:VO9"/>
+    <mergeCell ref="VP9:VQ9"/>
+    <mergeCell ref="VR9:VS9"/>
+    <mergeCell ref="VT9:VU9"/>
+    <mergeCell ref="VV9:VW9"/>
+    <mergeCell ref="VX9:VY9"/>
+    <mergeCell ref="VZ9:WA9"/>
+    <mergeCell ref="WB9:WC9"/>
+    <mergeCell ref="WD9:WE9"/>
+    <mergeCell ref="WF9:WG9"/>
+    <mergeCell ref="WH9:WI9"/>
+    <mergeCell ref="WJ9:WK9"/>
+    <mergeCell ref="WL9:WM9"/>
+    <mergeCell ref="WN9:WO9"/>
+    <mergeCell ref="WP9:WQ9"/>
+    <mergeCell ref="WR9:WS9"/>
+    <mergeCell ref="WT9:WU9"/>
+    <mergeCell ref="WV9:WW9"/>
+    <mergeCell ref="WX9:WY9"/>
+    <mergeCell ref="WZ9:XA9"/>
+    <mergeCell ref="XB9:XC9"/>
+    <mergeCell ref="XD9:XE9"/>
+    <mergeCell ref="XF9:XG9"/>
+    <mergeCell ref="XH9:XI9"/>
+    <mergeCell ref="XJ9:XK9"/>
+    <mergeCell ref="XL9:XM9"/>
+    <mergeCell ref="XN9:XO9"/>
+    <mergeCell ref="XP9:XQ9"/>
+    <mergeCell ref="XR9:XS9"/>
+    <mergeCell ref="XT9:XU9"/>
+    <mergeCell ref="XV9:XW9"/>
+    <mergeCell ref="XX9:XY9"/>
     <mergeCell ref="YR9:YS9"/>
     <mergeCell ref="YT9:YU9"/>
     <mergeCell ref="XZ9:YA9"/>
@@ -54405,330 +54715,6 @@
     <mergeCell ref="YL9:YM9"/>
     <mergeCell ref="YN9:YO9"/>
     <mergeCell ref="YP9:YQ9"/>
-    <mergeCell ref="XH9:XI9"/>
-    <mergeCell ref="XJ9:XK9"/>
-    <mergeCell ref="XL9:XM9"/>
-    <mergeCell ref="XN9:XO9"/>
-    <mergeCell ref="XP9:XQ9"/>
-    <mergeCell ref="XR9:XS9"/>
-    <mergeCell ref="XT9:XU9"/>
-    <mergeCell ref="XV9:XW9"/>
-    <mergeCell ref="XX9:XY9"/>
-    <mergeCell ref="WP9:WQ9"/>
-    <mergeCell ref="WR9:WS9"/>
-    <mergeCell ref="WT9:WU9"/>
-    <mergeCell ref="WV9:WW9"/>
-    <mergeCell ref="WX9:WY9"/>
-    <mergeCell ref="WZ9:XA9"/>
-    <mergeCell ref="XB9:XC9"/>
-    <mergeCell ref="XD9:XE9"/>
-    <mergeCell ref="XF9:XG9"/>
-    <mergeCell ref="VX9:VY9"/>
-    <mergeCell ref="VZ9:WA9"/>
-    <mergeCell ref="WB9:WC9"/>
-    <mergeCell ref="WD9:WE9"/>
-    <mergeCell ref="WF9:WG9"/>
-    <mergeCell ref="WH9:WI9"/>
-    <mergeCell ref="WJ9:WK9"/>
-    <mergeCell ref="WL9:WM9"/>
-    <mergeCell ref="WN9:WO9"/>
-    <mergeCell ref="VF9:VG9"/>
-    <mergeCell ref="VH9:VI9"/>
-    <mergeCell ref="VJ9:VK9"/>
-    <mergeCell ref="VL9:VM9"/>
-    <mergeCell ref="VN9:VO9"/>
-    <mergeCell ref="VP9:VQ9"/>
-    <mergeCell ref="VR9:VS9"/>
-    <mergeCell ref="VT9:VU9"/>
-    <mergeCell ref="VV9:VW9"/>
-    <mergeCell ref="UN9:UO9"/>
-    <mergeCell ref="UP9:UQ9"/>
-    <mergeCell ref="UR9:US9"/>
-    <mergeCell ref="UT9:UU9"/>
-    <mergeCell ref="UV9:UW9"/>
-    <mergeCell ref="UX9:UY9"/>
-    <mergeCell ref="UZ9:VA9"/>
-    <mergeCell ref="VB9:VC9"/>
-    <mergeCell ref="VD9:VE9"/>
-    <mergeCell ref="TV9:TW9"/>
-    <mergeCell ref="TX9:TY9"/>
-    <mergeCell ref="TZ9:UA9"/>
-    <mergeCell ref="UB9:UC9"/>
-    <mergeCell ref="UD9:UE9"/>
-    <mergeCell ref="UF9:UG9"/>
-    <mergeCell ref="UH9:UI9"/>
-    <mergeCell ref="UJ9:UK9"/>
-    <mergeCell ref="UL9:UM9"/>
-    <mergeCell ref="TD9:TE9"/>
-    <mergeCell ref="TF9:TG9"/>
-    <mergeCell ref="TH9:TI9"/>
-    <mergeCell ref="TJ9:TK9"/>
-    <mergeCell ref="TL9:TM9"/>
-    <mergeCell ref="TN9:TO9"/>
-    <mergeCell ref="TP9:TQ9"/>
-    <mergeCell ref="TR9:TS9"/>
-    <mergeCell ref="TT9:TU9"/>
-    <mergeCell ref="SL9:SM9"/>
-    <mergeCell ref="SN9:SO9"/>
-    <mergeCell ref="SP9:SQ9"/>
-    <mergeCell ref="SR9:SS9"/>
-    <mergeCell ref="ST9:SU9"/>
-    <mergeCell ref="SV9:SW9"/>
-    <mergeCell ref="SX9:SY9"/>
-    <mergeCell ref="SZ9:TA9"/>
-    <mergeCell ref="TB9:TC9"/>
-    <mergeCell ref="RT9:RU9"/>
-    <mergeCell ref="RV9:RW9"/>
-    <mergeCell ref="RX9:RY9"/>
-    <mergeCell ref="RZ9:SA9"/>
-    <mergeCell ref="SB9:SC9"/>
-    <mergeCell ref="SD9:SE9"/>
-    <mergeCell ref="SF9:SG9"/>
-    <mergeCell ref="SH9:SI9"/>
-    <mergeCell ref="SJ9:SK9"/>
-    <mergeCell ref="RB9:RC9"/>
-    <mergeCell ref="RD9:RE9"/>
-    <mergeCell ref="RF9:RG9"/>
-    <mergeCell ref="RH9:RI9"/>
-    <mergeCell ref="RJ9:RK9"/>
-    <mergeCell ref="RL9:RM9"/>
-    <mergeCell ref="RN9:RO9"/>
-    <mergeCell ref="RP9:RQ9"/>
-    <mergeCell ref="RR9:RS9"/>
-    <mergeCell ref="QJ9:QK9"/>
-    <mergeCell ref="QL9:QM9"/>
-    <mergeCell ref="QN9:QO9"/>
-    <mergeCell ref="QP9:QQ9"/>
-    <mergeCell ref="QR9:QS9"/>
-    <mergeCell ref="QT9:QU9"/>
-    <mergeCell ref="QV9:QW9"/>
-    <mergeCell ref="QX9:QY9"/>
-    <mergeCell ref="QZ9:RA9"/>
-    <mergeCell ref="PR9:PS9"/>
-    <mergeCell ref="PT9:PU9"/>
-    <mergeCell ref="PV9:PW9"/>
-    <mergeCell ref="PX9:PY9"/>
-    <mergeCell ref="PZ9:QA9"/>
-    <mergeCell ref="QB9:QC9"/>
-    <mergeCell ref="QD9:QE9"/>
-    <mergeCell ref="QF9:QG9"/>
-    <mergeCell ref="QH9:QI9"/>
-    <mergeCell ref="OZ9:PA9"/>
-    <mergeCell ref="PB9:PC9"/>
-    <mergeCell ref="PD9:PE9"/>
-    <mergeCell ref="PF9:PG9"/>
-    <mergeCell ref="PH9:PI9"/>
-    <mergeCell ref="PJ9:PK9"/>
-    <mergeCell ref="PL9:PM9"/>
-    <mergeCell ref="PN9:PO9"/>
-    <mergeCell ref="PP9:PQ9"/>
-    <mergeCell ref="OH9:OI9"/>
-    <mergeCell ref="OJ9:OK9"/>
-    <mergeCell ref="OL9:OM9"/>
-    <mergeCell ref="ON9:OO9"/>
-    <mergeCell ref="OP9:OQ9"/>
-    <mergeCell ref="OR9:OS9"/>
-    <mergeCell ref="OT9:OU9"/>
-    <mergeCell ref="OV9:OW9"/>
-    <mergeCell ref="OX9:OY9"/>
-    <mergeCell ref="NP9:NQ9"/>
-    <mergeCell ref="NR9:NS9"/>
-    <mergeCell ref="NT9:NU9"/>
-    <mergeCell ref="NV9:NW9"/>
-    <mergeCell ref="NX9:NY9"/>
-    <mergeCell ref="NZ9:OA9"/>
-    <mergeCell ref="OB9:OC9"/>
-    <mergeCell ref="OD9:OE9"/>
-    <mergeCell ref="OF9:OG9"/>
-    <mergeCell ref="MX9:MY9"/>
-    <mergeCell ref="MZ9:NA9"/>
-    <mergeCell ref="NB9:NC9"/>
-    <mergeCell ref="ND9:NE9"/>
-    <mergeCell ref="NF9:NG9"/>
-    <mergeCell ref="NH9:NI9"/>
-    <mergeCell ref="NJ9:NK9"/>
-    <mergeCell ref="NL9:NM9"/>
-    <mergeCell ref="NN9:NO9"/>
-    <mergeCell ref="MF9:MG9"/>
-    <mergeCell ref="MH9:MI9"/>
-    <mergeCell ref="MJ9:MK9"/>
-    <mergeCell ref="ML9:MM9"/>
-    <mergeCell ref="MN9:MO9"/>
-    <mergeCell ref="MP9:MQ9"/>
-    <mergeCell ref="MR9:MS9"/>
-    <mergeCell ref="MT9:MU9"/>
-    <mergeCell ref="MV9:MW9"/>
-    <mergeCell ref="LN9:LO9"/>
-    <mergeCell ref="LP9:LQ9"/>
-    <mergeCell ref="LR9:LS9"/>
-    <mergeCell ref="LT9:LU9"/>
-    <mergeCell ref="LV9:LW9"/>
-    <mergeCell ref="LX9:LY9"/>
-    <mergeCell ref="LZ9:MA9"/>
-    <mergeCell ref="MB9:MC9"/>
-    <mergeCell ref="MD9:ME9"/>
-    <mergeCell ref="KV9:KW9"/>
-    <mergeCell ref="KX9:KY9"/>
-    <mergeCell ref="KZ9:LA9"/>
-    <mergeCell ref="LB9:LC9"/>
-    <mergeCell ref="LD9:LE9"/>
-    <mergeCell ref="LF9:LG9"/>
-    <mergeCell ref="LH9:LI9"/>
-    <mergeCell ref="LJ9:LK9"/>
-    <mergeCell ref="LL9:LM9"/>
-    <mergeCell ref="KD9:KE9"/>
-    <mergeCell ref="KF9:KG9"/>
-    <mergeCell ref="KH9:KI9"/>
-    <mergeCell ref="KJ9:KK9"/>
-    <mergeCell ref="KL9:KM9"/>
-    <mergeCell ref="KN9:KO9"/>
-    <mergeCell ref="KP9:KQ9"/>
-    <mergeCell ref="KR9:KS9"/>
-    <mergeCell ref="KT9:KU9"/>
-    <mergeCell ref="JL9:JM9"/>
-    <mergeCell ref="JN9:JO9"/>
-    <mergeCell ref="JP9:JQ9"/>
-    <mergeCell ref="JR9:JS9"/>
-    <mergeCell ref="JT9:JU9"/>
-    <mergeCell ref="JV9:JW9"/>
-    <mergeCell ref="JX9:JY9"/>
-    <mergeCell ref="JZ9:KA9"/>
-    <mergeCell ref="KB9:KC9"/>
-    <mergeCell ref="IT9:IU9"/>
-    <mergeCell ref="IV9:IW9"/>
-    <mergeCell ref="IX9:IY9"/>
-    <mergeCell ref="IZ9:JA9"/>
-    <mergeCell ref="JB9:JC9"/>
-    <mergeCell ref="JD9:JE9"/>
-    <mergeCell ref="JF9:JG9"/>
-    <mergeCell ref="JH9:JI9"/>
-    <mergeCell ref="JJ9:JK9"/>
-    <mergeCell ref="IB9:IC9"/>
-    <mergeCell ref="ID9:IE9"/>
-    <mergeCell ref="IF9:IG9"/>
-    <mergeCell ref="IH9:II9"/>
-    <mergeCell ref="IJ9:IK9"/>
-    <mergeCell ref="IL9:IM9"/>
-    <mergeCell ref="IN9:IO9"/>
-    <mergeCell ref="IP9:IQ9"/>
-    <mergeCell ref="IR9:IS9"/>
-    <mergeCell ref="HJ9:HK9"/>
-    <mergeCell ref="HL9:HM9"/>
-    <mergeCell ref="HN9:HO9"/>
-    <mergeCell ref="HP9:HQ9"/>
-    <mergeCell ref="HR9:HS9"/>
-    <mergeCell ref="HT9:HU9"/>
-    <mergeCell ref="HV9:HW9"/>
-    <mergeCell ref="HX9:HY9"/>
-    <mergeCell ref="HZ9:IA9"/>
-    <mergeCell ref="GR9:GS9"/>
-    <mergeCell ref="GT9:GU9"/>
-    <mergeCell ref="GV9:GW9"/>
-    <mergeCell ref="GX9:GY9"/>
-    <mergeCell ref="GZ9:HA9"/>
-    <mergeCell ref="HB9:HC9"/>
-    <mergeCell ref="HD9:HE9"/>
-    <mergeCell ref="HF9:HG9"/>
-    <mergeCell ref="HH9:HI9"/>
-    <mergeCell ref="FZ9:GA9"/>
-    <mergeCell ref="GB9:GC9"/>
-    <mergeCell ref="GD9:GE9"/>
-    <mergeCell ref="GF9:GG9"/>
-    <mergeCell ref="GH9:GI9"/>
-    <mergeCell ref="GJ9:GK9"/>
-    <mergeCell ref="GL9:GM9"/>
-    <mergeCell ref="GN9:GO9"/>
-    <mergeCell ref="GP9:GQ9"/>
-    <mergeCell ref="FH9:FI9"/>
-    <mergeCell ref="FJ9:FK9"/>
-    <mergeCell ref="FL9:FM9"/>
-    <mergeCell ref="FN9:FO9"/>
-    <mergeCell ref="FP9:FQ9"/>
-    <mergeCell ref="FR9:FS9"/>
-    <mergeCell ref="FT9:FU9"/>
-    <mergeCell ref="FV9:FW9"/>
-    <mergeCell ref="FX9:FY9"/>
-    <mergeCell ref="EP9:EQ9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="EZ9:FA9"/>
-    <mergeCell ref="FB9:FC9"/>
-    <mergeCell ref="FD9:FE9"/>
-    <mergeCell ref="FF9:FG9"/>
-    <mergeCell ref="DX9:DY9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="EH9:EI9"/>
-    <mergeCell ref="EJ9:EK9"/>
-    <mergeCell ref="EL9:EM9"/>
-    <mergeCell ref="EN9:EO9"/>
-    <mergeCell ref="DF9:DG9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DP9:DQ9"/>
-    <mergeCell ref="DR9:DS9"/>
-    <mergeCell ref="DT9:DU9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="CN9:CO9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="CZ9:DA9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="BV9:BW9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BR9:BS9"/>
-    <mergeCell ref="BT9:BU9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
